--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="120">
   <si>
     <t>Casual act condom use probability</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>Coverage</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Coverage vs. outcomes</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2186,7 @@
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2274,6 +2283,264 @@
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2001</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2002</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2003</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2004</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2005</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2006</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2007</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2008</v>
+      </c>
+      <c r="L10" s="13">
+        <v>2009</v>
+      </c>
+      <c r="M10" s="13">
+        <v>2010</v>
+      </c>
+      <c r="N10" s="13">
+        <v>2011</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2012</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2013</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>2014</v>
+      </c>
+      <c r="R10" s="13">
+        <v>2015</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
+        <v>2300000</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2600000</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
+        <v>2300000</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2700000</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <v>30000</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="14">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="15">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
+        <v>25000</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,21 +2550,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="34"/>
     <col min="2" max="2" width="10.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="40" style="34" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>92</v>
       </c>
@@ -2309,7 +2576,7 @@
       </c>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -2319,14 +2586,8 @@
       <c r="C2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -2336,14 +2597,8 @@
       <c r="C3" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -2353,14 +2608,8 @@
       <c r="C4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -2370,14 +2619,8 @@
       <c r="C5" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -2387,14 +2630,8 @@
       <c r="C6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -2404,14 +2641,8 @@
       <c r="C7" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -2421,81 +2652,72 @@
       <c r="C8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="35">
         <v>2000</v>
       </c>
-      <c r="C11" s="35">
+      <c r="D11" s="35">
         <v>2001</v>
       </c>
-      <c r="D11" s="35">
+      <c r="E11" s="35">
         <v>2002</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F11" s="35">
         <v>2003</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>2004</v>
       </c>
-      <c r="G11" s="35">
+      <c r="H11" s="35">
         <v>2005</v>
       </c>
-      <c r="H11" s="35">
+      <c r="I11" s="35">
         <v>2006</v>
       </c>
-      <c r="I11" s="35">
+      <c r="J11" s="35">
         <v>2007</v>
       </c>
-      <c r="J11" s="35">
+      <c r="K11" s="35">
         <v>2008</v>
       </c>
-      <c r="K11" s="35">
+      <c r="L11" s="35">
         <v>2009</v>
       </c>
-      <c r="L11" s="35">
+      <c r="M11" s="35">
         <v>2010</v>
       </c>
-      <c r="M11" s="35">
+      <c r="N11" s="35">
         <v>2011</v>
       </c>
-      <c r="N11" s="35">
+      <c r="O11" s="35">
         <v>2012</v>
       </c>
-      <c r="O11" s="35">
+      <c r="P11" s="35">
         <v>2013</v>
       </c>
-      <c r="P11" s="35">
+      <c r="Q11" s="35">
         <v>2014</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="R11" s="35">
         <v>2015</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="T11" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
-        <f>B2</f>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="str">
+        <f t="shared" ref="B12:B18" si="0">B2</f>
         <v>BCC</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37">
-        <v>2300000</v>
-      </c>
-      <c r="D12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
@@ -2503,31 +2725,27 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="37">
-        <v>2500000</v>
-      </c>
-      <c r="M12" s="37">
-        <v>2600000</v>
-      </c>
-      <c r="N12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
-      <c r="R12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
-        <f>B3</f>
+      <c r="R12" s="36"/>
+      <c r="S12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="37">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>FSW</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37">
-        <v>2300000</v>
-      </c>
-      <c r="D13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -2535,39 +2753,33 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="37">
-        <v>2500000</v>
-      </c>
-      <c r="M13" s="37">
-        <v>2700000</v>
-      </c>
-      <c r="N13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S13" s="36"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
-        <f>B4</f>
+      <c r="R13" s="36"/>
+      <c r="S13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T13" s="37">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>NSP</v>
       </c>
-      <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="36">
-        <v>20000</v>
-      </c>
+      <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="36">
-        <v>30000</v>
-      </c>
+      <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -2575,17 +2787,19 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
-      <c r="R14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="str">
-        <f>B5</f>
+      <c r="R14" s="36"/>
+      <c r="S14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="37">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>MSM</v>
       </c>
-      <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
@@ -2601,26 +2815,26 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S15" s="36">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="str">
-        <f>B6</f>
+      <c r="R15" s="36"/>
+      <c r="S15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>HCT</v>
       </c>
-      <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
@@ -2629,19 +2843,19 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" s="37">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
-        <f>B7</f>
+      <c r="R16" s="36"/>
+      <c r="S16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T16" s="37">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>ART</v>
       </c>
-      <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -2649,9 +2863,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="36">
-        <v>25000</v>
-      </c>
+      <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
@@ -2659,17 +2871,19 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="str">
-        <f>B8</f>
+      <c r="R17" s="36"/>
+      <c r="S17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>PMTCT</v>
       </c>
-      <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -2677,9 +2891,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="36">
-        <v>25000</v>
-      </c>
+      <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
@@ -2687,83 +2899,83 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R18" s="36"/>
+      <c r="S18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="35">
         <v>2000</v>
       </c>
-      <c r="C21" s="35">
+      <c r="D21" s="35">
         <v>2001</v>
       </c>
-      <c r="D21" s="35">
+      <c r="E21" s="35">
         <v>2002</v>
       </c>
-      <c r="E21" s="35">
+      <c r="F21" s="35">
         <v>2003</v>
       </c>
-      <c r="F21" s="35">
+      <c r="G21" s="35">
         <v>2004</v>
       </c>
-      <c r="G21" s="35">
+      <c r="H21" s="35">
         <v>2005</v>
       </c>
-      <c r="H21" s="35">
+      <c r="I21" s="35">
         <v>2006</v>
       </c>
-      <c r="I21" s="35">
+      <c r="J21" s="35">
         <v>2007</v>
       </c>
-      <c r="J21" s="35">
+      <c r="K21" s="35">
         <v>2008</v>
       </c>
-      <c r="K21" s="35">
+      <c r="L21" s="35">
         <v>2009</v>
       </c>
-      <c r="L21" s="35">
+      <c r="M21" s="35">
         <v>2010</v>
       </c>
-      <c r="M21" s="35">
+      <c r="N21" s="35">
         <v>2011</v>
       </c>
-      <c r="N21" s="35">
+      <c r="O21" s="35">
         <v>2012</v>
       </c>
-      <c r="O21" s="35">
+      <c r="P21" s="35">
         <v>2013</v>
       </c>
-      <c r="P21" s="35">
+      <c r="Q21" s="35">
         <v>2014</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="R21" s="35">
         <v>2015</v>
       </c>
-      <c r="S21" s="35" t="s">
+      <c r="T21" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="str">
-        <f>B2</f>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="str">
+        <f t="shared" ref="B22:B28" si="1">B2</f>
         <v>BCC</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37">
-        <v>2300000</v>
-      </c>
-      <c r="D22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -2771,31 +2983,27 @@
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="37">
-        <v>2500000</v>
-      </c>
-      <c r="M22" s="37">
-        <v>2600000</v>
-      </c>
-      <c r="N22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="str">
-        <f>B3</f>
+      <c r="R22" s="36"/>
+      <c r="S22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" s="38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>FSW</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37">
-        <v>2300000</v>
-      </c>
-      <c r="D23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -2803,39 +3011,33 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="37">
-        <v>2500000</v>
-      </c>
-      <c r="M23" s="37">
-        <v>2700000</v>
-      </c>
-      <c r="N23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="str">
-        <f>B4</f>
+      <c r="R23" s="36"/>
+      <c r="S23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T23" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>NSP</v>
       </c>
-      <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="36">
-        <v>20000</v>
-      </c>
+      <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="36">
-        <v>30000</v>
-      </c>
+      <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -2843,17 +3045,19 @@
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="36"/>
-      <c r="R24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="str">
-        <f>B5</f>
+      <c r="R24" s="36"/>
+      <c r="S24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" s="38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>MSM</v>
       </c>
-      <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
@@ -2869,26 +3073,26 @@
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S25" s="36">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="str">
-        <f>B6</f>
+      <c r="R25" s="36"/>
+      <c r="S25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>HCT</v>
       </c>
-      <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -2897,19 +3101,19 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
-      <c r="R26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S26" s="37">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="str">
-        <f>B7</f>
+      <c r="R26" s="36"/>
+      <c r="S26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T26" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>ART</v>
       </c>
-      <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -2917,9 +3121,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="36">
-        <v>25000</v>
-      </c>
+      <c r="J27" s="36"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
@@ -2927,17 +3129,19 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S27" s="36"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="str">
-        <f>B8</f>
+      <c r="R27" s="36"/>
+      <c r="S27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>PMTCT</v>
       </c>
-      <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -2945,9 +3149,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="36">
-        <v>25000</v>
-      </c>
+      <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
@@ -2955,10 +3157,13 @@
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
-      <c r="R28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="S28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" s="38">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,10 +3174,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A9:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S8"/>
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,264 +3185,6 @@
     <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="13">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="13">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="13">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="13">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="13">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15">
-        <v>2300000</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15">
-        <v>2500000</v>
-      </c>
-      <c r="N3" s="15">
-        <v>2600000</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
-        <v>2300000</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15">
-        <v>2500000</v>
-      </c>
-      <c r="N4" s="15">
-        <v>2700000</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" s="14"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14">
-        <v>20000</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <v>30000</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="14">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T7" s="15">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
-        <v>25000</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" s="14"/>
-    </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S9" s="10"/>
     </row>
@@ -4520,8 +4467,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4550,10 +4497,10 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="X1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
@@ -4612,10 +4559,10 @@
         <v>51</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5725,7 +5672,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="S57" sqref="S57:S62"/>
     </sheetView>
   </sheetViews>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Populations" sheetId="12" r:id="rId1"/>
-    <sheet name="Programs" sheetId="15" r:id="rId2"/>
-    <sheet name="Epidemiology" sheetId="1" r:id="rId3"/>
-    <sheet name="Testing and treatment" sheetId="2" r:id="rId4"/>
-    <sheet name="Sexual behavior" sheetId="3" r:id="rId5"/>
-    <sheet name="Drug behavior" sheetId="4" r:id="rId6"/>
-    <sheet name="Constants" sheetId="14" r:id="rId7"/>
-    <sheet name="Partnerships" sheetId="9" r:id="rId8"/>
-    <sheet name="Transitions" sheetId="10" r:id="rId9"/>
+    <sheet name="Populations and programs" sheetId="12" r:id="rId1"/>
+    <sheet name="Epidemiology" sheetId="1" r:id="rId2"/>
+    <sheet name="Testing and treatment" sheetId="2" r:id="rId3"/>
+    <sheet name="Sexual behavior" sheetId="3" r:id="rId4"/>
+    <sheet name="Drug behavior" sheetId="4" r:id="rId5"/>
+    <sheet name="Partnerships" sheetId="9" r:id="rId6"/>
+    <sheet name="Transitions" sheetId="10" r:id="rId7"/>
+    <sheet name="Constants" sheetId="17" r:id="rId8"/>
+    <sheet name="Economics" sheetId="14" r:id="rId9"/>
+    <sheet name="Cost and coverage" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="128">
   <si>
     <t>Casual act condom use probability</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Assumption</t>
   </si>
   <si>
-    <t>Percent on OST</t>
-  </si>
-  <si>
     <t>HIV prevalence (lower bound)</t>
   </si>
   <si>
@@ -186,39 +184,12 @@
     <t>ART</t>
   </si>
   <si>
-    <t>GP condom programs</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>PWID condom programs</t>
-  </si>
-  <si>
     <t>HTC</t>
   </si>
   <si>
     <t>VMMC</t>
   </si>
   <si>
-    <t>NSP programs</t>
-  </si>
-  <si>
-    <t>OST programs</t>
-  </si>
-  <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Zero coverage</t>
-  </si>
-  <si>
-    <t>Full coverage</t>
-  </si>
-  <si>
     <t>Population size</t>
   </si>
   <si>
@@ -300,9 +271,6 @@
     <t>Symmetric transitions</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Short name</t>
   </si>
   <si>
@@ -366,9 +334,6 @@
     <t>Prevention of mother-to-child transmission</t>
   </si>
   <si>
-    <t>Spending</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
@@ -381,7 +346,67 @@
     <t>Full</t>
   </si>
   <si>
-    <t>Coverage vs. outcomes</t>
+    <t>Disability-adjusted life years</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4&gt;500</t>
+  </si>
+  <si>
+    <t>Untreated HIV, 350&lt;CD4&lt;500</t>
+  </si>
+  <si>
+    <t>Untreated HIV, 200&lt;CD4&lt;350</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4&lt;200</t>
+  </si>
+  <si>
+    <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>Non-treatment-related health care costs</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>CD4&gt;500</t>
+  </si>
+  <si>
+    <t>500&gt;CD4&gt;350</t>
+  </si>
+  <si>
+    <t>350&gt;CD4&gt;200</t>
+  </si>
+  <si>
+    <t>CD4&lt;200</t>
+  </si>
+  <si>
+    <t>STI</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>Voluntary male circumcision</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>Number of PWID on OST</t>
+  </si>
+  <si>
+    <t>Injects?</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>Regular sexual interactions</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1186,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -1212,6 +1237,8 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="662">
     <cellStyle name="Comma 2" xfId="13"/>
@@ -2174,373 +2201,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C13" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35">
+        <v>3</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D14" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35">
+        <v>5</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C17" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35">
+        <v>7</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2001</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2002</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2003</v>
-      </c>
-      <c r="G10" s="13">
-        <v>2004</v>
-      </c>
-      <c r="H10" s="13">
-        <v>2005</v>
-      </c>
-      <c r="I10" s="13">
-        <v>2006</v>
-      </c>
-      <c r="J10" s="13">
-        <v>2007</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2008</v>
-      </c>
-      <c r="L10" s="13">
-        <v>2009</v>
-      </c>
-      <c r="M10" s="13">
-        <v>2010</v>
-      </c>
-      <c r="N10" s="13">
-        <v>2011</v>
-      </c>
-      <c r="O10" s="13">
-        <v>2012</v>
-      </c>
-      <c r="P10" s="13">
-        <v>2013</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>2014</v>
-      </c>
-      <c r="R10" s="13">
-        <v>2015</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
-        <v>2300000</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15">
-        <v>2500000</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2600000</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
-        <v>2300000</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15">
-        <v>2500000</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2700000</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <v>30000</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="14">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="15">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14">
-        <v>25000</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T16" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>8</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,201 +2455,407 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <sheetPr published="0"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="34"/>
-    <col min="2" max="2" width="10.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="34"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="35"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>107</v>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>98</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="9" t="str">
+        <f>'Populations and programs'!C12</f>
+        <v>BCC</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="37">
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>109</v>
+      <c r="A4" s="34"/>
+      <c r="B4" s="9" t="str">
+        <f>'Populations and programs'!C13</f>
+        <v>FSW</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="37">
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>100</v>
+      <c r="A5" s="34"/>
+      <c r="B5" s="9" t="str">
+        <f>'Populations and programs'!C14</f>
+        <v>NSP</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="37">
+        <v>5000000</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="34"/>
+      <c r="B6" s="9" t="str">
+        <f>'Populations and programs'!C15</f>
+        <v>MSM</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="9" t="str">
+        <f>'Populations and programs'!C16</f>
+        <v>HCT</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="37">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="9" t="str">
+        <f>'Populations and programs'!C17</f>
+        <v>VMC</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9" t="str">
+        <f>'Populations and programs'!C18</f>
+        <v>ART</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="37">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="35">
+        <v>2001</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2002</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2003</v>
+      </c>
+      <c r="G12" s="35">
+        <v>2004</v>
+      </c>
+      <c r="H12" s="35">
+        <v>2005</v>
+      </c>
+      <c r="I12" s="35">
+        <v>2006</v>
+      </c>
+      <c r="J12" s="35">
+        <v>2007</v>
+      </c>
+      <c r="K12" s="35">
+        <v>2008</v>
+      </c>
+      <c r="L12" s="35">
+        <v>2009</v>
+      </c>
+      <c r="M12" s="35">
+        <v>2010</v>
+      </c>
+      <c r="N12" s="35">
+        <v>2011</v>
+      </c>
+      <c r="O12" s="35">
+        <v>2012</v>
+      </c>
+      <c r="P12" s="35">
+        <v>2013</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>2014</v>
+      </c>
+      <c r="R12" s="35">
+        <v>2015</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="35">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="35">
-        <v>2001</v>
-      </c>
-      <c r="E11" s="35">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2003</v>
-      </c>
-      <c r="G11" s="35">
-        <v>2004</v>
-      </c>
-      <c r="H11" s="35">
-        <v>2005</v>
-      </c>
-      <c r="I11" s="35">
-        <v>2006</v>
-      </c>
-      <c r="J11" s="35">
-        <v>2007</v>
-      </c>
-      <c r="K11" s="35">
-        <v>2008</v>
-      </c>
-      <c r="L11" s="35">
-        <v>2009</v>
-      </c>
-      <c r="M11" s="35">
-        <v>2010</v>
-      </c>
-      <c r="N11" s="35">
-        <v>2011</v>
-      </c>
-      <c r="O11" s="35">
-        <v>2012</v>
-      </c>
-      <c r="P11" s="35">
-        <v>2013</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>2014</v>
-      </c>
-      <c r="R11" s="35">
-        <v>2015</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="str">
-        <f t="shared" ref="B12:B18" si="0">B2</f>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="9" t="str">
+        <f>'Populations and programs'!C12</f>
         <v>BCC</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="37">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>FSW</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
@@ -2761,19 +2874,20 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" s="37">
-        <v>300000</v>
+        <v>103</v>
+      </c>
+      <c r="T13" s="38">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NSP</v>
+        <f>'Populations and programs'!C13</f>
+        <v>FSW</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -2782,23 +2896,24 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
       <c r="S14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="37">
-        <v>5000000</v>
+        <v>103</v>
+      </c>
+      <c r="T14" s="38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
       <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>MSM</v>
+        <f>'Populations and programs'!C14</f>
+        <v>NSP</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -2817,16 +2932,17 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
       <c r="S15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="37">
-        <v>100000</v>
+        <v>103</v>
+      </c>
+      <c r="T15" s="38">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>HCT</v>
+        <f>'Populations and programs'!C15</f>
+        <v>MSM</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2834,7 +2950,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
@@ -2845,16 +2961,17 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T16" s="37">
-        <v>700000</v>
+        <v>103</v>
+      </c>
+      <c r="T16" s="38">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ART</v>
+        <f>'Populations and programs'!C16</f>
+        <v>HCT</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -2862,7 +2979,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
@@ -2873,16 +2990,17 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
       <c r="S17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="37">
-        <v>4000000</v>
+        <v>103</v>
+      </c>
+      <c r="T17" s="38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PMTCT</v>
+        <f>'Populations and programs'!C17</f>
+        <v>VMC</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -2901,296 +3019,329 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
       <c r="S18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T18" s="37">
-        <v>1000000</v>
+        <v>103</v>
+      </c>
+      <c r="T18" s="38">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="35">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="35">
-        <v>2001</v>
-      </c>
-      <c r="E21" s="35">
-        <v>2002</v>
-      </c>
-      <c r="F21" s="35">
-        <v>2003</v>
-      </c>
-      <c r="G21" s="35">
-        <v>2004</v>
-      </c>
-      <c r="H21" s="35">
-        <v>2005</v>
-      </c>
-      <c r="I21" s="35">
-        <v>2006</v>
-      </c>
-      <c r="J21" s="35">
-        <v>2007</v>
-      </c>
-      <c r="K21" s="35">
-        <v>2008</v>
-      </c>
-      <c r="L21" s="35">
-        <v>2009</v>
-      </c>
-      <c r="M21" s="35">
-        <v>2010</v>
-      </c>
-      <c r="N21" s="35">
-        <v>2011</v>
-      </c>
-      <c r="O21" s="35">
-        <v>2012</v>
-      </c>
-      <c r="P21" s="35">
-        <v>2013</v>
-      </c>
-      <c r="Q21" s="35">
-        <v>2014</v>
-      </c>
-      <c r="R21" s="35">
-        <v>2015</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="str">
-        <f t="shared" ref="B22:B28" si="1">B2</f>
-        <v>BCC</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T22" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>FSW</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T23" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>NSP</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T24" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>MSM</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T25" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>HCT</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T26" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="9" t="str">
+        <f>'Populations and programs'!C18</f>
         <v>ART</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T27" s="38">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>PMTCT</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T28" s="38">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" s="38">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A9:T54"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="13">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="13">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="13">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="37">
+        <v>2250000</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2300000</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="N3" s="15">
+        <v>2600000</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="37">
+        <v>3000000</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <v>2300000</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2700000</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="14">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="15">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
+        <v>25000</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="14"/>
+    </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3271,7 +3422,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -3290,7 +3441,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T12" s="17">
         <v>1E-3</v>
@@ -3299,7 +3450,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3318,7 +3469,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T13" s="17">
         <v>1E-3</v>
@@ -3327,7 +3478,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -3348,14 +3499,14 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -3374,7 +3525,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T15" s="17">
         <v>2E-3</v>
@@ -3383,7 +3534,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -3404,14 +3555,14 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="16">
@@ -3438,7 +3589,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T17" s="14"/>
     </row>
@@ -3447,7 +3598,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3528,7 +3679,7 @@
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -3547,7 +3698,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T21" s="17">
         <v>1E-4</v>
@@ -3556,7 +3707,7 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -3575,7 +3726,7 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T22" s="17">
         <v>1E-4</v>
@@ -3584,7 +3735,7 @@
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -3605,14 +3756,14 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -3631,7 +3782,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T24" s="17">
         <v>1E-3</v>
@@ -3640,7 +3791,7 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3661,14 +3812,14 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16">
@@ -3695,7 +3846,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T26" s="14"/>
     </row>
@@ -3704,7 +3855,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3785,7 +3936,7 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -3804,7 +3955,7 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T30" s="17">
         <v>2E-3</v>
@@ -3813,7 +3964,7 @@
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3832,7 +3983,7 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T31" s="17">
         <v>2E-3</v>
@@ -3841,7 +3992,7 @@
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3862,14 +4013,14 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -3888,16 +4039,16 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T33" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -3918,14 +4069,14 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="16">
@@ -3952,16 +4103,16 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3982,8 +4133,12 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="34"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13">
@@ -4038,11 +4193,21 @@
       <c r="T38" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -4061,16 +4226,26 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T39" s="16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W39" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Z39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -4089,16 +4264,26 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T40" s="16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W40" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Z40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -4117,16 +4302,26 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T41" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W41" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="Z41" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -4145,16 +4340,26 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T42" s="16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W42" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="Z42" s="38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -4173,16 +4378,26 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T43" s="16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W43" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Z43" s="38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -4201,18 +4416,28 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T44" s="16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W44" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="Z44" s="38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -4234,7 +4459,7 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13">
@@ -4290,10 +4515,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4312,7 +4537,7 @@
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T48" s="16">
         <v>0.01</v>
@@ -4320,7 +4545,7 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -4339,7 +4564,7 @@
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T49" s="16">
         <v>0.01</v>
@@ -4347,7 +4572,7 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -4366,7 +4591,7 @@
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T50" s="16">
         <v>0.01</v>
@@ -4374,7 +4599,7 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -4393,7 +4618,7 @@
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
       <c r="S51" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T51" s="16">
         <v>0.01</v>
@@ -4401,7 +4626,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -4420,7 +4645,7 @@
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
       <c r="S52" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T52" s="16">
         <v>0.01</v>
@@ -4428,7 +4653,7 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -4447,7 +4672,7 @@
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T53" s="16">
         <v>0.01</v>
@@ -4462,20 +4687,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4496,11 +4721,9 @@
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
-      <c r="X1" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19">
@@ -4555,20 +4778,20 @@
       <c r="T2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>117</v>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -4587,21 +4810,25 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T3" s="21">
         <v>0.03</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4620,21 +4847,25 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T4" s="21">
         <v>0.03</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -4659,19 +4890,23 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T5" s="20"/>
-      <c r="V5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4690,21 +4925,25 @@
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T6" s="21">
         <v>0.1</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21">
@@ -4729,19 +4968,23 @@
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T7" s="20"/>
-      <c r="V7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4760,20 +5003,24 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T8" s="21">
         <v>0.8</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -4794,8 +5041,10 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19">
@@ -4850,11 +5099,20 @@
       <c r="T11" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4873,15 +5131,24 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T12" s="21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4903,7 +5170,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19">
@@ -4959,10 +5226,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -4981,13 +5248,13 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T16" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5009,7 +5276,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19">
@@ -5065,10 +5332,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -5091,13 +5358,13 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T20" s="20"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -5119,7 +5386,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19">
@@ -5175,10 +5442,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -5197,13 +5464,13 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T24" s="20"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -5225,7 +5492,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19">
@@ -5281,10 +5548,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -5307,13 +5574,13 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T28" s="20"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5335,7 +5602,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19">
@@ -5390,14 +5657,20 @@
       <c r="T31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -5422,16 +5695,22 @@
       </c>
       <c r="R32" s="20"/>
       <c r="S32" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="V32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y32" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5453,7 +5732,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19">
@@ -5508,14 +5787,20 @@
       <c r="T35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -5540,16 +5825,22 @@
       </c>
       <c r="R36" s="20"/>
       <c r="S36" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T36" s="20"/>
-      <c r="V36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y36" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -5571,7 +5862,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19">
@@ -5626,14 +5917,20 @@
       <c r="T39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -5654,11 +5951,17 @@
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
       <c r="S40" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T40" s="20"/>
-      <c r="V40" s="2" t="s">
-        <v>52</v>
+      <c r="W40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5667,23 +5970,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57:S62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5764,7 +6067,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -5783,7 +6086,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T3" s="24">
         <v>60</v>
@@ -5792,7 +6095,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -5811,7 +6114,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T4" s="24">
         <v>60</v>
@@ -5820,7 +6123,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5839,7 +6142,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T5" s="24">
         <v>40</v>
@@ -5848,7 +6151,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -5867,7 +6170,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T6" s="24">
         <v>50</v>
@@ -5876,7 +6179,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -5895,7 +6198,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T7" s="24">
         <v>50</v>
@@ -5904,7 +6207,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -5923,7 +6226,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T8" s="24">
         <v>50</v>
@@ -5931,7 +6234,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -6012,7 +6315,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -6031,7 +6334,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T12" s="24">
         <v>10</v>
@@ -6040,7 +6343,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -6059,7 +6362,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="S13" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T13" s="24">
         <v>10</v>
@@ -6068,7 +6371,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -6087,7 +6390,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T14" s="24">
         <v>20</v>
@@ -6096,7 +6399,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -6115,7 +6418,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T15" s="24">
         <v>20</v>
@@ -6124,7 +6427,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -6143,16 +6446,16 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T16" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -6171,15 +6474,15 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T17" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -6201,7 +6504,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23">
@@ -6257,10 +6560,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -6279,16 +6582,16 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T21" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -6307,16 +6610,16 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T22" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -6335,16 +6638,16 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T23" s="24">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -6363,16 +6666,16 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T24" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -6391,16 +6694,16 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T25" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -6419,15 +6722,15 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T26" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -6448,14 +6751,10 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-      <c r="V28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="34"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23">
@@ -6510,18 +6809,20 @@
       <c r="T29" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="1"/>
-      <c r="X29" s="4" t="s">
-        <v>63</v>
+      <c r="W29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -6540,21 +6841,25 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T30" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y30" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -6573,21 +6878,25 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T31" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y31" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -6606,21 +6915,25 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T32" s="25">
         <v>0.2</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y32" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="Z32" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -6639,21 +6952,25 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T33" s="25">
         <v>0.2</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -6672,21 +6989,25 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T34" s="25">
         <v>0.2</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y34" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -6705,18 +7026,22 @@
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T35" s="25">
         <v>0.2</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y35" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>0</v>
       </c>
@@ -6739,11 +7064,10 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
-      <c r="X37" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="34"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23">
@@ -6798,20 +7122,20 @@
       <c r="T38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>63</v>
+      <c r="W38" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -6830,21 +7154,25 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T39" s="25">
         <v>0.5</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y39" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -6863,21 +7191,25 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T40" s="25">
         <v>0.5</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y40" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -6896,21 +7228,25 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T41" s="25">
         <v>0.5</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y41" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="Z41" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -6929,21 +7265,25 @@
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T42" s="25">
         <v>0.5</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -6962,21 +7302,25 @@
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
       <c r="S43" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T43" s="25">
         <v>0.5</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y43" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -6995,18 +7339,22 @@
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
       <c r="S44" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T44" s="25">
         <v>0.5</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y44" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>1</v>
       </c>
@@ -7029,11 +7377,10 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="X46" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="34"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23">
@@ -7088,20 +7435,20 @@
       <c r="T47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>63</v>
+      <c r="W47" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -7120,19 +7467,23 @@
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T48" s="24">
         <v>0</v>
       </c>
-      <c r="V48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W48" s="2"/>
+      <c r="Y48" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -7151,19 +7502,23 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T49" s="24">
         <v>0</v>
       </c>
-      <c r="V49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W49" s="2"/>
+      <c r="Y49" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -7182,21 +7537,25 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T50" s="25">
         <v>0.8</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W50" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y50" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="Z50" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -7215,21 +7574,25 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T51" s="25">
         <v>0.8</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y51" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -7248,21 +7611,23 @@
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
       <c r="S52" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T52" s="24">
         <v>0</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W52" s="2"/>
+      <c r="Y52" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -7281,18 +7646,22 @@
       <c r="Q53" s="24"/>
       <c r="R53" s="24"/>
       <c r="S53" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T53" s="25">
         <v>0.8</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y53" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>2</v>
       </c>
@@ -7315,8 +7684,10 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="34"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23">
@@ -7371,14 +7742,20 @@
       <c r="T56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -7397,19 +7774,25 @@
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
       <c r="S57" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T57" s="25">
         <v>0.3</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y57" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -7428,17 +7811,23 @@
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T58" s="24">
         <v>0</v>
       </c>
-      <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W58" s="2"/>
+      <c r="Y58" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -7457,17 +7846,23 @@
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
       <c r="S59" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T59" s="24">
         <v>0</v>
       </c>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W59" s="2"/>
+      <c r="Y59" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -7486,19 +7881,25 @@
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T60" s="25">
         <v>0.3</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -7517,19 +7918,25 @@
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T61" s="25">
         <v>0.3</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y61" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -7548,13 +7955,19 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T62" s="25">
         <v>0.3</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>59</v>
+      <c r="W62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y62" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7564,21 +7977,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -7602,7 +8015,7 @@
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27">
@@ -7658,10 +8071,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="27" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -7680,16 +8093,16 @@
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T3" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -7708,16 +8121,16 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T4" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -7736,16 +8149,16 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T5" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -7764,16 +8177,16 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T6" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -7792,16 +8205,16 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T7" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -7820,13 +8233,13 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T8" s="28">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>4</v>
       </c>
@@ -7849,11 +8262,9 @@
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
-      <c r="X10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27">
@@ -7908,20 +8319,20 @@
       <c r="T11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>63</v>
+      <c r="W11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29">
@@ -7948,18 +8359,22 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T12" s="28"/>
-      <c r="V12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="Z12" s="38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -7981,7 +8396,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27">
@@ -8036,43 +8451,55 @@
       <c r="T15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41">
+        <v>250</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41">
+        <v>2000</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
       <c r="S16" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="T16" s="28"/>
-      <c r="V16" s="2" t="s">
-        <v>61</v>
+      <c r="W16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8081,601 +8508,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="39">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="39">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="39">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="39">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="36">
-        <v>10</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="36">
-        <v>3.8</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="39">
-        <v>10</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="39">
-        <v>0.245</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="38">
-        <v>0.45</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="38">
-        <v>0.36</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="39">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="38">
-        <v>0</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="39">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="38">
-        <v>0.49</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="38">
-        <v>0.04</v>
-      </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="36">
-        <v>2</v>
-      </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="38">
-        <v>0.65</v>
-      </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8684,8 +8522,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33">
-        <v>4</v>
+      <c r="A1" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -8716,22 +8554,22 @@
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -8755,7 +8593,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31">
@@ -8789,7 +8627,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -8819,7 +8657,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -8849,7 +8687,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31">
@@ -8882,7 +8720,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -8914,7 +8752,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31">
@@ -8975,7 +8813,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -9007,22 +8845,22 @@
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -9046,7 +8884,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31">
@@ -9080,7 +8918,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -9110,7 +8948,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -9140,7 +8978,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31">
@@ -9174,7 +9012,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -9206,7 +9044,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31">
@@ -9231,7 +9069,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -9245,28 +9083,28 @@
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -9278,7 +9116,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -9290,7 +9128,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -9302,7 +9140,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -9316,7 +9154,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -9328,7 +9166,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -9349,7 +9187,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9363,28 +9201,28 @@
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -9396,7 +9234,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -9408,7 +9246,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="33" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -9420,7 +9258,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
@@ -9432,7 +9270,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="33" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -9444,7 +9282,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
@@ -9460,7 +9298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -9472,7 +9310,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9486,33 +9324,33 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1" t="str">
-        <f>Populations!$B$2</f>
+        <f>'Populations and programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>Populations!$B$3</f>
+        <f>'Populations and programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>Populations!$B$4</f>
+        <f>'Populations and programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>Populations!$B$5</f>
+        <f>'Populations and programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>Populations!$B$6</f>
+        <f>'Populations and programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>Populations!$B$7</f>
+        <f>'Populations and programs'!$C$8</f>
         <v>PWID</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="str">
-        <f>Populations!$B$2</f>
+        <f>'Populations and programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C3" s="2"/>
@@ -9524,7 +9362,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
-        <f>Populations!$B$3</f>
+        <f>'Populations and programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C4" s="2"/>
@@ -9536,7 +9374,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="str">
-        <f>Populations!$B$4</f>
+        <f>'Populations and programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="2"/>
@@ -9548,7 +9386,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="str">
-        <f>Populations!$B$5</f>
+        <f>'Populations and programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C6" s="2"/>
@@ -9560,7 +9398,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="str">
-        <f>Populations!$B$6</f>
+        <f>'Populations and programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C7" s="2"/>
@@ -9572,7 +9410,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="str">
-        <f>Populations!$B$7</f>
+        <f>'Populations and programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C8" s="2"/>
@@ -9594,7 +9432,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9608,33 +9446,33 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="str">
-        <f>Populations!$B$2</f>
+        <f>'Populations and programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>Populations!$B$3</f>
+        <f>'Populations and programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>Populations!$B$4</f>
+        <f>'Populations and programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>Populations!$B$5</f>
+        <f>'Populations and programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>Populations!$B$6</f>
+        <f>'Populations and programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>Populations!$B$7</f>
+        <f>'Populations and programs'!$C$8</f>
         <v>PWID</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="str">
-        <f>Populations!$B$2</f>
+        <f>'Populations and programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C12" s="2"/>
@@ -9646,7 +9484,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="str">
-        <f>Populations!$B$3</f>
+        <f>'Populations and programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C13" s="2"/>
@@ -9658,7 +9496,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="str">
-        <f>Populations!$B$4</f>
+        <f>'Populations and programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C14" s="2"/>
@@ -9672,7 +9510,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="str">
-        <f>Populations!$B$5</f>
+        <f>'Populations and programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C15" s="2"/>
@@ -9684,7 +9522,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="str">
-        <f>Populations!$B$6</f>
+        <f>'Populations and programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C16" s="2"/>
@@ -9696,7 +9534,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="str">
-        <f>Populations!$B$7</f>
+        <f>'Populations and programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C17" s="8">
@@ -9711,4 +9549,684 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0"/>
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="27.42578125" style="34" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="39">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="39">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="36">
+        <v>10</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3.8</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="39">
+        <v>10</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0.245</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="38">
+        <v>0.36</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="38">
+        <v>0</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="39">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="38">
+        <v>0.49</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="36">
+        <v>2</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="40">
+        <v>0.221</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0.221</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.221</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="40">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="36">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="36">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Populations and programs" sheetId="12" r:id="rId1"/>
@@ -4692,7 +4692,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -9556,8 +9556,8 @@
   <sheetPr published="0"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9814,9 +9814,6 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Partnerships" sheetId="9" r:id="rId8"/>
     <sheet name="Transitions" sheetId="10" r:id="rId9"/>
     <sheet name="Constants" sheetId="17" r:id="rId10"/>
-    <sheet name="Costs and DALYs" sheetId="14" r:id="rId11"/>
+    <sheet name="Costs and disutilities" sheetId="14" r:id="rId11"/>
     <sheet name="Macroeconomics" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
@@ -25,56 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="134">
-  <si>
-    <t>Number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Needle-syringe sharing rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="142">
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Interaction-related transmissibility (% per act):</t>
-  </si>
-  <si>
     <t>Injecting</t>
   </si>
   <si>
-    <t>Mother-to-child</t>
-  </si>
-  <si>
-    <t>Disease-related transmissibility</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
-    <t>Disease progression rate: (% per year)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate: (% per year)</t>
-  </si>
-  <si>
-    <t>Death rate: (% mortality per year)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
-    <t>Treatment failure rate: (% per year)</t>
-  </si>
-  <si>
     <t>1st-line</t>
   </si>
   <si>
     <t>2nd-line</t>
   </si>
   <si>
-    <t>Efficacy/change in transmissibility due to:</t>
-  </si>
-  <si>
     <t>Heterosexual insertive</t>
   </si>
   <si>
@@ -159,9 +129,6 @@
     <t xml:space="preserve">PMTCT </t>
   </si>
   <si>
-    <t>Casual sexual interactions</t>
-  </si>
-  <si>
     <t>Programs</t>
   </si>
   <si>
@@ -198,24 +165,15 @@
     <t>PWID</t>
   </si>
   <si>
-    <t>STI prevalence</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Number of HIV tests</t>
   </si>
   <si>
-    <t>HIV testing rates</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>AIDS-stage HIV testing rate</t>
-  </si>
-  <si>
     <t>Number of diagnoses</t>
   </si>
   <si>
@@ -225,24 +183,9 @@
     <t>Number of people on 2nd-line treatment</t>
   </si>
   <si>
-    <t>Number of new infections</t>
-  </si>
-  <si>
-    <t>Number of women on PMTCT</t>
-  </si>
-  <si>
     <t>Number of HIV-related deaths</t>
   </si>
   <si>
-    <t>Commercial sexual interactions</t>
-  </si>
-  <si>
-    <t>Asymmetric transitions</t>
-  </si>
-  <si>
-    <t>Symmetric transitions</t>
-  </si>
-  <si>
     <t>Short name</t>
   </si>
   <si>
@@ -309,9 +252,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Disability-adjusted life years</t>
-  </si>
-  <si>
     <t>Untreated HIV, CD4&gt;500</t>
   </si>
   <si>
@@ -354,18 +294,12 @@
     <t>Populations</t>
   </si>
   <si>
-    <t>Regular sexual interactions</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>upper</t>
   </si>
   <si>
-    <t>Non-treatment-related HIV costs (health care + social mitigation)</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -384,9 +318,6 @@
     <t>Unit cost</t>
   </si>
   <si>
-    <t>AND</t>
-  </si>
-  <si>
     <t>HIV prevalence</t>
   </si>
   <si>
@@ -399,15 +330,6 @@
     <t>Number of acts with commercial partners per person per year</t>
   </si>
   <si>
-    <t>Condom use probability with regular partners</t>
-  </si>
-  <si>
-    <t>Condom use probability with casual partners</t>
-  </si>
-  <si>
-    <t>Condom use probability with commercial partners</t>
-  </si>
-  <si>
     <t>Male circumcision prevalence</t>
   </si>
   <si>
@@ -427,6 +349,108 @@
   </si>
   <si>
     <t>Total government expenditure</t>
+  </si>
+  <si>
+    <t>AND AT LEAST ONE OF</t>
+  </si>
+  <si>
+    <t>Prevalence of any discharing STIs</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Modeled number of new infections</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last year</t>
+  </si>
+  <si>
+    <t>Probability of person with CD4&lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>Percentage of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with regular partners</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Needle-syringe receptive sharing rate</t>
+  </si>
+  <si>
+    <t>Disease progression rate (% per year)</t>
+  </si>
+  <si>
+    <t>Birth rate (births/woman/year)</t>
+  </si>
+  <si>
+    <t>Mother-to-child (breastfeeding)</t>
+  </si>
+  <si>
+    <t>Mother-to-child (non-breastfeeding)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfeed</t>
+  </si>
+  <si>
+    <t>Relative disease-related transmissibility</t>
+  </si>
+  <si>
+    <t>Social mitigation costs</t>
+  </si>
+  <si>
+    <t>HIV-related health care costs (excluding treatment)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, acute</t>
+  </si>
+  <si>
+    <t>Disutility weights</t>
+  </si>
+  <si>
+    <t>Interactions between casual partners</t>
+  </si>
+  <si>
+    <t>Interactions between commercial partners</t>
+  </si>
+  <si>
+    <t>Interactions between regular partners</t>
+  </si>
+  <si>
+    <t>Interactions between people who inject drugs</t>
+  </si>
+  <si>
+    <t>Asymmetric population transitions (% per year)</t>
+  </si>
+  <si>
+    <t>Symmetric transitions (% per year)</t>
+  </si>
+  <si>
+    <t>Interaction-related transmissibility (% per act)</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate (% per year)</t>
+  </si>
+  <si>
+    <t>Treatment failure rate (% per year)</t>
+  </si>
+  <si>
+    <t>Death rate (% mortality per year)</t>
+  </si>
+  <si>
+    <t>Relative transmissibility</t>
   </si>
 </sst>
 </file>
@@ -2262,15 +2286,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="26" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -2280,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -2293,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -2306,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -2319,10 +2343,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -2332,10 +2356,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -2345,10 +2369,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -2364,17 +2388,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2426,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2437,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2448,10 +2472,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2459,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2475,36 +2499,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="27.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="21" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" s="33">
         <v>4.0000000000000002E-4</v>
@@ -2514,7 +2540,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" s="33">
         <v>1E-3</v>
@@ -2524,7 +2550,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="33">
         <v>5.9999999999999995E-4</v>
@@ -2534,7 +2560,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="33">
         <v>5.0000000000000001E-3</v>
@@ -2544,7 +2570,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="33">
         <v>3.0000000000000001E-3</v>
@@ -2554,7 +2580,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2562,7 +2588,591 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="27">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="33">
+        <v>10</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.36</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="32">
+        <v>0.49</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="32">
+        <v>0.04</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="27">
+        <v>2</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.221</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2574,603 +3184,30 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="27">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="27">
-        <v>1</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="27">
-        <v>3.8</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="33">
-        <v>10</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="33">
-        <v>0.245</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="32">
-        <v>0.45</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="32">
-        <v>0.36</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="32">
-        <v>0</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="33">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="32">
-        <v>0.49</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="32">
-        <v>0.04</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="27">
-        <v>2</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="32">
-        <v>0.65</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="31">
-        <v>0.221</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0.221</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="31">
-        <v>0.221</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="31">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+        <v>128</v>
+      </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C14" s="27">
         <v>0</v>
@@ -3181,10 +3218,10 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C15" s="27">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3192,10 +3229,10 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C16" s="27">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -3203,13 +3240,101 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C17" s="27">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="27">
+        <v>50000</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8000</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -3229,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3304,13 +3429,13 @@
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -3329,13 +3454,13 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="27"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3410,13 +3535,13 @@
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -3435,13 +3560,13 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T9" s="27"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3516,13 +3641,13 @@
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3541,13 +3666,13 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T15" s="27"/>
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3600,12 +3725,12 @@
         <v>2030</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3624,7 +3749,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T21" s="27"/>
     </row>
@@ -3633,7 +3758,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3686,12 +3811,12 @@
         <v>2030</v>
       </c>
       <c r="T26" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3710,7 +3835,7 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T27" s="27"/>
     </row>
@@ -3734,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3787,7 +3912,7 @@
         <v>2015</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3812,7 +3937,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="32">
         <v>0.3</v>
@@ -3840,7 +3965,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T4" s="32">
         <v>0.5</v>
@@ -3868,7 +3993,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T5" s="32">
         <v>0.3</v>
@@ -3896,7 +4021,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
@@ -3924,7 +4049,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T7" s="32">
         <v>0.5</v>
@@ -3952,7 +4077,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T8" s="32">
         <v>0.4</v>
@@ -3980,7 +4105,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T9" s="32">
         <v>0.8</v>
@@ -4009,7 +4134,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T10" s="32">
         <v>0.9</v>
@@ -4064,12 +4189,12 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4123,7 +4248,7 @@
         <v>2015</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4148,7 +4273,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T17" s="29">
         <v>1200000</v>
@@ -4176,7 +4301,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T18" s="29">
         <v>300000</v>
@@ -4204,7 +4329,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T19" s="29">
         <v>5000000</v>
@@ -4232,7 +4357,7 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T20" s="29">
         <v>100000</v>
@@ -4260,7 +4385,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T21" s="29">
         <v>700000</v>
@@ -4288,7 +4413,7 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T22" s="29">
         <v>4000000</v>
@@ -4316,7 +4441,7 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T23" s="29"/>
     </row>
@@ -4342,7 +4467,7 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T24" s="29"/>
     </row>
@@ -4351,12 +4476,12 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K26" s="24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -4410,7 +4535,7 @@
         <v>2015</v>
       </c>
       <c r="T28" s="22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -4435,7 +4560,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T29" s="30"/>
     </row>
@@ -4461,7 +4586,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T30" s="30"/>
     </row>
@@ -4487,7 +4612,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="S31" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T31" s="30"/>
     </row>
@@ -4513,7 +4638,7 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T32" s="30"/>
     </row>
@@ -4539,7 +4664,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T33" s="30"/>
     </row>
@@ -4565,7 +4690,7 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T34" s="30"/>
     </row>
@@ -4591,7 +4716,7 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T35" s="30">
         <v>1000</v>
@@ -4619,7 +4744,7 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T36" s="31">
         <v>2000</v>
@@ -4634,7 +4759,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4644,98 +4769,70 @@
     <col min="22" max="22" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
+    <row r="1" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="22">
         <v>2000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="22">
         <v>2001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="22">
         <v>2002</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="22">
         <v>2003</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="22">
         <v>2004</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="22">
         <v>2005</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="22">
         <v>2006</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="22">
         <v>2007</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="22">
         <v>2008</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="22">
         <v>2009</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="22">
         <v>2010</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="22">
         <v>2011</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="22">
         <v>2012</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="22">
         <v>2013</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="22">
         <v>2014</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="22">
         <v>2015</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C3" s="29">
-        <v>2250000</v>
-      </c>
-      <c r="D3" s="29">
-        <v>2300000</v>
-      </c>
+      <c r="T2" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -4744,30 +4841,28 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="29">
-        <v>2500000</v>
-      </c>
-      <c r="N3" s="29">
-        <v>2600000</v>
-      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="29">
-        <v>3000000</v>
-      </c>
+      <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C4" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="T3" s="33"/>
+    </row>
+    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2250000</v>
+      </c>
       <c r="D4" s="29">
         <v>2300000</v>
       </c>
@@ -4783,36 +4878,32 @@
         <v>2500000</v>
       </c>
       <c r="N4" s="29">
-        <v>2700000</v>
+        <v>2600000</v>
       </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+      <c r="R4" s="29">
+        <v>3000000</v>
+      </c>
       <c r="S4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T4" s="27"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
+        <v>73</v>
+      </c>
+      <c r="T4" s="33"/>
+    </row>
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-      <c r="H5" s="27">
-        <v>20000</v>
-      </c>
+      <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="27">
-        <v>30000</v>
-      </c>
+      <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
@@ -4821,44 +4912,14 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="27">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
+        <v>73</v>
+      </c>
+      <c r="T5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4866,7 +4927,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -4877,139 +4938,158 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" s="29">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
+        <v>73</v>
+      </c>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29">
+        <v>2300000</v>
+      </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="27">
-        <v>25000</v>
-      </c>
+      <c r="K8" s="27"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="M8" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="N8" s="29">
+        <v>2700000</v>
+      </c>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>73</v>
+      </c>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="33"/>
+    </row>
     <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="33"/>
+    </row>
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L13" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M13" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N13" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O13" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P13" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R13" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="A12" s="22" t="str">
+        <f>'Populations and programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27">
+        <v>30000</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="33"/>
+    </row>
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -5028,15 +5108,17 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T15" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>110</v>
+        <v>73</v>
+      </c>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="str">
+        <f>'Populations and programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -5055,47 +5137,41 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="T16" s="27">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="33"/>
+    </row>
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -5114,15 +5190,17 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="str">
+        <f>'Populations and programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
       <c r="B20" s="21" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -5141,47 +5219,41 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T20" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="T20" s="29">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -5200,15 +5272,17 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T23" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="T23" s="33"/>
+    </row>
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="str">
+        <f>'Populations and programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
       <c r="B24" s="21" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -5218,7 +5292,9 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="27">
+        <v>25000</v>
+      </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -5227,162 +5303,102 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T24" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T26" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U26" s="21"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T27" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U27" s="21"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T28" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U28" s="21"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T30" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U30" s="21"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="T24" s="33"/>
+    </row>
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T25" s="33"/>
+    </row>
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="11">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="11">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="11">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="10"/>
+      <c r="T30" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -5401,17 +5417,19 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="S31" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T31" s="33">
         <v>1E-3</v>
       </c>
-      <c r="U31" s="21"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
-        <v>110</v>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -5430,72 +5448,43 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T32" s="33">
         <v>1E-3</v>
       </c>
-      <c r="U32" s="21"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T34" s="33">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="33">
         <v>1E-3</v>
       </c>
-      <c r="U34" s="21"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
+    </row>
+    <row r="34" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -5514,17 +5503,19 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T35" s="33">
         <v>1E-3</v>
       </c>
-      <c r="U35" s="21"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+    </row>
+    <row r="36" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
       <c r="B36" s="21" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -5543,237 +5534,130 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T36" s="33">
         <v>1E-3</v>
       </c>
-      <c r="U36" s="21"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB40" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E41" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F41" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G41" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H41" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I41" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J41" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K41" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L41" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M41" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N41" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O41" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P41" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R41" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S41" s="10"/>
-      <c r="T41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="W41" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="X41" s="21"/>
-      <c r="Y41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB41" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC41" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T42" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W42" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z42" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB42" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
+    </row>
+    <row r="37" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="str">
+        <f>'Populations and programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T41" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -5792,33 +5676,20 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T43" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W43" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z43" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB43" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
+        <v>73</v>
+      </c>
+      <c r="T43" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U43" s="21"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="str">
+        <f>'Populations and programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -5837,33 +5708,17 @@
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T44" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="W44" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="Z44" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="AB44" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="AC44" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
+        <v>73</v>
+      </c>
+      <c r="T44" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U44" s="21"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -5882,78 +5737,40 @@
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T45" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W45" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z45" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB45" s="32">
-        <v>0.03</v>
-      </c>
-      <c r="AC45" s="32">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T46" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W46" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="Z46" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="AB46" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC46" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
+        <v>73</v>
+      </c>
+      <c r="T45" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U45" s="21"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -5972,119 +5789,133 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T47" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z47" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB47" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC47" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S48" s="8"/>
-    </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S49" s="8"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E51" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F51" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G51" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H51" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I51" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J51" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K51" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L51" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M51" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N51" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O51" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P51" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q51" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R51" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S51" s="10"/>
-      <c r="T51" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
+        <v>73</v>
+      </c>
+      <c r="T47" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U47" s="21"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="str">
+        <f>'Populations and programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T48" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U48" s="21"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T49" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U49" s="21"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U51" s="21"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="str">
+        <f>'Populations and programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -6103,16 +5934,17 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T52" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
+        <v>73</v>
+      </c>
+      <c r="T52" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U52" s="21"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -6131,126 +5963,1055 @@
       <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
       <c r="S53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T53" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U53" s="21"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB57" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2001</v>
+      </c>
+      <c r="E58" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2004</v>
+      </c>
+      <c r="H58" s="11">
+        <v>2005</v>
+      </c>
+      <c r="I58" s="11">
+        <v>2006</v>
+      </c>
+      <c r="J58" s="11">
+        <v>2007</v>
+      </c>
+      <c r="K58" s="11">
+        <v>2008</v>
+      </c>
+      <c r="L58" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M58" s="11">
+        <v>2010</v>
+      </c>
+      <c r="N58" s="11">
+        <v>2011</v>
+      </c>
+      <c r="O58" s="11">
+        <v>2012</v>
+      </c>
+      <c r="P58" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>2014</v>
+      </c>
+      <c r="R58" s="11">
+        <v>2015</v>
+      </c>
+      <c r="S58" s="10"/>
+      <c r="T58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X58" s="21"/>
+      <c r="Y58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z58" t="s">
         <v>92</v>
       </c>
-      <c r="T53" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="str">
+      <c r="AB58" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC58" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T59" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W59" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z59" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T60" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W60" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z60" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="22" t="str">
         <f>'Populations and programs'!$C$5</f>
         <v>FSW</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T54" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="str">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T61" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="W61" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z61" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AB61" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AC61" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="22" t="str">
         <f>'Populations and programs'!$C$6</f>
         <v>CSW</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T55" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="str">
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T62" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W62" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z62" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB62" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="AC62" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="22" t="str">
         <f>'Populations and programs'!$C$7</f>
         <v>MSM</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T56" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="str">
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T63" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W63" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="Z63" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="AB63" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC63" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="22" t="str">
         <f>'Populations and programs'!$C$8</f>
         <v>PWID</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="8" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T64" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W64" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z64" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB64" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC64" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB68" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E69" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F69" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G69" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H69" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I69" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J69" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K69" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L69" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M69" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N69" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O69" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P69" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q69" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R69" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T69" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W69" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y69" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z69" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="T57" s="32">
+      <c r="AB69" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC69" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T70" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y70" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z70" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W71" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y71" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z71" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB71" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="str">
+        <f>'Populations and programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T72" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="W72" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y72" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z72" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AB72" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AC72" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="str">
+        <f>'Populations and programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T73" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W73" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y73" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z73" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB73" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="AC73" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="str">
+        <f>'Populations and programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T74" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W74" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y74" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="Z74" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="AB74" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC74" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="str">
+        <f>'Populations and programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T75" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W75" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y75" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z75" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB75" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC75" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S76" s="8"/>
+    </row>
+    <row r="77" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S77" s="8"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="11">
+        <v>2001</v>
+      </c>
+      <c r="E79" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G79" s="11">
+        <v>2004</v>
+      </c>
+      <c r="H79" s="11">
+        <v>2005</v>
+      </c>
+      <c r="I79" s="11">
+        <v>2006</v>
+      </c>
+      <c r="J79" s="11">
+        <v>2007</v>
+      </c>
+      <c r="K79" s="11">
+        <v>2008</v>
+      </c>
+      <c r="L79" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M79" s="11">
+        <v>2010</v>
+      </c>
+      <c r="N79" s="11">
+        <v>2011</v>
+      </c>
+      <c r="O79" s="11">
+        <v>2012</v>
+      </c>
+      <c r="P79" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>2014</v>
+      </c>
+      <c r="R79" s="11">
+        <v>2015</v>
+      </c>
+      <c r="S79" s="10"/>
+      <c r="T79" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T80" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S58" s="8"/>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T81" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="str">
+        <f>'Populations and programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T82" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="str">
+        <f>'Populations and programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T83" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="str">
+        <f>'Populations and programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T84" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="str">
+        <f>'Populations and programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T85" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S86" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6263,7 +7024,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6271,7 +7032,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6346,13 +7107,13 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -6371,7 +7132,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="27"/>
     </row>
@@ -6379,7 +7140,7 @@
     <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -6454,13 +7215,13 @@
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -6483,7 +7244,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T9" s="27"/>
     </row>
@@ -6491,7 +7252,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6566,13 +7327,13 @@
       </c>
       <c r="S14" s="12"/>
       <c r="T14" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -6591,7 +7352,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T15" s="27"/>
     </row>
@@ -6599,7 +7360,7 @@
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6674,13 +7435,13 @@
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -6703,9 +7464,96 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T21" s="27"/>
+    </row>
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E26" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H26" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I26" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J26" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K26" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L26" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M26" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N26" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O26" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P26" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R26" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27">
+        <v>100</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27">
+        <v>400</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="27"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6716,7 +7564,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6724,7 +7572,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6746,12 +7594,12 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="Y1" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -6808,23 +7656,23 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -6850,13 +7698,13 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="32">
         <v>0.03</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="32">
         <v>0</v>
@@ -6894,13 +7742,13 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T4" s="32">
         <v>0.03</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="32">
         <v>0</v>
@@ -6944,11 +7792,11 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T5" s="27"/>
       <c r="W5" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="32">
         <v>0</v>
@@ -6986,13 +7834,13 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="32">
         <v>0</v>
@@ -7036,11 +7884,11 @@
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T7" s="27"/>
       <c r="W7" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="32">
         <v>0</v>
@@ -7078,13 +7926,13 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T8" s="32">
         <v>0.8</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="32">
         <v>0</v>
@@ -7103,7 +7951,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7125,12 +7973,12 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="Y12" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -7187,29 +8035,29 @@
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -7228,13 +8076,13 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T14" s="32">
         <v>0.8</v>
       </c>
       <c r="W14" s="27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="32">
         <v>0</v>
@@ -7253,7 +8101,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7275,12 +8123,12 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="Y18" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -7337,29 +8185,29 @@
       </c>
       <c r="S19" s="12"/>
       <c r="T19" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -7384,11 +8232,11 @@
       </c>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="32">
         <v>0</v>
@@ -7407,7 +8255,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -7429,12 +8277,12 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="Y24" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC24" s="21"/>
     </row>
@@ -7491,29 +8339,29 @@
       </c>
       <c r="S25" s="12"/>
       <c r="T25" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y25" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -7538,11 +8386,11 @@
       </c>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T26" s="27"/>
       <c r="W26" s="27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Y26" s="32">
         <v>0</v>
@@ -7562,7 +8410,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7584,12 +8432,12 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="Y30" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC30" s="21"/>
     </row>
@@ -7646,29 +8494,29 @@
       </c>
       <c r="S31" s="12"/>
       <c r="T31" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -7677,8 +8525,8 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27">
-        <v>80</v>
+      <c r="J32" s="32">
+        <v>0.8</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
@@ -7689,11 +8537,11 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T32" s="27"/>
       <c r="W32" s="27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y32" s="32">
         <v>0</v>
@@ -7708,6 +8556,389 @@
       <c r="AC32" s="32">
         <v>1</v>
       </c>
+    </row>
+    <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y36" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB36" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F37" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G37" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H37" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I37" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J37" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K37" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L37" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M37" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N37" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O37" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P37" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R37" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC37" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="str">
+        <f>'Populations and programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T38" s="31"/>
+      <c r="W38" s="27"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="str">
+        <f>'Populations and programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="W39" s="27"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="str">
+        <f>'Populations and programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="str">
+        <f>'Populations and programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T41" s="31"/>
+      <c r="W41" s="27"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="str">
+        <f>'Populations and programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T42" s="31"/>
+      <c r="W42" s="27"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+    </row>
+    <row r="43" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="str">
+        <f>'Populations and programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T43" s="31"/>
+      <c r="W43" s="27"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+    </row>
+    <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB47" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F48" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G48" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H48" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I48" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J48" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K48" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L48" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M48" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N48" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O48" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P48" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R48" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T48" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W48" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z48" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC48" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27">
+        <v>80</v>
+      </c>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7730,7 +8961,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -7752,12 +8983,12 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
       <c r="Y1" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -7814,23 +9045,23 @@
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7856,7 +9087,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="27">
         <v>60</v>
@@ -7891,7 +9122,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T4" s="27">
         <v>60</v>
@@ -7926,7 +9157,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T5" s="27">
         <v>40</v>
@@ -7961,7 +9192,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T6" s="27">
         <v>50</v>
@@ -7996,7 +9227,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T7" s="27">
         <v>50</v>
@@ -8031,7 +9262,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T8" s="27">
         <v>50</v>
@@ -8047,7 +9278,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -8069,12 +9300,12 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="Y12" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -8131,23 +9362,23 @@
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -8173,7 +9404,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T14" s="27">
         <v>10</v>
@@ -8209,7 +9440,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T15" s="27">
         <v>10</v>
@@ -8245,7 +9476,7 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T16" s="27">
         <v>20</v>
@@ -8281,7 +9512,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T17" s="27">
         <v>20</v>
@@ -8317,7 +9548,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T18" s="27">
         <v>100</v>
@@ -8353,7 +9584,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T19" s="27">
         <v>20</v>
@@ -8370,7 +9601,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -8392,12 +9623,12 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="Y23" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="21"/>
     </row>
@@ -8454,23 +9685,23 @@
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -8496,7 +9727,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T25" s="27">
         <v>0</v>
@@ -8532,7 +9763,7 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T26" s="27">
         <v>0</v>
@@ -8568,7 +9799,7 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T27" s="27">
         <v>400</v>
@@ -8604,7 +9835,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T28" s="27">
         <v>40</v>
@@ -8640,7 +9871,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T29" s="27">
         <v>0</v>
@@ -8676,7 +9907,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T30" s="27">
         <v>10</v>
@@ -8693,7 +9924,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -8715,12 +9946,12 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="Y34" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -8777,23 +10008,23 @@
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -8819,13 +10050,13 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T36" s="32">
         <v>0.05</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="X36" s="21"/>
       <c r="Y36" s="32"/>
@@ -8857,13 +10088,13 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T37" s="32">
         <v>0.05</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="X37" s="21"/>
       <c r="Y37" s="32"/>
@@ -8895,13 +10126,13 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T38" s="32">
         <v>0.2</v>
       </c>
       <c r="W38" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X38" s="21"/>
       <c r="Y38" s="32"/>
@@ -8933,13 +10164,13 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T39" s="32">
         <v>0.2</v>
       </c>
       <c r="W39" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X39" s="21"/>
       <c r="Y39" s="32"/>
@@ -8971,13 +10202,13 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T40" s="32">
         <v>0.2</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="X40" s="21"/>
       <c r="Y40" s="32"/>
@@ -9009,13 +10240,13 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T41" s="32">
         <v>0.2</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="32"/>
@@ -9028,7 +10259,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -9050,12 +10281,12 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="Y45" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC45" s="21"/>
     </row>
@@ -9112,23 +10343,23 @@
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y46" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -9154,13 +10385,13 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T47" s="32">
         <v>0.5</v>
       </c>
       <c r="W47" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
@@ -9191,13 +10422,13 @@
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T48" s="32">
         <v>0.5</v>
       </c>
       <c r="W48" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
@@ -9228,13 +10459,13 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T49" s="32">
         <v>0.5</v>
       </c>
       <c r="W49" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
@@ -9265,13 +10496,13 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T50" s="32">
         <v>0.5</v>
       </c>
       <c r="W50" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
@@ -9302,13 +10533,13 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T51" s="32">
         <v>0.5</v>
       </c>
       <c r="W51" s="27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
@@ -9339,13 +10570,13 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T52" s="32">
         <v>0.5</v>
       </c>
       <c r="W52" s="27" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
@@ -9357,7 +10588,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -9379,12 +10610,12 @@
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
       <c r="Y56" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC56" s="21"/>
     </row>
@@ -9441,23 +10672,23 @@
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -9483,7 +10714,7 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T58" s="27">
         <v>0</v>
@@ -9518,7 +10749,7 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T59" s="27">
         <v>0</v>
@@ -9553,13 +10784,13 @@
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T60" s="32">
         <v>0.8</v>
       </c>
       <c r="W60" s="23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y60" s="32"/>
       <c r="Z60" s="32"/>
@@ -9590,13 +10821,13 @@
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T61" s="32">
         <v>0.8</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y61" s="32"/>
       <c r="Z61" s="32"/>
@@ -9627,7 +10858,7 @@
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T62" s="27">
         <v>0</v>
@@ -9662,13 +10893,13 @@
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
       <c r="S63" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T63" s="32">
         <v>0.8</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Y63" s="32"/>
       <c r="Z63" s="32"/>
@@ -9680,7 +10911,7 @@
     <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -9702,12 +10933,12 @@
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="Y67" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC67" s="21"/>
     </row>
@@ -9764,23 +10995,23 @@
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y68" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z68" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC68" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -9806,13 +11037,13 @@
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T69" s="32">
         <v>0.3</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Y69" s="32"/>
       <c r="Z69" s="32"/>
@@ -9843,7 +11074,7 @@
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T70" s="27">
         <v>0</v>
@@ -9878,7 +11109,7 @@
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T71" s="27">
         <v>0</v>
@@ -9913,13 +11144,13 @@
       <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
       <c r="S72" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T72" s="32">
         <v>0.3</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Y72" s="32"/>
       <c r="Z72" s="32"/>
@@ -9950,13 +11181,13 @@
       <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
       <c r="S73" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T73" s="32">
         <v>0.3</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Y73" s="32"/>
       <c r="Z73" s="32"/>
@@ -9987,13 +11218,13 @@
       <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
       <c r="S74" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T74" s="32">
         <v>0.3</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Y74" s="32"/>
       <c r="Z74" s="32"/>
@@ -10023,7 +11254,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -10098,7 +11329,7 @@
       </c>
       <c r="S2" s="16"/>
       <c r="T2" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -10124,7 +11355,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T3" s="27">
         <v>0</v>
@@ -10153,7 +11384,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T4" s="27">
         <v>0</v>
@@ -10182,7 +11413,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T5" s="27">
         <v>0</v>
@@ -10211,7 +11442,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T6" s="27">
         <v>0</v>
@@ -10240,7 +11471,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T7" s="27">
         <v>0</v>
@@ -10269,7 +11500,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T8" s="27">
         <v>400</v>
@@ -10279,7 +11510,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -10302,12 +11533,12 @@
       <c r="T12" s="16"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -10364,29 +11595,29 @@
       </c>
       <c r="S13" s="16"/>
       <c r="T13" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="32">
@@ -10413,11 +11644,11 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T14" s="27"/>
       <c r="W14" s="27" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Y14" s="32">
         <v>0</v>
@@ -10437,7 +11668,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10459,12 +11690,12 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="Y18" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -10521,29 +11752,29 @@
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34">
@@ -10568,11 +11799,11 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Y20" s="32">
         <v>0</v>
@@ -10608,7 +11839,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -10912,7 +12143,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -11209,7 +12440,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -11368,7 +12599,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -11502,7 +12733,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -11653,7 +12884,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Populations and programs" sheetId="12" r:id="rId1"/>
-    <sheet name="Cost and coverage" sheetId="16" r:id="rId2"/>
-    <sheet name="Epidemiology" sheetId="1" r:id="rId3"/>
-    <sheet name="Optional indicators" sheetId="19" r:id="rId4"/>
-    <sheet name="Testing and treatment" sheetId="2" r:id="rId5"/>
-    <sheet name="Sexual behavior" sheetId="3" r:id="rId6"/>
-    <sheet name="Drug behavior" sheetId="4" r:id="rId7"/>
-    <sheet name="Partnerships" sheetId="9" r:id="rId8"/>
-    <sheet name="Transitions" sheetId="10" r:id="rId9"/>
-    <sheet name="Constants" sheetId="17" r:id="rId10"/>
-    <sheet name="Costs and disutilities" sheetId="14" r:id="rId11"/>
-    <sheet name="Macroeconomics" sheetId="18" r:id="rId12"/>
+    <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
+    <sheet name="Cost &amp; coverage" sheetId="16" r:id="rId2"/>
+    <sheet name="Demographics &amp; HIV prevalence" sheetId="20" r:id="rId3"/>
+    <sheet name="Other prevalences" sheetId="1" r:id="rId4"/>
+    <sheet name="Optional indicators" sheetId="19" r:id="rId5"/>
+    <sheet name="Testing &amp; treatment" sheetId="2" r:id="rId6"/>
+    <sheet name="Sexual behavior" sheetId="3" r:id="rId7"/>
+    <sheet name="Injecting behavior" sheetId="4" r:id="rId8"/>
+    <sheet name="Partnerships" sheetId="9" r:id="rId9"/>
+    <sheet name="Transitions" sheetId="10" r:id="rId10"/>
+    <sheet name="Constants" sheetId="17" r:id="rId11"/>
+    <sheet name="Disutilities &amp; costs" sheetId="14" r:id="rId12"/>
+    <sheet name="Macroeconomics" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="143">
   <si>
     <t>Assumption</t>
   </si>
@@ -354,15 +355,9 @@
     <t>AND AT LEAST ONE OF</t>
   </si>
   <si>
-    <t>Prevalence of any discharing STIs</t>
-  </si>
-  <si>
     <t>Prevalence of any ulcerative STIs</t>
   </si>
   <si>
-    <t>Modeled number of new infections</t>
-  </si>
-  <si>
     <t>Percentage of population tested for HIV in the last year</t>
   </si>
   <si>
@@ -432,12 +427,6 @@
     <t>Interactions between people who inject drugs</t>
   </si>
   <si>
-    <t>Asymmetric population transitions (% per year)</t>
-  </si>
-  <si>
-    <t>Symmetric transitions (% per year)</t>
-  </si>
-  <si>
     <t>Interaction-related transmissibility (% per act)</t>
   </si>
   <si>
@@ -451,6 +440,21 @@
   </si>
   <si>
     <t>Relative transmissibility</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new infections per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of HIV prevalence</t>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t>Age-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Risk-related population transitions (average number of years before movement)</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2498,10 +2504,293 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="E13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31">
+        <v>5</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C19" s="31">
+        <v>10</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2803,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,7 +2869,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2590,7 +2879,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="32">
         <v>0.03</v>
@@ -2610,7 +2899,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,7 +2975,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="22"/>
     </row>
@@ -2753,7 +3042,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2812,7 +3101,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,7 +3147,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2974,7 +3263,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,12 +3353,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3101,7 +3390,7 @@
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="31">
         <v>0.05</v>
@@ -3184,7 +3473,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3261,7 +3550,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3343,12 +3632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3917,7 +4206,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="str">
-        <f>'Populations and programs'!$C$14</f>
+        <f>'Populations &amp; programs'!$C$14</f>
         <v>BCC</v>
       </c>
       <c r="C3" s="27"/>
@@ -3945,7 +4234,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="str">
-        <f>'Populations and programs'!$C$15</f>
+        <f>'Populations &amp; programs'!$C$15</f>
         <v>FSW</v>
       </c>
       <c r="C4" s="27"/>
@@ -3973,7 +4262,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
-        <f>'Populations and programs'!$C$16</f>
+        <f>'Populations &amp; programs'!$C$16</f>
         <v>NSP</v>
       </c>
       <c r="C5" s="27"/>
@@ -4001,7 +4290,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="str">
-        <f>'Populations and programs'!$C$17</f>
+        <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM</v>
       </c>
       <c r="C6" s="27"/>
@@ -4029,7 +4318,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
-        <f>'Populations and programs'!$C$18</f>
+        <f>'Populations &amp; programs'!$C$18</f>
         <v>HCT</v>
       </c>
       <c r="C7" s="27"/>
@@ -4057,7 +4346,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
-        <f>'Populations and programs'!$C$19</f>
+        <f>'Populations &amp; programs'!$C$19</f>
         <v>VMMC</v>
       </c>
       <c r="C8" s="27"/>
@@ -4085,7 +4374,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
-        <f>'Populations and programs'!$C$20</f>
+        <f>'Populations &amp; programs'!$C$20</f>
         <v>ART</v>
       </c>
       <c r="C9" s="27"/>
@@ -4114,7 +4403,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="str">
-        <f>'Populations and programs'!$C$21</f>
+        <f>'Populations &amp; programs'!$C$21</f>
         <v>PMTCT</v>
       </c>
       <c r="C10" s="27"/>
@@ -4253,7 +4542,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="str">
-        <f>'Populations and programs'!$C$14</f>
+        <f>'Populations &amp; programs'!$C$14</f>
         <v>BCC</v>
       </c>
       <c r="C17" s="27"/>
@@ -4281,7 +4570,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="str">
-        <f>'Populations and programs'!$C$15</f>
+        <f>'Populations &amp; programs'!$C$15</f>
         <v>FSW</v>
       </c>
       <c r="C18" s="27"/>
@@ -4309,7 +4598,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="str">
-        <f>'Populations and programs'!$C$16</f>
+        <f>'Populations &amp; programs'!$C$16</f>
         <v>NSP</v>
       </c>
       <c r="C19" s="27"/>
@@ -4337,7 +4626,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="str">
-        <f>'Populations and programs'!$C$17</f>
+        <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM</v>
       </c>
       <c r="C20" s="27"/>
@@ -4365,7 +4654,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="str">
-        <f>'Populations and programs'!$C$18</f>
+        <f>'Populations &amp; programs'!$C$18</f>
         <v>HCT</v>
       </c>
       <c r="C21" s="27"/>
@@ -4393,7 +4682,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="str">
-        <f>'Populations and programs'!$C$19</f>
+        <f>'Populations &amp; programs'!$C$19</f>
         <v>VMMC</v>
       </c>
       <c r="C22" s="27"/>
@@ -4421,7 +4710,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="str">
-        <f>'Populations and programs'!$C$20</f>
+        <f>'Populations &amp; programs'!$C$20</f>
         <v>ART</v>
       </c>
       <c r="C23" s="27"/>
@@ -4447,7 +4736,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="str">
-        <f>'Populations and programs'!$C$21</f>
+        <f>'Populations &amp; programs'!$C$21</f>
         <v>PMTCT</v>
       </c>
       <c r="C24" s="27"/>
@@ -4540,7 +4829,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="str">
-        <f>'Populations and programs'!$C$14</f>
+        <f>'Populations &amp; programs'!$C$14</f>
         <v>BCC</v>
       </c>
       <c r="C29" s="27"/>
@@ -4566,7 +4855,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="str">
-        <f>'Populations and programs'!$C$15</f>
+        <f>'Populations &amp; programs'!$C$15</f>
         <v>FSW</v>
       </c>
       <c r="C30" s="27"/>
@@ -4592,7 +4881,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="str">
-        <f>'Populations and programs'!$C$16</f>
+        <f>'Populations &amp; programs'!$C$16</f>
         <v>NSP</v>
       </c>
       <c r="C31" s="27"/>
@@ -4618,7 +4907,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="str">
-        <f>'Populations and programs'!$C$17</f>
+        <f>'Populations &amp; programs'!$C$17</f>
         <v>MSM</v>
       </c>
       <c r="C32" s="27"/>
@@ -4644,7 +4933,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="str">
-        <f>'Populations and programs'!$C$18</f>
+        <f>'Populations &amp; programs'!$C$18</f>
         <v>HCT</v>
       </c>
       <c r="C33" s="27"/>
@@ -4670,7 +4959,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="str">
-        <f>'Populations and programs'!$C$19</f>
+        <f>'Populations &amp; programs'!$C$19</f>
         <v>VMMC</v>
       </c>
       <c r="C34" s="27"/>
@@ -4696,7 +4985,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="str">
-        <f>'Populations and programs'!$C$20</f>
+        <f>'Populations &amp; programs'!$C$20</f>
         <v>ART</v>
       </c>
       <c r="C35" s="27"/>
@@ -4724,7 +5013,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="str">
-        <f>'Populations and programs'!$C$21</f>
+        <f>'Populations &amp; programs'!$C$21</f>
         <v>PMTCT</v>
       </c>
       <c r="C36" s="27"/>
@@ -4758,10 +5047,1161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0"/>
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X46" sqref="X46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="20" width="9.140625" style="21"/>
+    <col min="21" max="21" width="9.140625" style="21" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="21" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D2" s="22">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2001</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2002</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2003</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2004</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2005</v>
+      </c>
+      <c r="J2" s="22">
+        <v>2006</v>
+      </c>
+      <c r="K2" s="22">
+        <v>2007</v>
+      </c>
+      <c r="L2" s="22">
+        <v>2008</v>
+      </c>
+      <c r="M2" s="22">
+        <v>2009</v>
+      </c>
+      <c r="N2" s="22">
+        <v>2010</v>
+      </c>
+      <c r="O2" s="22">
+        <v>2011</v>
+      </c>
+      <c r="P2" s="22">
+        <v>2012</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>2013</v>
+      </c>
+      <c r="R2" s="22">
+        <v>2014</v>
+      </c>
+      <c r="S2" s="22">
+        <v>2015</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="33"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2250000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2300000</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="O4" s="29">
+        <v>2600000</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="33"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="33"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29">
+        <v>2300000</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="O8" s="29">
+        <v>2700000</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="33"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="33"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27">
+        <v>30000</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="33"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="33"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="33"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="27">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="33"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="33"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U20" s="29">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" s="33"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" s="33"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27">
+        <v>25000</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24" s="33"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" s="33"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="22">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2001</v>
+      </c>
+      <c r="F30" s="22">
+        <v>2002</v>
+      </c>
+      <c r="G30" s="22">
+        <v>2003</v>
+      </c>
+      <c r="H30" s="22">
+        <v>2004</v>
+      </c>
+      <c r="I30" s="22">
+        <v>2005</v>
+      </c>
+      <c r="J30" s="22">
+        <v>2006</v>
+      </c>
+      <c r="K30" s="22">
+        <v>2007</v>
+      </c>
+      <c r="L30" s="22">
+        <v>2008</v>
+      </c>
+      <c r="M30" s="22">
+        <v>2009</v>
+      </c>
+      <c r="N30" s="22">
+        <v>2010</v>
+      </c>
+      <c r="O30" s="22">
+        <v>2011</v>
+      </c>
+      <c r="P30" s="22">
+        <v>2012</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>2013</v>
+      </c>
+      <c r="R30" s="22">
+        <v>2014</v>
+      </c>
+      <c r="S30" s="22">
+        <v>2015</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U31" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U32" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U33" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U35" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U36" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U37" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U39" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U40" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U41" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U43" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U44" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U45" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U47" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U48" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U49" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C51" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U51" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U52" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C53" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U53" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC86"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4769,67 +6209,116 @@
     <col min="22" max="22" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="22">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
         <v>2000</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="11">
         <v>2001</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="11">
         <v>2002</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="11">
         <v>2003</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="11">
         <v>2004</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="11">
         <v>2005</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="11">
         <v>2006</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="11">
         <v>2007</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="11">
         <v>2008</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="11">
         <v>2009</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="11">
         <v>2010</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="11">
         <v>2011</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="11">
         <v>2012</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="11">
         <v>2013</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="11">
         <v>2014</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="11">
         <v>2015</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>90</v>
+      <c r="W2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4850,22 +6339,34 @@
       <c r="S3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="33"/>
-    </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2250000</v>
-      </c>
-      <c r="D4" s="29">
-        <v>2300000</v>
-      </c>
+      <c r="T3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -4874,26 +6375,40 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="29">
-        <v>2500000</v>
-      </c>
-      <c r="N4" s="29">
-        <v>2600000</v>
-      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
-      <c r="R4" s="29">
-        <v>3000000</v>
-      </c>
+      <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="33"/>
-    </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>89</v>
+      <c r="T4" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -4914,12 +6429,76 @@
       <c r="S5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T5" s="33"/>
-    </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>90</v>
+      <c r="T5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB6" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4940,20 +6519,34 @@
       <c r="S7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="33"/>
-    </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>10</v>
+      <c r="T7" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="29">
-        <v>2300000</v>
-      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -4962,12 +6555,8 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="29">
-        <v>2500000</v>
-      </c>
-      <c r="N8" s="29">
-        <v>2700000</v>
-      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
@@ -4975,121 +6564,156 @@
       <c r="S8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="33"/>
-    </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="33"/>
-    </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27">
-        <v>20000</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27">
-        <v>30000</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="33"/>
-    </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="33"/>
-    </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>90</v>
+      <c r="T8" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB12" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I13" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J13" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K13" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M13" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N13" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O13" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P13" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R13" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -5110,15 +6734,29 @@
       <c r="S15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T15" s="33"/>
-    </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>10</v>
+      <c r="T15" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -5139,13 +6777,29 @@
       <c r="S16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T16" s="27">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>89</v>
+      <c r="T16" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AB16" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AC16" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -5166,12 +6820,72 @@
       <c r="S17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="33"/>
-    </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>90</v>
+      <c r="T17" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="AC17" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="AB18" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC18" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -5192,97 +6906,116 @@
       <c r="S19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T19" s="33"/>
-    </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" s="29">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T21" s="33"/>
-    </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" s="33"/>
-    </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>10</v>
+      <c r="T19" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB19" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC19" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2001</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2004</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2006</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2007</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2008</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M23" s="11">
+        <v>2010</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2011</v>
+      </c>
+      <c r="O23" s="11">
+        <v>2012</v>
+      </c>
+      <c r="P23" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>2014</v>
+      </c>
+      <c r="R23" s="11">
+        <v>2015</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -5292,9 +7025,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="27">
-        <v>25000</v>
-      </c>
+      <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -5305,11 +7036,14 @@
       <c r="S24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T24" s="33"/>
-    </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>89</v>
+      <c r="T24" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -5330,1703 +7064,140 @@
       <c r="S25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T25" s="33"/>
-    </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F30" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H30" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I30" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J30" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K30" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L30" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M30" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N30" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P30" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R30" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S30" s="10"/>
-      <c r="T30" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T31" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T32" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T33" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T35" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T36" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T37" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T39" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+      <c r="T25" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T40" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T41" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T43" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U43" s="21"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T26" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T44" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U44" s="21"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T45" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U45" s="21"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T47" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U47" s="21"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T48" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U48" s="21"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T49" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U49" s="21"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T51" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U51" s="21"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T28" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T52" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U52" s="21"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T53" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U53" s="21"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB57" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D58" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E58" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F58" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G58" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H58" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I58" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J58" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K58" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L58" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M58" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N58" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O58" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P58" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q58" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R58" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S58" s="10"/>
-      <c r="T58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="W58" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="X58" s="21"/>
-      <c r="Y58" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB58" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC58" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T59" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W59" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z59" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB59" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T60" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W60" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z60" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB60" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T61" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="W61" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="Z61" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="AB61" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="AC61" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T62" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W62" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z62" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB62" s="32">
-        <v>0.03</v>
-      </c>
-      <c r="AC62" s="32">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T63" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W63" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="Z63" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="AB63" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC63" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T64" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W64" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z64" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB64" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC64" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB68" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="22">
-        <v>2000</v>
-      </c>
-      <c r="D69" s="22">
-        <v>2001</v>
-      </c>
-      <c r="E69" s="22">
-        <v>2002</v>
-      </c>
-      <c r="F69" s="22">
-        <v>2003</v>
-      </c>
-      <c r="G69" s="22">
-        <v>2004</v>
-      </c>
-      <c r="H69" s="22">
-        <v>2005</v>
-      </c>
-      <c r="I69" s="22">
-        <v>2006</v>
-      </c>
-      <c r="J69" s="22">
-        <v>2007</v>
-      </c>
-      <c r="K69" s="22">
-        <v>2008</v>
-      </c>
-      <c r="L69" s="22">
-        <v>2009</v>
-      </c>
-      <c r="M69" s="22">
-        <v>2010</v>
-      </c>
-      <c r="N69" s="22">
-        <v>2011</v>
-      </c>
-      <c r="O69" s="22">
-        <v>2012</v>
-      </c>
-      <c r="P69" s="22">
-        <v>2013</v>
-      </c>
-      <c r="Q69" s="22">
-        <v>2014</v>
-      </c>
-      <c r="R69" s="22">
-        <v>2015</v>
-      </c>
-      <c r="T69" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W69" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y69" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z69" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB69" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC69" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T70" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W70" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y70" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z70" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB70" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T71" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W71" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y71" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z71" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB71" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T72" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="W72" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y72" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="Z72" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="AB72" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="AC72" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T73" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W73" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y73" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z73" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB73" s="32">
-        <v>0.03</v>
-      </c>
-      <c r="AC73" s="32">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T74" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W74" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y74" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="Z74" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="AB74" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC74" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T75" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W75" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y75" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z75" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB75" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC75" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S76" s="8"/>
-    </row>
-    <row r="77" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S77" s="8"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D79" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E79" s="11">
-        <v>2002</v>
-      </c>
-      <c r="F79" s="11">
-        <v>2003</v>
-      </c>
-      <c r="G79" s="11">
-        <v>2004</v>
-      </c>
-      <c r="H79" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I79" s="11">
-        <v>2006</v>
-      </c>
-      <c r="J79" s="11">
-        <v>2007</v>
-      </c>
-      <c r="K79" s="11">
-        <v>2008</v>
-      </c>
-      <c r="L79" s="11">
-        <v>2009</v>
-      </c>
-      <c r="M79" s="11">
-        <v>2010</v>
-      </c>
-      <c r="N79" s="11">
-        <v>2011</v>
-      </c>
-      <c r="O79" s="11">
-        <v>2012</v>
-      </c>
-      <c r="P79" s="11">
-        <v>2013</v>
-      </c>
-      <c r="Q79" s="11">
-        <v>2014</v>
-      </c>
-      <c r="R79" s="11">
-        <v>2015</v>
-      </c>
-      <c r="S79" s="10"/>
-      <c r="T79" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T80" s="32">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T81" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T82" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T83" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T84" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T85" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S86" s="8"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S30" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7252,7 +7423,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7358,89 +7529,66 @@
     </row>
     <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="22">
         <v>2000</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="22">
         <v>2001</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="22">
         <v>2002</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="22">
         <v>2003</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="22">
         <v>2004</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="22">
         <v>2005</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="22">
         <v>2006</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="22">
         <v>2007</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="22">
         <v>2008</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="22">
         <v>2009</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="22">
         <v>2010</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="22">
         <v>2011</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="22">
         <v>2012</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="22">
         <v>2013</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="22">
         <v>2014</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="22">
         <v>2015</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="27"/>
@@ -7450,16 +7598,12 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="27">
-        <v>100</v>
-      </c>
+      <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
-      <c r="O21" s="27">
-        <v>400</v>
-      </c>
+      <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
@@ -7468,66 +7612,92 @@
       </c>
       <c r="T21" s="27"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="22">
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13">
         <v>2000</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="13">
         <v>2001</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="13">
         <v>2002</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="13">
         <v>2003</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="13">
         <v>2004</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="13">
         <v>2005</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="13">
         <v>2006</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="13">
         <v>2007</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="13">
         <v>2008</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="13">
         <v>2009</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="13">
         <v>2010</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="13">
         <v>2011</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="13">
         <v>2012</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="13">
         <v>2013</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="13">
         <v>2014</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="13">
         <v>2015</v>
       </c>
-      <c r="T26" s="22" t="s">
+      <c r="S26" s="12"/>
+      <c r="T26" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="27"/>
@@ -7555,13 +7725,99 @@
       </c>
       <c r="T27" s="27"/>
     </row>
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2002</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2003</v>
+      </c>
+      <c r="G32" s="22">
+        <v>2004</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2005</v>
+      </c>
+      <c r="I32" s="22">
+        <v>2006</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2007</v>
+      </c>
+      <c r="K32" s="22">
+        <v>2008</v>
+      </c>
+      <c r="L32" s="22">
+        <v>2009</v>
+      </c>
+      <c r="M32" s="22">
+        <v>2010</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2011</v>
+      </c>
+      <c r="O32" s="22">
+        <v>2012</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>2014</v>
+      </c>
+      <c r="R32" s="22">
+        <v>2015</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27">
+        <v>100</v>
+      </c>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27">
+        <v>400</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="27"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC49"/>
@@ -7572,7 +7828,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -7678,7 +7934,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C3" s="27"/>
@@ -7722,7 +7978,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C4" s="27"/>
@@ -7766,7 +8022,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="27"/>
@@ -7814,7 +8070,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C6" s="27"/>
@@ -7858,7 +8114,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C7" s="27"/>
@@ -7906,7 +8162,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C8" s="27"/>
@@ -7951,7 +8207,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8410,7 +8666,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8562,7 +8818,7 @@
     <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y36" s="22" t="s">
         <v>93</v>
@@ -8641,7 +8897,7 @@
     </row>
     <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C38" s="27"/>
@@ -8672,7 +8928,7 @@
     </row>
     <row r="39" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C39" s="27"/>
@@ -8705,7 +8961,7 @@
     </row>
     <row r="40" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C40" s="27"/>
@@ -8738,7 +8994,7 @@
     </row>
     <row r="41" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C41" s="27"/>
@@ -8769,7 +9025,7 @@
     </row>
     <row r="42" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C42" s="27"/>
@@ -8800,7 +9056,7 @@
     </row>
     <row r="43" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C43" s="27"/>
@@ -8831,7 +9087,7 @@
     </row>
     <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y47" s="22" t="s">
         <v>93</v>
@@ -8947,12 +9203,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9067,7 +9323,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C3" s="27"/>
@@ -9102,7 +9358,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C4" s="27"/>
@@ -9137,7 +9393,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="27"/>
@@ -9172,7 +9428,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C6" s="27"/>
@@ -9207,7 +9463,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C7" s="27"/>
@@ -9242,7 +9498,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C8" s="27"/>
@@ -9384,7 +9640,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C14" s="27"/>
@@ -9420,7 +9676,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C15" s="27"/>
@@ -9456,7 +9712,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C16" s="27"/>
@@ -9492,7 +9748,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C17" s="27"/>
@@ -9528,7 +9784,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C18" s="27"/>
@@ -9564,7 +9820,7 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C19" s="27"/>
@@ -9707,7 +9963,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C25" s="27"/>
@@ -9743,7 +9999,7 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C26" s="27"/>
@@ -9779,7 +10035,7 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C27" s="27"/>
@@ -9815,7 +10071,7 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C28" s="27"/>
@@ -9851,7 +10107,7 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C29" s="27"/>
@@ -9887,7 +10143,7 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C30" s="27"/>
@@ -9924,7 +10180,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10030,7 +10286,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C36" s="27"/>
@@ -10068,7 +10324,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C37" s="27"/>
@@ -10106,7 +10362,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C38" s="27"/>
@@ -10144,7 +10400,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C39" s="27"/>
@@ -10182,7 +10438,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C40" s="27"/>
@@ -10220,7 +10476,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C41" s="27"/>
@@ -10259,7 +10515,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -10365,7 +10621,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C47" s="27"/>
@@ -10402,7 +10658,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C48" s="27"/>
@@ -10439,7 +10695,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C49" s="27"/>
@@ -10476,7 +10732,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C50" s="27"/>
@@ -10513,7 +10769,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C51" s="27"/>
@@ -10550,7 +10806,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C52" s="27"/>
@@ -10588,7 +10844,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -10694,7 +10950,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C58" s="27"/>
@@ -10729,7 +10985,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C59" s="27"/>
@@ -10764,7 +11020,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C60" s="27"/>
@@ -10801,7 +11057,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C61" s="27"/>
@@ -10838,7 +11094,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C62" s="27"/>
@@ -10873,7 +11129,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C63" s="27"/>
@@ -11017,7 +11273,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C69" s="27"/>
@@ -11054,7 +11310,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C70" s="27"/>
@@ -11089,7 +11345,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C71" s="27"/>
@@ -11124,7 +11380,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C72" s="27"/>
@@ -11161,7 +11417,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C73" s="27"/>
@@ -11198,7 +11454,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C74" s="27"/>
@@ -11240,12 +11496,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11254,7 +11512,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -11335,7 +11593,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C3" s="27"/>
@@ -11364,7 +11622,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C4" s="27"/>
@@ -11393,7 +11651,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="27"/>
@@ -11422,7 +11680,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C6" s="27"/>
@@ -11451,7 +11709,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C7" s="27"/>
@@ -11480,7 +11738,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C8" s="27"/>
@@ -11510,7 +11768,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11826,11 +12084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11839,7 +12099,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -11870,27 +12130,27 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D2" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E2" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F2" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G2" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H2" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="I2" s="5"/>
@@ -11915,7 +12175,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C3" s="27"/>
@@ -11950,7 +12210,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C4" s="27"/>
@@ -11981,7 +12241,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="27"/>
@@ -12012,7 +12272,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C6" s="27"/>
@@ -12046,7 +12306,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C7" s="27"/>
@@ -12079,7 +12339,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C8" s="27"/>
@@ -12143,7 +12403,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -12175,27 +12435,27 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D13" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E13" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F13" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G13" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H13" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="I13" s="5"/>
@@ -12220,7 +12480,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C14" s="27"/>
@@ -12255,7 +12515,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C15" s="27"/>
@@ -12286,7 +12546,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C16" s="27"/>
@@ -12317,7 +12577,7 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C17" s="27"/>
@@ -12352,7 +12612,7 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C18" s="27"/>
@@ -12385,7 +12645,7 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C19" s="27"/>
@@ -12440,7 +12700,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -12454,34 +12714,34 @@
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D24" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E24" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F24" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G24" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H24" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C25" s="27"/>
@@ -12494,7 +12754,7 @@
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C26" s="27"/>
@@ -12507,7 +12767,7 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C27" s="27"/>
@@ -12520,7 +12780,7 @@
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C28" s="27"/>
@@ -12535,7 +12795,7 @@
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C29" s="27"/>
@@ -12548,7 +12808,7 @@
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C30" s="27"/>
@@ -12599,7 +12859,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -12613,34 +12873,34 @@
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="D35" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="E35" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="F35" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="G35" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="H35" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
+        <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
       <c r="C36" s="27"/>
@@ -12653,7 +12913,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
+        <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
       </c>
       <c r="C37" s="27"/>
@@ -12666,7 +12926,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
+        <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
       </c>
       <c r="C38" s="27"/>
@@ -12679,7 +12939,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
+        <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
       </c>
       <c r="C39" s="27"/>
@@ -12692,7 +12952,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
+        <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
       </c>
       <c r="C40" s="27"/>
@@ -12705,7 +12965,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
+        <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
       </c>
       <c r="C41" s="27"/>
@@ -12721,285 +12981,4 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="D2" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="E2" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="F2" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="G2" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="H2" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="F13" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="str">
-        <f>'Populations and programs'!$C$3</f>
-        <v>GM</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="str">
-        <f>'Populations and programs'!$C$4</f>
-        <v>GF</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="str">
-        <f>'Populations and programs'!$C$5</f>
-        <v>FSW</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="str">
-        <f>'Populations and programs'!$C$6</f>
-        <v>CSW</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="str">
-        <f>'Populations and programs'!$C$7</f>
-        <v>MSM</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="str">
-        <f>'Populations and programs'!$C$8</f>
-        <v>PWID</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="148">
   <si>
     <t>Assumption</t>
   </si>
@@ -343,15 +343,6 @@
     <t>Government revenue</t>
   </si>
   <si>
-    <t>Total health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic health expenditure</t>
-  </si>
-  <si>
-    <t>Total government expenditure</t>
-  </si>
-  <si>
     <t>AND AT LEAST ONE OF</t>
   </si>
   <si>
@@ -382,9 +373,6 @@
     <t>Average number of injections per person per year</t>
   </si>
   <si>
-    <t>Needle-syringe receptive sharing rate</t>
-  </si>
-  <si>
     <t>Disease progression rate (% per year)</t>
   </si>
   <si>
@@ -455,6 +443,33 @@
   </si>
   <si>
     <t>Risk-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle at last injection</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
   </si>
 </sst>
 </file>
@@ -464,10 +479,17 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,737 +601,739 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="663">
+  <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="663">
+  <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="13"/>
     <cellStyle name="Comma 2 2" xfId="661"/>
     <cellStyle name="Input" xfId="1" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 10" xfId="663"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="656"/>
     <cellStyle name="Normal 3" xfId="5"/>
@@ -2507,14 +2531,14 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2665,7 +2689,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2790,7 +2814,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2803,7 +2827,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2869,7 +2893,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2879,7 +2903,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="32">
         <v>0.03</v>
@@ -2899,7 +2923,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,7 +2999,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="22"/>
     </row>
@@ -3042,7 +3066,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3101,7 +3125,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,7 +3171,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3263,7 +3287,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3368,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3390,7 +3414,7 @@
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="31">
         <v>0.05</v>
@@ -3473,7 +3497,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3550,7 +3574,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3635,9 +3659,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3855,7 +3881,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3961,7 +3987,7 @@
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4047,7 +4073,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4128,8 +4154,431 @@
       </c>
       <c r="T27" s="27"/>
     </row>
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G32" s="22">
+        <v>2019</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="22">
+        <v>2021</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2022</v>
+      </c>
+      <c r="K32" s="22">
+        <v>2023</v>
+      </c>
+      <c r="L32" s="22">
+        <v>2024</v>
+      </c>
+      <c r="M32" s="22">
+        <v>2025</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2026</v>
+      </c>
+      <c r="O32" s="22">
+        <v>2027</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2028</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>2029</v>
+      </c>
+      <c r="R32" s="22">
+        <v>2030</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="27"/>
+    </row>
+    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F38" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G38" s="22">
+        <v>2019</v>
+      </c>
+      <c r="H38" s="22">
+        <v>2020</v>
+      </c>
+      <c r="I38" s="22">
+        <v>2021</v>
+      </c>
+      <c r="J38" s="22">
+        <v>2022</v>
+      </c>
+      <c r="K38" s="22">
+        <v>2023</v>
+      </c>
+      <c r="L38" s="22">
+        <v>2024</v>
+      </c>
+      <c r="M38" s="22">
+        <v>2025</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2026</v>
+      </c>
+      <c r="O38" s="22">
+        <v>2027</v>
+      </c>
+      <c r="P38" s="22">
+        <v>2028</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>2029</v>
+      </c>
+      <c r="R38" s="22">
+        <v>2030</v>
+      </c>
+      <c r="T38" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="27"/>
+    </row>
+    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D44" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E44" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F44" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G44" s="22">
+        <v>2019</v>
+      </c>
+      <c r="H44" s="22">
+        <v>2020</v>
+      </c>
+      <c r="I44" s="22">
+        <v>2021</v>
+      </c>
+      <c r="J44" s="22">
+        <v>2022</v>
+      </c>
+      <c r="K44" s="22">
+        <v>2023</v>
+      </c>
+      <c r="L44" s="22">
+        <v>2024</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2025</v>
+      </c>
+      <c r="N44" s="22">
+        <v>2026</v>
+      </c>
+      <c r="O44" s="22">
+        <v>2027</v>
+      </c>
+      <c r="P44" s="22">
+        <v>2028</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>2029</v>
+      </c>
+      <c r="R44" s="22">
+        <v>2030</v>
+      </c>
+      <c r="T44" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" s="27"/>
+    </row>
+    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D50" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E50" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F50" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G50" s="22">
+        <v>2019</v>
+      </c>
+      <c r="H50" s="22">
+        <v>2020</v>
+      </c>
+      <c r="I50" s="22">
+        <v>2021</v>
+      </c>
+      <c r="J50" s="22">
+        <v>2022</v>
+      </c>
+      <c r="K50" s="22">
+        <v>2023</v>
+      </c>
+      <c r="L50" s="22">
+        <v>2024</v>
+      </c>
+      <c r="M50" s="22">
+        <v>2025</v>
+      </c>
+      <c r="N50" s="22">
+        <v>2026</v>
+      </c>
+      <c r="O50" s="22">
+        <v>2027</v>
+      </c>
+      <c r="P50" s="22">
+        <v>2028</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>2029</v>
+      </c>
+      <c r="R50" s="22">
+        <v>2030</v>
+      </c>
+      <c r="T50" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" s="27"/>
+    </row>
+    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D56" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E56" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F56" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G56" s="22">
+        <v>2019</v>
+      </c>
+      <c r="H56" s="22">
+        <v>2020</v>
+      </c>
+      <c r="I56" s="22">
+        <v>2021</v>
+      </c>
+      <c r="J56" s="22">
+        <v>2022</v>
+      </c>
+      <c r="K56" s="22">
+        <v>2023</v>
+      </c>
+      <c r="L56" s="22">
+        <v>2024</v>
+      </c>
+      <c r="M56" s="22">
+        <v>2025</v>
+      </c>
+      <c r="N56" s="22">
+        <v>2026</v>
+      </c>
+      <c r="O56" s="22">
+        <v>2027</v>
+      </c>
+      <c r="P56" s="22">
+        <v>2028</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>2029</v>
+      </c>
+      <c r="R56" s="22">
+        <v>2030</v>
+      </c>
+      <c r="T56" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T57" s="27"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4478,7 +4927,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6211,7 +6660,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6589,7 +7038,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
@@ -7184,7 +7633,7 @@
       <c r="S30" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7423,7 +7872,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7531,7 +7980,7 @@
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7727,7 +8176,7 @@
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7828,7 +8277,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8207,7 +8656,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8666,7 +9115,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8818,7 +9267,7 @@
     <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y36" s="22" t="s">
         <v>93</v>
@@ -9087,7 +9536,7 @@
     </row>
     <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Y47" s="22" t="s">
         <v>93</v>
@@ -9198,7 +9647,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10180,7 +10629,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10515,7 +10964,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -10844,7 +11293,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -11490,7 +11939,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11502,7 +11951,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11512,7 +11961,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -11768,7 +12217,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12079,7 +12528,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12099,7 +12548,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -12403,7 +12852,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -12700,7 +13149,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -12859,7 +13308,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -2301,9 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2530,9 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2804,6 +2800,7 @@
       <c r="H19" s="31"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3661,9 +3658,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4579,6 +4574,7 @@
       <c r="T57" s="27"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5499,9 +5495,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X46" sqref="X46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6638,6 +6632,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6648,9 +6643,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7633,6 +7626,7 @@
       <c r="S30" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7644,9 +7638,7 @@
   <sheetPr published="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8262,6 +8254,7 @@
       <c r="T33" s="27"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12537,9 +12530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
     <sheet name="Cost &amp; coverage" sheetId="16" r:id="rId2"/>
     <sheet name="Demographics &amp; HIV prevalence" sheetId="20" r:id="rId3"/>
-    <sheet name="Other prevalences" sheetId="1" r:id="rId4"/>
+    <sheet name="Other epidemiology" sheetId="1" r:id="rId4"/>
     <sheet name="Optional indicators" sheetId="19" r:id="rId5"/>
     <sheet name="Testing &amp; treatment" sheetId="2" r:id="rId6"/>
     <sheet name="Sexual behavior" sheetId="3" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="149">
   <si>
     <t>Assumption</t>
   </si>
@@ -178,12 +178,6 @@
     <t>Number of diagnoses</t>
   </si>
   <si>
-    <t>Number of people on 1st-line treatment</t>
-  </si>
-  <si>
-    <t>Number of people on 2nd-line treatment</t>
-  </si>
-  <si>
     <t>Number of HIV-related deaths</t>
   </si>
   <si>
@@ -334,18 +328,12 @@
     <t>Male circumcision prevalence</t>
   </si>
   <si>
-    <t>Number of people on opiate substitution therapy</t>
-  </si>
-  <si>
     <t>Gross domestic product</t>
   </si>
   <si>
     <t>Government revenue</t>
   </si>
   <si>
-    <t>AND AT LEAST ONE OF</t>
-  </si>
-  <si>
     <t>Prevalence of any ulcerative STIs</t>
   </si>
   <si>
@@ -470,6 +458,21 @@
   </si>
   <si>
     <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>AND EITHER</t>
+  </si>
+  <si>
+    <t>Percentage of people who inject drugs on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of people on second-line treatment</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1327,7 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2301,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2314,15 +2317,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -2335,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -2348,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -2361,7 +2364,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -2374,7 +2377,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -2387,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -2400,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -2423,10 +2426,10 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,7 +2451,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2478,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2503,7 +2506,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2685,7 +2688,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2824,7 +2827,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2890,7 +2893,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2900,7 +2903,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="32">
         <v>0.03</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2999,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B23" s="22"/>
     </row>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="32">
         <v>0.25</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,7 +3171,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3267,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="27">
         <v>2</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,7 +3323,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="32">
         <v>0.65</v>
@@ -3389,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3411,7 +3414,7 @@
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="31">
         <v>0.05</v>
@@ -3422,7 +3425,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="31">
         <v>0.1</v>
@@ -3433,7 +3436,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="31">
         <v>0.15</v>
@@ -3444,7 +3447,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="31">
         <v>0.221</v>
@@ -3455,7 +3458,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="31">
         <v>0.54700000000000004</v>
@@ -3466,7 +3469,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="31">
         <v>5.2999999999999999E-2</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3517,7 +3520,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="27">
         <v>0</v>
@@ -3528,7 +3531,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
@@ -3539,7 +3542,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="27">
         <v>1000</v>
@@ -3550,7 +3553,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="27">
         <v>5000</v>
@@ -3561,7 +3564,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="27">
         <v>50000</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3594,7 +3597,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -3605,7 +3608,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -3616,7 +3619,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -3627,7 +3630,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="27">
         <v>1000</v>
@@ -3638,7 +3641,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="27">
         <v>8000</v>
@@ -3658,13 +3661,13 @@
   <sheetPr published="0"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3764,13 +3767,13 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="27"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3870,13 +3873,13 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T9" s="27"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3976,13 +3979,13 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T15" s="27"/>
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4059,7 +4062,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T21" s="27"/>
     </row>
@@ -4068,7 +4071,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4145,13 +4148,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T27" s="27"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4228,7 +4231,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T33" s="27"/>
     </row>
@@ -4237,7 +4240,7 @@
     <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4314,7 +4317,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T39" s="27"/>
     </row>
@@ -4323,7 +4326,7 @@
     <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4400,13 +4403,13 @@
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T45" s="27"/>
     </row>
     <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4483,7 +4486,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T51" s="27"/>
     </row>
@@ -4492,7 +4495,7 @@
     <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4569,7 +4572,7 @@
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T57" s="27"/>
     </row>
@@ -4593,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4671,7 +4674,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="32">
         <v>0.3</v>
@@ -4699,7 +4702,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="32">
         <v>0.5</v>
@@ -4727,7 +4730,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="32">
         <v>0.3</v>
@@ -4755,7 +4758,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
@@ -4783,7 +4786,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="32">
         <v>0.5</v>
@@ -4811,7 +4814,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="32">
         <v>0.4</v>
@@ -4839,7 +4842,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T9" s="32">
         <v>0.8</v>
@@ -4868,7 +4871,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T10" s="32">
         <v>0.9</v>
@@ -4923,12 +4926,12 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5007,7 +5010,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T17" s="29">
         <v>1200000</v>
@@ -5035,7 +5038,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T18" s="29">
         <v>300000</v>
@@ -5063,7 +5066,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T19" s="29">
         <v>5000000</v>
@@ -5091,7 +5094,7 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T20" s="29">
         <v>100000</v>
@@ -5119,7 +5122,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T21" s="29">
         <v>700000</v>
@@ -5147,7 +5150,7 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T22" s="29">
         <v>4000000</v>
@@ -5175,7 +5178,7 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T23" s="29"/>
     </row>
@@ -5201,7 +5204,7 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T24" s="29"/>
     </row>
@@ -5210,12 +5213,12 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K26" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -5294,7 +5297,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T29" s="30"/>
     </row>
@@ -5320,7 +5323,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T30" s="30"/>
     </row>
@@ -5346,7 +5349,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="S31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T31" s="30"/>
     </row>
@@ -5372,7 +5375,7 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T32" s="30"/>
     </row>
@@ -5398,7 +5401,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T33" s="30"/>
     </row>
@@ -5424,7 +5427,7 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T34" s="30"/>
     </row>
@@ -5450,7 +5453,7 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T35" s="30">
         <v>1000</v>
@@ -5478,7 +5481,7 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T36" s="31">
         <v>2000</v>
@@ -5565,7 +5568,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -5584,7 +5587,7 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U3" s="33"/>
     </row>
@@ -5623,13 +5626,13 @@
         <v>3000000</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -5648,13 +5651,13 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U5" s="33"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -5673,7 +5676,7 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U7" s="33"/>
     </row>
@@ -5708,13 +5711,13 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -5733,13 +5736,13 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U9" s="33"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -5758,7 +5761,7 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U11" s="33"/>
     </row>
@@ -5791,13 +5794,13 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -5816,13 +5819,13 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U13" s="33"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -5841,7 +5844,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U15" s="33"/>
     </row>
@@ -5870,7 +5873,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U16" s="27">
         <v>300000</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -5897,13 +5900,13 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U17" s="33"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C19" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -5922,7 +5925,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U19" s="33"/>
     </row>
@@ -5951,7 +5954,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U20" s="29">
         <v>75000</v>
@@ -5959,7 +5962,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -5978,13 +5981,13 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U21" s="33"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6003,7 +6006,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U23" s="33"/>
     </row>
@@ -6034,13 +6037,13 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6059,13 +6062,13 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U25" s="33"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6123,7 +6126,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -6142,7 +6145,7 @@
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U31" s="33">
         <v>1E-3</v>
@@ -6173,7 +6176,7 @@
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U32" s="33">
         <v>1E-3</v>
@@ -6181,7 +6184,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6200,7 +6203,7 @@
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U33" s="33">
         <v>1E-3</v>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -6227,7 +6230,7 @@
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U35" s="33">
         <v>1E-3</v>
@@ -6258,7 +6261,7 @@
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U36" s="33">
         <v>1E-3</v>
@@ -6266,7 +6269,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -6285,7 +6288,7 @@
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U37" s="33">
         <v>1E-3</v>
@@ -6293,7 +6296,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -6312,7 +6315,7 @@
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U39" s="33">
         <v>1E-3</v>
@@ -6343,7 +6346,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U40" s="33">
         <v>1E-3</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -6370,7 +6373,7 @@
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U41" s="33">
         <v>1E-3</v>
@@ -6378,7 +6381,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -6397,7 +6400,7 @@
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U43" s="33">
         <v>1E-3</v>
@@ -6428,7 +6431,7 @@
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U44" s="33">
         <v>1E-3</v>
@@ -6436,7 +6439,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C45" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -6455,7 +6458,7 @@
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U45" s="33">
         <v>1E-3</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -6482,7 +6485,7 @@
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U47" s="33">
         <v>1E-3</v>
@@ -6513,7 +6516,7 @@
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
       <c r="T48" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U48" s="33">
         <v>1E-3</v>
@@ -6521,7 +6524,7 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -6540,7 +6543,7 @@
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U49" s="33">
         <v>1E-3</v>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -6567,7 +6570,7 @@
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U51" s="33">
         <v>1E-3</v>
@@ -6598,7 +6601,7 @@
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U52" s="33">
         <v>1E-3</v>
@@ -6606,7 +6609,7 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6625,7 +6628,7 @@
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
       <c r="T53" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U53" s="33">
         <v>1E-3</v>
@@ -6641,9 +6644,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6651,113 +6656,87 @@
     <col min="22" max="22" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+    <row r="1" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="22">
         <v>2000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="22">
         <v>2001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="22">
         <v>2002</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="22">
         <v>2003</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="22">
         <v>2004</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="22">
         <v>2005</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="22">
         <v>2006</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="22">
         <v>2007</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="22">
         <v>2008</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="22">
         <v>2009</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="22">
         <v>2010</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="22">
         <v>2011</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="22">
         <v>2012</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="22">
         <v>2013</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="22">
         <v>2014</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="22">
         <v>2015</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>92</v>
+      <c r="Y2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
@@ -6779,30 +6758,18 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z3" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="27"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+    </row>
+    <row r="4" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
@@ -6824,30 +6791,18 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="Z4" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="AB4" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+    </row>
+    <row r="5" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
@@ -6869,30 +6824,18 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="Z5" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="AB5" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+    </row>
+    <row r="6" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
@@ -6914,30 +6857,18 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z6" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB6" s="32">
-        <v>0.03</v>
-      </c>
-      <c r="AC6" s="32">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="27"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+    </row>
+    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
@@ -6959,30 +6890,18 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="Z7" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="AB7" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="W7" s="27"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+    </row>
+    <row r="8" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
@@ -7004,112 +6923,127 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Z8" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AB8" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AC8" s="32">
-        <v>0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
     </row>
     <row r="9" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>136</v>
-      </c>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB12" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>2000</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="11">
         <v>2001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="11">
         <v>2002</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="11">
         <v>2003</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="11">
         <v>2004</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="11">
         <v>2005</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="11">
         <v>2006</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="11">
         <v>2007</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="11">
         <v>2008</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="11">
         <v>2009</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="11">
         <v>2010</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="11">
         <v>2011</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="11">
         <v>2012</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="11">
         <v>2013</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="11">
         <v>2014</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="11">
         <v>2015</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="S13" s="10"/>
+      <c r="T13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Y13" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>92</v>
+      <c r="X13" s="21"/>
+      <c r="Y13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>90</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14" s="22" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
@@ -7131,14 +7065,15 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" s="32">
         <v>0.1</v>
       </c>
       <c r="W14" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X14" s="21"/>
       <c r="Y14" s="32">
         <v>0.2</v>
       </c>
@@ -7152,7 +7087,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="22" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>GF</v>
@@ -7174,14 +7110,15 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T15" s="32">
         <v>0.1</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X15" s="21"/>
       <c r="Y15" s="32">
         <v>0.2</v>
       </c>
@@ -7195,7 +7132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" s="22" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>FSW</v>
@@ -7217,14 +7155,15 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T16" s="32">
         <v>0.5</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X16" s="21"/>
       <c r="Y16" s="32">
         <v>0.8</v>
       </c>
@@ -7238,7 +7177,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="22" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>CSW</v>
@@ -7260,14 +7200,15 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T17" s="32">
         <v>0.2</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X17" s="21"/>
       <c r="Y17" s="32">
         <v>0.3</v>
       </c>
@@ -7281,7 +7222,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="22" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>MSM</v>
@@ -7303,14 +7245,15 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T18" s="32">
         <v>0.2</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X18" s="21"/>
       <c r="Y18" s="32">
         <v>0.7</v>
       </c>
@@ -7324,7 +7267,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="22" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>PWID</v>
@@ -7346,14 +7290,15 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T19" s="32">
         <v>0.2</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X19" s="21"/>
       <c r="Y19" s="32">
         <v>0.3</v>
       </c>
@@ -7367,125 +7312,93 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
+    <row r="20" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB23" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="22">
         <v>2000</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="22">
         <v>2001</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="22">
         <v>2002</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="22">
         <v>2003</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="22">
         <v>2004</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="22">
         <v>2005</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="22">
         <v>2006</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="22">
         <v>2007</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="22">
         <v>2008</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L24" s="22">
         <v>2009</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M24" s="22">
         <v>2010</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N24" s="22">
         <v>2011</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="22">
         <v>2012</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P24" s="22">
         <v>2013</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q24" s="22">
         <v>2014</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R24" s="22">
         <v>2015</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11" t="s">
+      <c r="T24" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="22" t="str">
+      <c r="W24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC24" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>GF</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -7504,16 +7417,31 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T25" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y25" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z25" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -7532,16 +7460,31 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T26" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AB26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>CSW</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -7560,16 +7503,31 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T27" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="AC27" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -7588,16 +7546,31 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T28" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB28" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="AC28" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="str">
-        <f>'Populations &amp; programs'!$C$8</f>
-        <v>PWID</v>
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -7616,17 +7589,402 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T29" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="AB29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC29" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T30" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Z30" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AB30" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2001</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2002</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2004</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2005</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2006</v>
+      </c>
+      <c r="J35" s="11">
+        <v>2007</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2008</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M35" s="11">
+        <v>2010</v>
+      </c>
+      <c r="N35" s="11">
+        <v>2011</v>
+      </c>
+      <c r="O35" s="11">
+        <v>2012</v>
+      </c>
+      <c r="P35" s="11">
+        <v>2013</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>2014</v>
+      </c>
+      <c r="R35" s="11">
+        <v>2015</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC35" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T36" s="32">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S30" s="8"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T37" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="W37" s="27"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T38" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="W38" s="27"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T39" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="W39" s="27"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T40" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T41" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="W41" s="27"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S42" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7744,7 +8102,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="27"/>
     </row>
@@ -7856,7 +8214,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T9" s="27"/>
     </row>
@@ -7864,7 +8222,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7964,7 +8322,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T15" s="27"/>
     </row>
@@ -7972,7 +8330,7 @@
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8049,7 +8407,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T21" s="27"/>
     </row>
@@ -8058,7 +8416,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -8162,13 +8520,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T27" s="27"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8249,7 +8607,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T33" s="27"/>
     </row>
@@ -8270,7 +8628,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8292,12 +8650,12 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="Y1" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -8360,17 +8718,17 @@
         <v>34</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -8396,7 +8754,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="32">
         <v>0.03</v>
@@ -8440,7 +8798,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="32">
         <v>0.03</v>
@@ -8490,7 +8848,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="27"/>
       <c r="W5" s="27" t="s">
@@ -8532,7 +8890,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
@@ -8582,7 +8940,7 @@
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="27"/>
       <c r="W7" s="27" t="s">
@@ -8624,7 +8982,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="32">
         <v>0.8</v>
@@ -8649,7 +9007,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8671,12 +9029,12 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="Y12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -8739,17 +9097,17 @@
         <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -8774,7 +9132,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" s="32">
         <v>0.8</v>
@@ -8799,7 +9157,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8821,12 +9179,12 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="Y18" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -8889,17 +9247,17 @@
         <v>34</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -8930,7 +9288,7 @@
       </c>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
@@ -8953,7 +9311,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -8975,12 +9333,12 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="Y24" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC24" s="21"/>
     </row>
@@ -9043,17 +9401,17 @@
         <v>34</v>
       </c>
       <c r="Y25" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -9084,7 +9442,7 @@
       </c>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T26" s="27"/>
       <c r="W26" s="27" t="s">
@@ -9108,7 +9466,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9130,12 +9488,12 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="Y30" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC30" s="21"/>
     </row>
@@ -9198,17 +9556,17 @@
         <v>34</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -9235,7 +9593,7 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T32" s="27"/>
       <c r="W32" s="27" t="s">
@@ -9260,13 +9618,13 @@
     <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y36" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB36" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9325,16 +9683,16 @@
         <v>34</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9359,7 +9717,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T38" s="31"/>
       <c r="W38" s="27"/>
@@ -9390,7 +9748,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T39" s="31">
         <v>0.1</v>
@@ -9423,7 +9781,7 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T40" s="31">
         <v>0.2</v>
@@ -9456,7 +9814,7 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T41" s="31"/>
       <c r="W41" s="27"/>
@@ -9487,7 +9845,7 @@
       <c r="Q42" s="32"/>
       <c r="R42" s="27"/>
       <c r="S42" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T42" s="31"/>
       <c r="W42" s="27"/>
@@ -9518,7 +9876,7 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T43" s="31"/>
       <c r="W43" s="27"/>
@@ -9529,13 +9887,13 @@
     </row>
     <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB47" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9594,16 +9952,16 @@
         <v>34</v>
       </c>
       <c r="Y48" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB48" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC48" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9629,7 +9987,7 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T49" s="27"/>
       <c r="W49" s="27"/>
@@ -9650,7 +10008,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9659,7 +10017,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -9681,12 +10039,12 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
       <c r="Y1" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -9749,17 +10107,17 @@
         <v>34</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -9785,7 +10143,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="27">
         <v>60</v>
@@ -9820,7 +10178,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="27">
         <v>60</v>
@@ -9855,7 +10213,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="27">
         <v>40</v>
@@ -9890,7 +10248,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="27">
         <v>50</v>
@@ -9925,7 +10283,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="27">
         <v>50</v>
@@ -9960,7 +10318,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="27">
         <v>50</v>
@@ -9976,7 +10334,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -9998,12 +10356,12 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="Y12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -10066,17 +10424,17 @@
         <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -10102,7 +10460,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" s="27">
         <v>10</v>
@@ -10138,7 +10496,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T15" s="27">
         <v>10</v>
@@ -10174,7 +10532,7 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T16" s="27">
         <v>20</v>
@@ -10210,7 +10568,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T17" s="27">
         <v>20</v>
@@ -10246,7 +10604,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T18" s="27">
         <v>100</v>
@@ -10282,7 +10640,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T19" s="27">
         <v>20</v>
@@ -10299,7 +10657,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -10321,12 +10679,12 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="Y23" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC23" s="21"/>
     </row>
@@ -10389,17 +10747,17 @@
         <v>34</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC24" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -10425,7 +10783,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T25" s="27">
         <v>0</v>
@@ -10461,7 +10819,7 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T26" s="27">
         <v>0</v>
@@ -10497,7 +10855,7 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T27" s="27">
         <v>400</v>
@@ -10533,7 +10891,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T28" s="27">
         <v>40</v>
@@ -10569,7 +10927,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T29" s="27">
         <v>0</v>
@@ -10605,7 +10963,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T30" s="27">
         <v>10</v>
@@ -10622,7 +10980,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10644,12 +11002,12 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="Y34" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -10712,17 +11070,17 @@
         <v>34</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -10748,13 +11106,13 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T36" s="32">
         <v>0.05</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X36" s="21"/>
       <c r="Y36" s="32"/>
@@ -10786,13 +11144,13 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T37" s="32">
         <v>0.05</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X37" s="21"/>
       <c r="Y37" s="32"/>
@@ -10824,7 +11182,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T38" s="32">
         <v>0.2</v>
@@ -10862,7 +11220,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T39" s="32">
         <v>0.2</v>
@@ -10900,7 +11258,7 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T40" s="32">
         <v>0.2</v>
@@ -10938,13 +11296,13 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T41" s="32">
         <v>0.2</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="32"/>
@@ -10957,7 +11315,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -10979,12 +11337,12 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="Y45" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC45" s="21"/>
     </row>
@@ -11047,17 +11405,17 @@
         <v>34</v>
       </c>
       <c r="Y46" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -11083,13 +11441,13 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T47" s="32">
         <v>0.5</v>
       </c>
       <c r="W47" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
@@ -11120,13 +11478,13 @@
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T48" s="32">
         <v>0.5</v>
       </c>
       <c r="W48" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
@@ -11157,7 +11515,7 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T49" s="32">
         <v>0.5</v>
@@ -11194,7 +11552,7 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T50" s="32">
         <v>0.5</v>
@@ -11231,7 +11589,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T51" s="32">
         <v>0.5</v>
@@ -11268,13 +11626,13 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T52" s="32">
         <v>0.5</v>
       </c>
       <c r="W52" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
@@ -11286,7 +11644,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -11308,12 +11666,12 @@
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
       <c r="Y56" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC56" s="21"/>
     </row>
@@ -11376,17 +11734,17 @@
         <v>34</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z57" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC57" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -11412,7 +11770,7 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T58" s="27">
         <v>0</v>
@@ -11447,7 +11805,7 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T59" s="27">
         <v>0</v>
@@ -11482,7 +11840,7 @@
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T60" s="32">
         <v>0.8</v>
@@ -11519,7 +11877,7 @@
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T61" s="32">
         <v>0.8</v>
@@ -11556,7 +11914,7 @@
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T62" s="27">
         <v>0</v>
@@ -11591,7 +11949,7 @@
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
       <c r="S63" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T63" s="32">
         <v>0.8</v>
@@ -11609,7 +11967,7 @@
     <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -11631,12 +11989,12 @@
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="Y67" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC67" s="21"/>
     </row>
@@ -11699,17 +12057,17 @@
         <v>34</v>
       </c>
       <c r="Y68" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z68" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC68" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -11735,7 +12093,7 @@
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T69" s="32">
         <v>0.3</v>
@@ -11772,7 +12130,7 @@
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T70" s="27">
         <v>0</v>
@@ -11807,7 +12165,7 @@
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T71" s="27">
         <v>0</v>
@@ -11842,7 +12200,7 @@
       <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
       <c r="S72" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T72" s="32">
         <v>0.3</v>
@@ -11879,7 +12237,7 @@
       <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
       <c r="S73" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T73" s="32">
         <v>0.3</v>
@@ -11916,7 +12274,7 @@
       <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
       <c r="S74" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T74" s="32">
         <v>0.3</v>
@@ -11944,7 +12302,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11954,7 +12312,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -11975,6 +12333,17 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="21"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -12030,6 +12399,23 @@
       <c r="S2" s="16"/>
       <c r="T2" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -12055,11 +12441,18 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="27">
         <v>0</v>
       </c>
+      <c r="W3" s="27"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -12084,11 +12477,18 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T4" s="27">
         <v>0</v>
       </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -12113,11 +12513,18 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="27">
         <v>0</v>
       </c>
+      <c r="W5" s="27"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -12142,11 +12549,18 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="27">
         <v>0</v>
       </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -12171,11 +12585,18 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="27">
         <v>0</v>
       </c>
+      <c r="W7" s="27"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -12200,17 +12621,24 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="27">
         <v>400</v>
       </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
     </row>
     <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12233,12 +12661,12 @@
       <c r="T12" s="16"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -12301,17 +12729,17 @@
         <v>34</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -12344,11 +12772,11 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" s="27"/>
       <c r="W14" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="32">
         <v>0</v>
@@ -12368,7 +12796,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12390,12 +12818,12 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="Y18" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -12458,17 +12886,17 @@
         <v>34</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -12478,17 +12906,17 @@
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34">
-        <v>250</v>
+        <v>0.03</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34">
-        <v>1000</v>
+        <v>0.05</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34">
-        <v>2000</v>
+        <v>0.08</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -12499,11 +12927,11 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y20" s="32">
         <v>0</v>
@@ -12520,7 +12948,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12539,7 +12966,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -12843,7 +13270,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -13140,7 +13567,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -13299,7 +13726,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="148">
   <si>
     <t>Assumption</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Treatment</t>
-  </si>
-  <si>
-    <t>Background</t>
   </si>
   <si>
     <t>1st-line</t>
@@ -2317,15 +2314,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -2335,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -2348,10 +2345,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -2361,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -2374,10 +2371,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -2387,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -2400,10 +2397,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -2419,17 +2416,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,10 +2445,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,10 +2456,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2470,10 +2467,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2481,10 +2478,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2492,10 +2489,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2503,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2514,10 +2511,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2534,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2688,7 +2685,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2812,10 +2809,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,23 +2824,23 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="33">
         <v>4.0000000000000002E-4</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="33">
         <v>1E-3</v>
@@ -2863,7 +2860,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="33">
         <v>5.9999999999999995E-4</v>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="33">
         <v>5.0000000000000001E-3</v>
@@ -2893,7 +2890,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="32">
         <v>0.03</v>
@@ -2923,23 +2920,23 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="27">
         <v>10</v>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="27">
         <v>1</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="27">
         <v>1</v>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="27">
         <v>1</v>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="27">
         <v>3.8</v>
@@ -2999,24 +2996,24 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="33">
         <v>10</v>
@@ -3026,7 +3023,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="33">
         <v>0.25</v>
@@ -3036,7 +3033,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="32">
         <v>0.25</v>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="32">
         <v>0.5</v>
@@ -3066,23 +3063,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="32">
         <v>0.45</v>
@@ -3092,7 +3089,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="32">
         <v>0.7</v>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="32">
         <v>0.36</v>
@@ -3125,23 +3122,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="E41" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="32">
         <v>0.05</v>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="32">
         <v>0.05</v>
@@ -3171,66 +3168,66 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="E48" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="33">
-        <v>1.4999999999999999E-2</v>
+        <v>16</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="32">
-        <v>0.01</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="33">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="32">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C51" s="33">
+        <v>1E-3</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="33">
-        <v>5.0000000000000001E-4</v>
+        <v>26</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0.01</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="33">
-        <v>1E-3</v>
+        <v>14</v>
+      </c>
+      <c r="C53" s="32">
+        <v>0.49</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -3240,73 +3237,73 @@
         <v>27</v>
       </c>
       <c r="C54" s="32">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="32">
-        <v>0.49</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="27">
+        <v>2</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="32">
-        <v>0.04</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="27">
-        <v>2</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>129</v>
-      </c>
+      <c r="C61" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="B62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C63" s="32">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
@@ -3316,60 +3313,40 @@
         <v>30</v>
       </c>
       <c r="C64" s="32">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C65" s="32">
-        <v>0.65</v>
+        <v>0.05</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" s="32">
-        <v>3.5</v>
+        <v>0.05</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C67" s="32">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -3392,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3403,18 +3380,18 @@
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="31">
         <v>0.05</v>
@@ -3425,7 +3402,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="31">
         <v>0.1</v>
@@ -3436,7 +3413,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="31">
         <v>0.15</v>
@@ -3447,7 +3424,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="31">
         <v>0.221</v>
@@ -3458,7 +3435,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="31">
         <v>0.54700000000000004</v>
@@ -3469,7 +3446,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="31">
         <v>5.2999999999999999E-2</v>
@@ -3497,7 +3474,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3508,19 +3485,19 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="27">
         <v>0</v>
@@ -3531,7 +3508,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
@@ -3542,7 +3519,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="27">
         <v>1000</v>
@@ -3553,7 +3530,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="27">
         <v>5000</v>
@@ -3564,7 +3541,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="27">
         <v>50000</v>
@@ -3574,7 +3551,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3585,19 +3562,19 @@
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -3608,7 +3585,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -3619,7 +3596,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -3630,7 +3607,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="27">
         <v>1000</v>
@@ -3641,7 +3618,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="27">
         <v>8000</v>
@@ -3661,13 +3638,13 @@
   <sheetPr published="0"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3748,7 +3725,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -3767,13 +3744,13 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="27"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3854,7 +3831,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -3873,13 +3850,13 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" s="27"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3960,7 +3937,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3979,13 +3956,13 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15" s="27"/>
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4043,7 +4020,7 @@
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4062,7 +4039,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21" s="27"/>
     </row>
@@ -4071,7 +4048,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4129,7 +4106,7 @@
     </row>
     <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4148,13 +4125,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="27"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,7 +4189,7 @@
     </row>
     <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -4231,7 +4208,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T33" s="27"/>
     </row>
@@ -4240,7 +4217,7 @@
     <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4298,7 +4275,7 @@
     </row>
     <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4317,7 +4294,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T39" s="27"/>
     </row>
@@ -4326,7 +4303,7 @@
     <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4361,7 @@
     </row>
     <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4403,13 +4380,13 @@
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T45" s="27"/>
     </row>
     <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4467,7 +4444,7 @@
     </row>
     <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4486,7 +4463,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T51" s="27"/>
     </row>
@@ -4495,7 +4472,7 @@
     <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4553,7 +4530,7 @@
     </row>
     <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4572,7 +4549,7 @@
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T57" s="27"/>
     </row>
@@ -4596,7 +4573,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4674,7 +4651,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="32">
         <v>0.3</v>
@@ -4702,7 +4679,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="32">
         <v>0.5</v>
@@ -4730,7 +4707,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="32">
         <v>0.3</v>
@@ -4758,7 +4735,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
@@ -4786,7 +4763,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="32">
         <v>0.5</v>
@@ -4814,7 +4791,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="32">
         <v>0.4</v>
@@ -4842,7 +4819,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" s="32">
         <v>0.8</v>
@@ -4871,7 +4848,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T10" s="32">
         <v>0.9</v>
@@ -4926,12 +4903,12 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5010,7 +4987,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" s="29">
         <v>1200000</v>
@@ -5038,7 +5015,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="29">
         <v>300000</v>
@@ -5066,7 +5043,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19" s="29">
         <v>5000000</v>
@@ -5094,7 +5071,7 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T20" s="29">
         <v>100000</v>
@@ -5122,7 +5099,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21" s="29">
         <v>700000</v>
@@ -5150,7 +5127,7 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T22" s="29">
         <v>4000000</v>
@@ -5178,7 +5155,7 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T23" s="29"/>
     </row>
@@ -5204,7 +5181,7 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T24" s="29"/>
     </row>
@@ -5213,12 +5190,12 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K26" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -5297,7 +5274,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" s="30"/>
     </row>
@@ -5323,7 +5300,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30" s="30"/>
     </row>
@@ -5349,7 +5326,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="S31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T31" s="30"/>
     </row>
@@ -5375,7 +5352,7 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T32" s="30"/>
     </row>
@@ -5401,7 +5378,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T33" s="30"/>
     </row>
@@ -5427,7 +5404,7 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T34" s="30"/>
     </row>
@@ -5453,7 +5430,7 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T35" s="30">
         <v>1000</v>
@@ -5481,7 +5458,7 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T36" s="31">
         <v>2000</v>
@@ -5510,7 +5487,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5568,7 +5545,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -5587,7 +5564,7 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U3" s="33"/>
     </row>
@@ -5597,7 +5574,7 @@
         <v>GM</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="29">
         <v>2250000</v>
@@ -5626,13 +5603,13 @@
         <v>3000000</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -5651,13 +5628,13 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U5" s="33"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -5676,7 +5653,7 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U7" s="33"/>
     </row>
@@ -5686,7 +5663,7 @@
         <v>GF</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="29">
@@ -5711,13 +5688,13 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -5736,13 +5713,13 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U9" s="33"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -5761,7 +5738,7 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U11" s="33"/>
     </row>
@@ -5771,7 +5748,7 @@
         <v>FSW</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -5794,13 +5771,13 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -5819,13 +5796,13 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U13" s="33"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -5844,7 +5821,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U15" s="33"/>
     </row>
@@ -5854,7 +5831,7 @@
         <v>CSW</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -5873,7 +5850,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U16" s="27">
         <v>300000</v>
@@ -5881,7 +5858,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -5900,13 +5877,13 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U17" s="33"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -5925,7 +5902,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U19" s="33"/>
     </row>
@@ -5935,7 +5912,7 @@
         <v>MSM</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -5954,7 +5931,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U20" s="29">
         <v>75000</v>
@@ -5962,7 +5939,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -5981,13 +5958,13 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U21" s="33"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6006,7 +5983,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U23" s="33"/>
     </row>
@@ -6016,7 +5993,7 @@
         <v>PWID</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -6037,13 +6014,13 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6062,13 +6039,13 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U25" s="33"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6126,7 +6103,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -6145,7 +6122,7 @@
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U31" s="33">
         <v>1E-3</v>
@@ -6157,7 +6134,7 @@
         <v>GM</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -6176,7 +6153,7 @@
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U32" s="33">
         <v>1E-3</v>
@@ -6184,7 +6161,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6203,7 +6180,7 @@
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U33" s="33">
         <v>1E-3</v>
@@ -6211,7 +6188,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -6230,7 +6207,7 @@
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U35" s="33">
         <v>1E-3</v>
@@ -6242,7 +6219,7 @@
         <v>GF</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -6261,7 +6238,7 @@
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U36" s="33">
         <v>1E-3</v>
@@ -6269,7 +6246,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -6288,7 +6265,7 @@
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U37" s="33">
         <v>1E-3</v>
@@ -6296,7 +6273,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -6315,7 +6292,7 @@
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U39" s="33">
         <v>1E-3</v>
@@ -6327,7 +6304,7 @@
         <v>FSW</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
@@ -6346,7 +6323,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U40" s="33">
         <v>1E-3</v>
@@ -6354,7 +6331,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -6373,7 +6350,7 @@
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U41" s="33">
         <v>1E-3</v>
@@ -6381,7 +6358,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -6400,7 +6377,7 @@
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U43" s="33">
         <v>1E-3</v>
@@ -6412,7 +6389,7 @@
         <v>CSW</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -6431,7 +6408,7 @@
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U44" s="33">
         <v>1E-3</v>
@@ -6439,7 +6416,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C45" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -6458,7 +6435,7 @@
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U45" s="33">
         <v>1E-3</v>
@@ -6466,7 +6443,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -6485,7 +6462,7 @@
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U47" s="33">
         <v>1E-3</v>
@@ -6497,7 +6474,7 @@
         <v>MSM</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -6516,7 +6493,7 @@
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
       <c r="T48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U48" s="33">
         <v>1E-3</v>
@@ -6524,7 +6501,7 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -6543,7 +6520,7 @@
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U49" s="33">
         <v>1E-3</v>
@@ -6551,7 +6528,7 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -6570,7 +6547,7 @@
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U51" s="33">
         <v>1E-3</v>
@@ -6582,7 +6559,7 @@
         <v>PWID</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -6601,7 +6578,7 @@
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U52" s="33">
         <v>1E-3</v>
@@ -6609,7 +6586,7 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6628,7 +6605,7 @@
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
       <c r="T53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U53" s="33">
         <v>1E-3</v>
@@ -6647,7 +6624,7 @@
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6658,14 +6635,14 @@
   <sheetData>
     <row r="1" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6721,19 +6698,19 @@
         <v>0</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="AB2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6758,7 +6735,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="32">
         <v>0.01</v>
@@ -6791,7 +6768,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="32">
         <v>0.01</v>
@@ -6824,7 +6801,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="32">
         <v>0.01</v>
@@ -6857,7 +6834,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="32">
         <v>0.01</v>
@@ -6890,7 +6867,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="32">
         <v>0.01</v>
@@ -6923,7 +6900,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="32">
         <v>0.01</v>
@@ -6939,7 +6916,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6964,10 +6941,10 @@
       <c r="W12" s="21"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB12" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="AB12" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -7026,20 +7003,20 @@
         <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" t="s">
         <v>89</v>
       </c>
-      <c r="Z13" t="s">
-        <v>90</v>
-      </c>
       <c r="AB13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -7065,13 +7042,13 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="32">
         <v>0.1</v>
       </c>
       <c r="W14" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="32">
@@ -7110,13 +7087,13 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15" s="32">
         <v>0.1</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="32">
@@ -7155,13 +7132,13 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T16" s="32">
         <v>0.5</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="32">
@@ -7200,13 +7177,13 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" s="32">
         <v>0.2</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X17" s="21"/>
       <c r="Y17" s="32">
@@ -7245,13 +7222,13 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="32">
         <v>0.2</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X18" s="21"/>
       <c r="Y18" s="32">
@@ -7290,13 +7267,13 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19" s="32">
         <v>0.2</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19" s="21"/>
       <c r="Y19" s="32">
@@ -7317,14 +7294,14 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB23" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="AB23" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7380,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Z24" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="AB24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC24" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7417,13 +7394,13 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T25" s="32">
         <v>0.1</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y25" s="32">
         <v>0.2</v>
@@ -7460,13 +7437,13 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T26" s="32">
         <v>0.1</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y26" s="32">
         <v>0.2</v>
@@ -7503,13 +7480,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="32">
         <v>0.5</v>
       </c>
       <c r="W27" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y27" s="32">
         <v>0.8</v>
@@ -7546,13 +7523,13 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="32">
         <v>0.2</v>
       </c>
       <c r="W28" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y28" s="32">
         <v>0.3</v>
@@ -7589,13 +7566,13 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" s="32">
         <v>0.2</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y29" s="32">
         <v>0.7</v>
@@ -7632,13 +7609,13 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30" s="32">
         <v>0.2</v>
       </c>
       <c r="W30" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y30" s="32">
         <v>0.3</v>
@@ -7664,7 +7641,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -7688,12 +7665,12 @@
       <c r="W34" s="21"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -7753,21 +7730,21 @@
         <v>0</v>
       </c>
       <c r="W35" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X35" s="21"/>
       <c r="Y35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z35" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z35" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC35" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC35" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -7793,7 +7770,7 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T36" s="32">
         <v>0.01</v>
@@ -7828,7 +7805,7 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T37" s="32">
         <v>0.01</v>
@@ -7863,7 +7840,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T38" s="32">
         <v>0.01</v>
@@ -7898,7 +7875,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T39" s="32">
         <v>0.01</v>
@@ -7933,7 +7910,7 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T40" s="32">
         <v>0.01</v>
@@ -7968,7 +7945,7 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T41" s="32">
         <v>0.01</v>
@@ -8002,7 +7979,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8083,7 +8060,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -8102,7 +8079,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="27"/>
     </row>
@@ -8110,7 +8087,7 @@
     <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8191,7 +8168,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -8214,7 +8191,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" s="27"/>
     </row>
@@ -8222,7 +8199,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8303,7 +8280,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -8322,7 +8299,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15" s="27"/>
     </row>
@@ -8330,7 +8307,7 @@
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8388,7 +8365,7 @@
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -8407,7 +8384,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21" s="27"/>
     </row>
@@ -8416,7 +8393,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -8497,7 +8474,7 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -8520,13 +8497,13 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="27"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8584,7 +8561,7 @@
     </row>
     <row r="33" spans="2:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -8607,7 +8584,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T33" s="27"/>
     </row>
@@ -8628,7 +8605,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8650,12 +8627,12 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="Y1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -8715,20 +8692,20 @@
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -8754,13 +8731,13 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="32">
         <v>0.03</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="32">
         <v>0</v>
@@ -8798,13 +8775,13 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="32">
         <v>0.03</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="32">
         <v>0</v>
@@ -8848,11 +8825,11 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="27"/>
       <c r="W5" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="32">
         <v>0</v>
@@ -8890,13 +8867,13 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="32">
         <v>0.1</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="32">
         <v>0</v>
@@ -8940,11 +8917,11 @@
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="27"/>
       <c r="W7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="32">
         <v>0</v>
@@ -8982,13 +8959,13 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="32">
         <v>0.8</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="32">
         <v>0</v>
@@ -9007,7 +8984,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -9029,12 +9006,12 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="Y12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -9094,26 +9071,26 @@
         <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -9132,13 +9109,13 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="32">
         <v>0.8</v>
       </c>
       <c r="W14" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="32">
         <v>0</v>
@@ -9157,7 +9134,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9179,12 +9156,12 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="Y18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -9244,26 +9221,26 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z19" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC19" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC19" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -9288,11 +9265,11 @@
       </c>
       <c r="R20" s="27"/>
       <c r="S20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="32">
         <v>0</v>
@@ -9311,7 +9288,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9333,12 +9310,12 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="Y24" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="21"/>
     </row>
@@ -9398,26 +9375,26 @@
         <v>0</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z25" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC25" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC25" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -9442,11 +9419,11 @@
       </c>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T26" s="27"/>
       <c r="W26" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="32">
         <v>0</v>
@@ -9466,7 +9443,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9488,12 +9465,12 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="Y30" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC30" s="21"/>
     </row>
@@ -9553,26 +9530,26 @@
         <v>0</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z31" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z31" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC31" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -9593,11 +9570,11 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T32" s="27"/>
       <c r="W32" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y32" s="32">
         <v>0</v>
@@ -9618,13 +9595,13 @@
     <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y36" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB36" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="AB36" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9680,19 +9657,19 @@
         <v>0</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y37" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z37" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Z37" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="AB37" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC37" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC37" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9717,7 +9694,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T38" s="31"/>
       <c r="W38" s="27"/>
@@ -9748,7 +9725,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T39" s="31">
         <v>0.1</v>
@@ -9781,7 +9758,7 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T40" s="31">
         <v>0.2</v>
@@ -9814,7 +9791,7 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T41" s="31"/>
       <c r="W41" s="27"/>
@@ -9845,7 +9822,7 @@
       <c r="Q42" s="32"/>
       <c r="R42" s="27"/>
       <c r="S42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T42" s="31"/>
       <c r="W42" s="27"/>
@@ -9876,7 +9853,7 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T43" s="31"/>
       <c r="W43" s="27"/>
@@ -9887,13 +9864,13 @@
     </row>
     <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y47" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB47" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="AB47" s="22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9949,24 +9926,24 @@
         <v>0</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z48" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Z48" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="AB48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC48" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC48" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -9987,7 +9964,7 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T49" s="27"/>
       <c r="W49" s="27"/>
@@ -10017,7 +9994,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10039,12 +10016,12 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
       <c r="Y1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -10104,20 +10081,20 @@
         <v>0</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -10143,7 +10120,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="27">
         <v>60</v>
@@ -10178,7 +10155,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="27">
         <v>60</v>
@@ -10213,7 +10190,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="27">
         <v>40</v>
@@ -10248,7 +10225,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="27">
         <v>50</v>
@@ -10283,7 +10260,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="27">
         <v>50</v>
@@ -10318,7 +10295,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="27">
         <v>50</v>
@@ -10334,7 +10311,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -10356,12 +10333,12 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="Y12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -10421,20 +10398,20 @@
         <v>0</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -10460,7 +10437,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="27">
         <v>10</v>
@@ -10496,7 +10473,7 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T15" s="27">
         <v>10</v>
@@ -10532,7 +10509,7 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T16" s="27">
         <v>20</v>
@@ -10568,7 +10545,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" s="27">
         <v>20</v>
@@ -10604,7 +10581,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="27">
         <v>100</v>
@@ -10640,7 +10617,7 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19" s="27">
         <v>20</v>
@@ -10657,7 +10634,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -10679,12 +10656,12 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="Y23" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="21"/>
     </row>
@@ -10744,20 +10721,20 @@
         <v>0</v>
       </c>
       <c r="W24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z24" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC24" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -10783,7 +10760,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T25" s="27">
         <v>0</v>
@@ -10819,7 +10796,7 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T26" s="27">
         <v>0</v>
@@ -10855,7 +10832,7 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="27">
         <v>400</v>
@@ -10891,7 +10868,7 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="27">
         <v>40</v>
@@ -10927,7 +10904,7 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" s="27">
         <v>0</v>
@@ -10963,7 +10940,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30" s="27">
         <v>10</v>
@@ -10980,7 +10957,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -11002,12 +10979,12 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="Y34" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -11067,20 +11044,20 @@
         <v>0</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z35" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z35" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC35" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC35" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -11106,13 +11083,13 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T36" s="32">
         <v>0.05</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X36" s="21"/>
       <c r="Y36" s="32"/>
@@ -11144,13 +11121,13 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T37" s="32">
         <v>0.05</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X37" s="21"/>
       <c r="Y37" s="32"/>
@@ -11182,13 +11159,13 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T38" s="32">
         <v>0.2</v>
       </c>
       <c r="W38" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X38" s="21"/>
       <c r="Y38" s="32"/>
@@ -11220,13 +11197,13 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T39" s="32">
         <v>0.2</v>
       </c>
       <c r="W39" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X39" s="21"/>
       <c r="Y39" s="32"/>
@@ -11258,13 +11235,13 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T40" s="32">
         <v>0.2</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X40" s="21"/>
       <c r="Y40" s="32"/>
@@ -11296,13 +11273,13 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T41" s="32">
         <v>0.2</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="32"/>
@@ -11315,7 +11292,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -11337,12 +11314,12 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="Y45" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC45" s="21"/>
     </row>
@@ -11402,20 +11379,20 @@
         <v>0</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y46" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z46" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z46" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC46" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC46" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -11441,13 +11418,13 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T47" s="32">
         <v>0.5</v>
       </c>
       <c r="W47" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
@@ -11478,13 +11455,13 @@
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T48" s="32">
         <v>0.5</v>
       </c>
       <c r="W48" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
@@ -11515,13 +11492,13 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T49" s="32">
         <v>0.5</v>
       </c>
       <c r="W49" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
@@ -11552,13 +11529,13 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T50" s="32">
         <v>0.5</v>
       </c>
       <c r="W50" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
@@ -11589,13 +11566,13 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T51" s="32">
         <v>0.5</v>
       </c>
       <c r="W51" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
@@ -11626,13 +11603,13 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T52" s="32">
         <v>0.5</v>
       </c>
       <c r="W52" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
@@ -11644,7 +11621,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -11666,12 +11643,12 @@
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
       <c r="Y56" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="21"/>
     </row>
@@ -11731,20 +11708,20 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y57" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z57" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z57" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC57" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC57" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -11770,7 +11747,7 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T58" s="27">
         <v>0</v>
@@ -11805,7 +11782,7 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T59" s="27">
         <v>0</v>
@@ -11840,13 +11817,13 @@
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T60" s="32">
         <v>0.8</v>
       </c>
       <c r="W60" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y60" s="32"/>
       <c r="Z60" s="32"/>
@@ -11877,13 +11854,13 @@
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T61" s="32">
         <v>0.8</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y61" s="32"/>
       <c r="Z61" s="32"/>
@@ -11914,7 +11891,7 @@
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T62" s="27">
         <v>0</v>
@@ -11949,13 +11926,13 @@
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
       <c r="S63" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T63" s="32">
         <v>0.8</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y63" s="32"/>
       <c r="Z63" s="32"/>
@@ -11967,7 +11944,7 @@
     <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -11989,12 +11966,12 @@
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="Y67" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC67" s="21"/>
     </row>
@@ -12054,20 +12031,20 @@
         <v>0</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y68" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z68" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z68" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC68" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC68" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -12093,13 +12070,13 @@
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T69" s="32">
         <v>0.3</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y69" s="32"/>
       <c r="Z69" s="32"/>
@@ -12130,7 +12107,7 @@
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T70" s="27">
         <v>0</v>
@@ -12165,7 +12142,7 @@
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T71" s="27">
         <v>0</v>
@@ -12200,13 +12177,13 @@
       <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
       <c r="S72" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T72" s="32">
         <v>0.3</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y72" s="32"/>
       <c r="Z72" s="32"/>
@@ -12237,13 +12214,13 @@
       <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
       <c r="S73" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T73" s="32">
         <v>0.3</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y73" s="32"/>
       <c r="Z73" s="32"/>
@@ -12274,13 +12251,13 @@
       <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
       <c r="S74" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T74" s="32">
         <v>0.3</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y74" s="32"/>
       <c r="Z74" s="32"/>
@@ -12301,9 +12278,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12312,7 +12287,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -12336,12 +12311,12 @@
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -12401,21 +12376,21 @@
         <v>0</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="21"/>
       <c r="Y2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -12441,7 +12416,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="27">
         <v>0</v>
@@ -12477,7 +12452,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T4" s="27">
         <v>0</v>
@@ -12513,7 +12488,7 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="27">
         <v>0</v>
@@ -12549,7 +12524,7 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="27">
         <v>0</v>
@@ -12585,7 +12560,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="27">
         <v>0</v>
@@ -12621,7 +12596,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="27">
         <v>400</v>
@@ -12638,7 +12613,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12661,12 +12636,12 @@
       <c r="T12" s="16"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -12726,26 +12701,26 @@
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="32">
@@ -12772,11 +12747,11 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="27"/>
       <c r="W14" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="32">
         <v>0</v>
@@ -12796,7 +12771,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12818,12 +12793,12 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="Y18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -12883,26 +12858,26 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="Z19" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC19" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="AC19" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34">
@@ -12927,11 +12902,11 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T20" s="27"/>
       <c r="W20" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y20" s="32">
         <v>0</v>
@@ -12948,6 +12923,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12966,7 +12942,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13270,7 +13246,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -13567,7 +13543,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -13726,7 +13702,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="146">
   <si>
     <t>Assumption</t>
   </si>
@@ -284,12 +284,6 @@
   </si>
   <si>
     <t>Populations</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>upper</t>
   </si>
   <si>
     <t>Min</t>
@@ -2534,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2685,7 +2679,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2811,8 +2805,8 @@
   <sheetPr published="0"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2890,7 +2884,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="32">
         <v>0.05</v>
@@ -2900,7 +2894,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="32">
         <v>0.03</v>
@@ -2920,7 +2914,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2990,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="22"/>
     </row>
@@ -3063,7 +3057,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,7 +3116,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,7 +3162,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3258,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3369,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3391,7 +3385,7 @@
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="31">
         <v>0.05</v>
@@ -3474,7 +3468,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3551,7 +3545,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3644,7 +3638,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3750,7 +3744,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3856,7 +3850,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3962,7 +3956,7 @@
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4042,7 @@
     <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4131,7 +4125,7 @@
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4217,7 +4211,7 @@
     <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4303,7 +4297,7 @@
     <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4386,7 +4380,7 @@
     </row>
     <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4466,7 @@
     <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4903,12 +4897,12 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5195,7 +5189,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -5475,7 +5469,9 @@
   <sheetPr published="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5545,7 +5541,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -5609,7 +5605,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -5634,7 +5630,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -5694,7 +5690,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -5719,7 +5715,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -5777,7 +5773,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -5802,7 +5798,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -5858,7 +5854,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -5883,7 +5879,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C19" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -5939,7 +5935,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -5964,7 +5960,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6020,7 +6016,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6045,7 +6041,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6103,7 +6099,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -6161,7 +6157,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6188,7 +6184,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -6246,7 +6242,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -6273,7 +6269,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -6358,7 +6354,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -6416,7 +6412,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C45" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -6443,7 +6439,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -6501,7 +6497,7 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="21" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -6586,7 +6582,7 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6635,14 +6631,14 @@
   <sheetData>
     <row r="1" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6701,16 +6697,16 @@
         <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6916,7 +6912,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6941,10 +6937,10 @@
       <c r="W12" s="21"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -7007,16 +7003,16 @@
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -7294,14 +7290,14 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7360,16 +7356,16 @@
         <v>33</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB24" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC24" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7665,12 +7661,12 @@
       <c r="W34" s="21"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -7734,17 +7730,17 @@
       </c>
       <c r="X35" s="21"/>
       <c r="Y35" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -8199,7 +8195,7 @@
     <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8307,7 +8303,7 @@
     <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8503,7 +8499,7 @@
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -8605,7 +8601,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8627,12 +8623,12 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="Y1" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -8695,17 +8691,17 @@
         <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -8984,7 +8980,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -9006,12 +9002,12 @@
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="Y12" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -9074,17 +9070,17 @@
         <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -9134,7 +9130,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9156,12 +9152,12 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="Y18" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -9224,17 +9220,17 @@
         <v>33</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -9288,7 +9284,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9310,12 +9306,12 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="Y24" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC24" s="21"/>
     </row>
@@ -9378,17 +9374,17 @@
         <v>33</v>
       </c>
       <c r="Y25" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC25" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -9443,7 +9439,7 @@
     <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9465,12 +9461,12 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="Y30" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC30" s="21"/>
     </row>
@@ -9533,17 +9529,17 @@
         <v>33</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -9595,13 +9591,13 @@
     <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y36" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB36" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9660,16 +9656,16 @@
         <v>33</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB37" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9864,13 +9860,13 @@
     </row>
     <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB47" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9929,16 +9925,16 @@
         <v>33</v>
       </c>
       <c r="Y48" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB48" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC48" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -9994,7 +9990,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10016,12 +10012,12 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
       <c r="Y1" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -10084,17 +10080,17 @@
         <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -10311,7 +10307,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -10333,12 +10329,12 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="Y12" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -10401,17 +10397,17 @@
         <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -10634,7 +10630,7 @@
     <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -10656,12 +10652,12 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="Y23" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC23" s="21"/>
     </row>
@@ -10724,17 +10720,17 @@
         <v>33</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC24" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -10957,7 +10953,7 @@
     <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10979,12 +10975,12 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="Y34" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC34" s="21"/>
     </row>
@@ -11047,17 +11043,17 @@
         <v>33</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -11292,7 +11288,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -11314,12 +11310,12 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="Y45" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC45" s="21"/>
     </row>
@@ -11382,17 +11378,17 @@
         <v>33</v>
       </c>
       <c r="Y46" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -11621,7 +11617,7 @@
     <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -11643,12 +11639,12 @@
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
       <c r="Y56" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC56" s="21"/>
     </row>
@@ -11711,17 +11707,17 @@
         <v>33</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z57" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC57" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -11944,7 +11940,7 @@
     <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -11966,12 +11962,12 @@
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="Y67" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC67" s="21"/>
     </row>
@@ -12034,17 +12030,17 @@
         <v>33</v>
       </c>
       <c r="Y68" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z68" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC68" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -12287,7 +12283,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -12311,12 +12307,12 @@
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="21"/>
     </row>
@@ -12380,17 +12376,17 @@
       </c>
       <c r="X2" s="21"/>
       <c r="Y2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -12613,7 +12609,7 @@
     <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12636,12 +12632,12 @@
       <c r="T12" s="16"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="21"/>
     </row>
@@ -12704,17 +12700,17 @@
         <v>33</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -12771,7 +12767,7 @@
     <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12793,12 +12789,12 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="Y18" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC18" s="21"/>
     </row>
@@ -12861,17 +12857,17 @@
         <v>33</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -12942,7 +12938,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13246,7 +13242,7 @@
     <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -13543,7 +13539,7 @@
     <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -13702,7 +13698,7 @@
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13545" tabRatio="863" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="146">
   <si>
     <t>Assumption</t>
   </si>
@@ -473,10 +473,17 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,728 +604,731 @@
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5469,8 +5479,8 @@
   <sheetPr published="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,6 +5550,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
       <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
@@ -5592,9 +5606,15 @@
       <c r="O4" s="29">
         <v>2600000</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+      <c r="P4" s="29">
+        <v>2700000</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>2800000</v>
+      </c>
+      <c r="R4" s="29">
+        <v>2900000</v>
+      </c>
       <c r="S4" s="29">
         <v>3000000</v>
       </c>
@@ -5604,6 +5624,10 @@
       <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
       <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
@@ -5629,6 +5653,10 @@
       <c r="U5" s="33"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -5689,6 +5717,10 @@
       <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
       <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
@@ -5714,6 +5746,10 @@
       <c r="U9" s="33"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
       <c r="C11" s="21" t="s">
         <v>11</v>
       </c>
@@ -5772,6 +5808,10 @@
       <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
       <c r="C13" s="21" t="s">
         <v>10</v>
       </c>
@@ -5797,6 +5837,10 @@
       <c r="U13" s="33"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
       <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
@@ -5853,6 +5897,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
       <c r="C17" s="21" t="s">
         <v>10</v>
       </c>
@@ -5878,6 +5926,10 @@
       <c r="U17" s="33"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
       <c r="C19" s="21" t="s">
         <v>11</v>
       </c>
@@ -5934,6 +5986,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
       <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
@@ -5959,6 +6015,10 @@
       <c r="U21" s="33"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
       <c r="C23" s="21" t="s">
         <v>11</v>
       </c>
@@ -6015,6 +6075,10 @@
       <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
       <c r="C25" s="21" t="s">
         <v>10</v>
       </c>
@@ -6098,6 +6162,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
       <c r="C31" s="21" t="s">
         <v>11</v>
       </c>
@@ -6156,6 +6224,10 @@
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>GM</v>
+      </c>
       <c r="C33" s="21" t="s">
         <v>10</v>
       </c>
@@ -6183,6 +6255,10 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
       <c r="C35" s="21" t="s">
         <v>11</v>
       </c>
@@ -6241,6 +6317,10 @@
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>GF</v>
+      </c>
       <c r="C37" s="21" t="s">
         <v>10</v>
       </c>
@@ -6268,6 +6348,10 @@
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
       <c r="C39" s="21" t="s">
         <v>11</v>
       </c>
@@ -6326,6 +6410,10 @@
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>FSW</v>
+      </c>
       <c r="C41" s="21" t="s">
         <v>10</v>
       </c>
@@ -6353,6 +6441,10 @@
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
       <c r="C43" s="21" t="s">
         <v>11</v>
       </c>
@@ -6411,6 +6503,10 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>CSW</v>
+      </c>
       <c r="C45" s="21" t="s">
         <v>10</v>
       </c>
@@ -6438,6 +6534,10 @@
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
       <c r="C47" s="21" t="s">
         <v>11</v>
       </c>
@@ -6496,6 +6596,10 @@
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>MSM</v>
+      </c>
       <c r="C49" s="21" t="s">
         <v>10</v>
       </c>
@@ -6523,6 +6627,10 @@
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
       <c r="C51" s="21" t="s">
         <v>11</v>
       </c>
@@ -6581,6 +6689,10 @@
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="str">
+        <f>'Populations &amp; programs'!$C$8</f>
+        <v>PWID</v>
+      </c>
       <c r="C53" s="21" t="s">
         <v>10</v>
       </c>
@@ -6619,8 +6731,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,8 +6826,12 @@
         <f>'Populations &amp; programs'!$C$3</f>
         <v>GM</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.01</v>
+      </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -6728,19 +6844,31 @@
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="Q3" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="R3" s="32">
+        <v>0.02</v>
+      </c>
       <c r="S3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="32"/>
+      <c r="W3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="32">
         <v>0.01</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="Z3" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="str">
@@ -7958,7 +8086,7 @@
       <c r="S42" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9971,7 +10099,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12263,7 +12391,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12920,7 +13048,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19410" windowHeight="10950" tabRatio="863" activeTab="12"/>
+    <workbookView xWindow="-20" yWindow="40" windowWidth="19420" windowHeight="10960" tabRatio="863" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -21,12 +21,263 @@
     <sheet name="Disutilities &amp; costs" sheetId="14" r:id="rId12"/>
     <sheet name="Macroeconomics" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
+  <si>
+    <t>Men who have sex with men</t>
+  </si>
+  <si>
+    <t>Female sex workers</t>
+  </si>
+  <si>
+    <t>People who inject drugs</t>
+  </si>
+  <si>
+    <t>General males</t>
+  </si>
+  <si>
+    <t>General females</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Needle-syringe program</t>
+  </si>
+  <si>
+    <t>Opiate substition therapy</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy</t>
+  </si>
+  <si>
+    <t>HIV counseling and testing</t>
+  </si>
+  <si>
+    <t>Behavior change &amp; communiction</t>
+  </si>
+  <si>
+    <t>Sexually transmitted infections</t>
+  </si>
+  <si>
+    <t>CSW</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevention of mother-to-child transmission</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t>Age-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle at last injection</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>AND EITHER</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of people on second-line treatment</t>
+  </si>
+  <si>
+    <t>Total program costs</t>
+  </si>
+  <si>
+    <t>Unit costs</t>
+  </si>
+  <si>
+    <t>Number of AIDS-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Birth rate (births per woman per year)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfed</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>ARV treatment</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Percentage of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Risk-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;200) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>First-line treatment</t>
+  </si>
+  <si>
+    <t>Second-line  treatment</t>
+  </si>
+  <si>
+    <t>CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;200)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(&lt;200)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(350-500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&lt;200)</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>FSW</t>
+  </si>
+  <si>
+    <t>PWID</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>NSP</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>STI</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+  </si>
   <si>
     <t>Assumption</t>
   </si>
@@ -213,242 +464,21 @@
   <si>
     <t>Modeled estimate of HIV prevalence</t>
   </si>
-  <si>
-    <t>Prevalence of any discharging STIs</t>
-  </si>
-  <si>
-    <t>Age-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>Percentage of people who receptively shared a needle at last injection</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>AND EITHER</t>
-  </si>
-  <si>
-    <t>Number of people on first-line treatment</t>
-  </si>
-  <si>
-    <t>Number of people on second-line treatment</t>
-  </si>
-  <si>
-    <t>Total program costs</t>
-  </si>
-  <si>
-    <t>Unit costs</t>
-  </si>
-  <si>
-    <t>Number of AIDS-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for HIV in the last 12 months</t>
-  </si>
-  <si>
-    <t>Birth rate (births per woman per year)</t>
-  </si>
-  <si>
-    <t>Percentage of HIV-positive women who breastfed</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>ARV treatment</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of new HIV infections per year</t>
-  </si>
-  <si>
-    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
-  </si>
-  <si>
-    <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Percentage of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Risk-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;200) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>First-line treatment</t>
-  </si>
-  <si>
-    <t>Second-line  treatment</t>
-  </si>
-  <si>
-    <t>CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;200)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(&lt;200)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(350-500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&lt;200)</t>
-  </si>
-  <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>FSW</t>
-  </si>
-  <si>
-    <t>PWID</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>NSP</t>
-  </si>
-  <si>
-    <t>OST</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>HCT</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>STI</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>PMTCT</t>
-  </si>
-  <si>
-    <t>Men who have sex with men</t>
-  </si>
-  <si>
-    <t>Female sex workers</t>
-  </si>
-  <si>
-    <t>People who inject drugs</t>
-  </si>
-  <si>
-    <t>General males</t>
-  </si>
-  <si>
-    <t>General females</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Needle-syringe program</t>
-  </si>
-  <si>
-    <t>Opiate substition therapy</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy</t>
-  </si>
-  <si>
-    <t>HIV counseling and testing</t>
-  </si>
-  <si>
-    <t>Behavior change &amp; communiction</t>
-  </si>
-  <si>
-    <t>Sexually transmitted infections</t>
-  </si>
-  <si>
-    <t>CSW</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.00%"/>
+    <numFmt numFmtId="172" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -514,19 +544,17 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -539,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,8 +580,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -576,10 +610,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -591,7 +640,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1239,11 +1288,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
@@ -1276,92 +1325,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="13"/>
@@ -2333,250 +2394,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.125" style="22"/>
     <col min="2" max="2" width="5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="C2" s="23" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="23">
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="23">
         <v>3</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="23">
         <v>4</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="23">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="23">
         <v>6</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="23"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="23"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="23" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" s="23">
         <v>1</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="23">
         <v>2</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" s="23">
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="23">
         <v>4</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="23">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="23">
         <v>6</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="23">
         <v>7</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="23">
         <v>8</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="23">
+        <v>9</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="3"/>
@@ -2586,7 +2665,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="7" customFormat="1">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="5" t="str">
@@ -2614,7 +2693,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2626,7 +2705,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2638,7 +2717,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -2650,7 +2729,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -2662,7 +2741,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -2674,7 +2753,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -2686,7 +2765,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="19" customFormat="1">
       <c r="A9" s="17"/>
       <c r="B9" s="43"/>
       <c r="C9" s="17"/>
@@ -2714,10 +2793,10 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="19" customFormat="1">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="3"/>
       <c r="B11" s="43"/>
       <c r="C11" s="3"/>
@@ -2727,9 +2806,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="18" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="3"/>
@@ -2739,7 +2818,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="7" customFormat="1">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="5" t="str">
@@ -2767,7 +2846,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2779,7 +2858,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2791,7 +2870,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -2803,7 +2882,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -2815,7 +2894,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -2827,7 +2906,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -2840,47 +2919,51 @@
       <c r="H19" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="33.28515625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.125" style="19"/>
+    <col min="2" max="2" width="33.25" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="20" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C3" s="28">
         <v>4.0000000000000002E-4</v>
@@ -2888,9 +2971,9 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="20" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C4" s="28">
         <v>1E-3</v>
@@ -2898,9 +2981,9 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="20" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C5" s="28">
         <v>5.9999999999999995E-4</v>
@@ -2908,9 +2991,9 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="20" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C6" s="28">
         <v>5.0000000000000001E-3</v>
@@ -2918,9 +3001,9 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="20" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C7" s="28">
         <v>3.0000000000000001E-3</v>
@@ -2928,9 +3011,9 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="20" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C8" s="27">
         <v>0.05</v>
@@ -2938,9 +3021,9 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="20" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C9" s="27">
         <v>0.03</v>
@@ -2948,7 +3031,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -2958,25 +3041,25 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1">
       <c r="C14" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="20" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C15" s="24">
         <v>10</v>
@@ -2984,9 +3067,9 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C16" s="24">
         <v>1</v>
@@ -2994,9 +3077,9 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="20" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24">
         <v>1</v>
@@ -3004,9 +3087,9 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" s="20" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
@@ -3014,9 +3097,9 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C19" s="24">
         <v>3.8</v>
@@ -3024,7 +3107,7 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3034,26 +3117,26 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="20" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C25" s="27">
         <v>1</v>
@@ -3061,9 +3144,9 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="20" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C26" s="27">
         <v>0.25</v>
@@ -3071,9 +3154,9 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="20" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C27" s="27">
         <v>0.25</v>
@@ -3081,9 +3164,9 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="20" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C28" s="27">
         <v>0.5</v>
@@ -3091,7 +3174,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3101,25 +3184,25 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="B34" s="20" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C34" s="27">
         <v>0.45</v>
@@ -3127,9 +3210,9 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="B35" s="20" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C35" s="27">
         <v>0.7</v>
@@ -3137,9 +3220,9 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="B36" s="20" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C36" s="27">
         <v>0.36</v>
@@ -3147,10 +3230,10 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3160,25 +3243,25 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="C41" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" s="20" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C42" s="27">
         <v>0.2</v>
@@ -3190,9 +3273,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="20" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C43" s="27">
         <v>0.1</v>
@@ -3204,7 +3287,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3214,25 +3297,25 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="C48" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="B49" s="20" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C49" s="27">
         <v>0</v>
@@ -3240,9 +3323,9 @@
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="B50" s="20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C50" s="28">
         <v>5.0000000000000001E-4</v>
@@ -3250,9 +3333,9 @@
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="B51" s="20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C51" s="28">
         <v>1E-3</v>
@@ -3260,9 +3343,9 @@
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52" s="20" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C52" s="27">
         <v>0.01</v>
@@ -3270,9 +3353,9 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="B53" s="20" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C53" s="27">
         <v>0.49</v>
@@ -3280,9 +3363,9 @@
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" s="20" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C54" s="27">
         <v>0.04</v>
@@ -3290,9 +3373,9 @@
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="B55" s="20" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C55" s="24">
         <v>2</v>
@@ -3300,7 +3383,7 @@
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3310,25 +3393,25 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="C60" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="B61" s="20" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C61" s="27">
         <v>0.05</v>
@@ -3336,9 +3419,9 @@
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62" s="20" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C62" s="27">
         <v>0.3</v>
@@ -3346,9 +3429,9 @@
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="B63" s="20" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C63" s="27">
         <v>0.65</v>
@@ -3356,9 +3439,9 @@
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="B64" s="20" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C64" s="27">
         <v>3.5</v>
@@ -3366,9 +3449,9 @@
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5">
       <c r="B65" s="20" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C65" s="27">
         <v>0.05</v>
@@ -3376,9 +3459,9 @@
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" s="20" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C66" s="27">
         <v>0.05</v>
@@ -3386,9 +3469,9 @@
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" s="20" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C67" s="27">
         <v>0.3</v>
@@ -3397,49 +3480,55 @@
       <c r="E67" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="19" customFormat="1">
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26">
         <v>0.05</v>
@@ -3447,10 +3536,10 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C4" s="26">
         <v>0.05</v>
@@ -3458,10 +3547,10 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C5" s="26">
         <v>0.1</v>
@@ -3469,10 +3558,10 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C6" s="26">
         <v>0.15</v>
@@ -3480,10 +3569,10 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C7" s="26">
         <v>0.5</v>
@@ -3491,10 +3580,10 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C8" s="26">
         <v>5.2999999999999999E-2</v>
@@ -3502,15 +3591,15 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="19" customFormat="1"/>
+    <row r="11" spans="1:8" s="19" customFormat="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -3520,32 +3609,32 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C14" s="24">
         <v>0</v>
@@ -3553,10 +3642,10 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C15" s="24">
         <v>100</v>
@@ -3564,10 +3653,10 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C16" s="24">
         <v>100</v>
@@ -3575,10 +3664,10 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C17" s="24">
         <v>200</v>
@@ -3586,10 +3675,10 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C18" s="24">
         <v>450</v>
@@ -3597,32 +3686,32 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C24" s="24">
         <v>0</v>
@@ -3630,10 +3719,10 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C25" s="24">
         <v>0</v>
@@ -3641,10 +3730,10 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -3652,10 +3741,10 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C27" s="24">
         <v>0</v>
@@ -3663,10 +3752,10 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C28" s="24">
         <v>0</v>
@@ -3675,32 +3764,36 @@
       <c r="E28" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
-    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="20" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3720,7 +3813,7 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="19"/>
       <c r="C2" s="20">
         <v>2015</v>
@@ -3772,13 +3865,13 @@
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C3" s="24">
         <v>71700000000</v>
@@ -3844,13 +3937,13 @@
         <v>392454664938.73016</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="34"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="20" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3870,7 +3963,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="19"/>
       <c r="C8" s="20">
         <v>2015</v>
@@ -3922,13 +4015,13 @@
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C9" s="49">
         <v>30000000000</v>
@@ -3994,13 +4087,13 @@
         <v>105000000000</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T9" s="34"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="20" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4020,7 +4113,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="19"/>
       <c r="C14" s="20">
         <v>2015</v>
@@ -4072,13 +4165,13 @@
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C15" s="24">
         <v>10000000000</v>
@@ -4144,18 +4237,18 @@
         <v>20789281794.113678</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T15" s="34"/>
     </row>
-    <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="19" customFormat="1">
       <c r="A19" s="20" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="19" customFormat="1">
       <c r="B20" s="7"/>
       <c r="C20" s="20">
         <v>2015</v>
@@ -4206,12 +4299,12 @@
         <v>2030</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="19" customFormat="1">
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -4230,30 +4323,31 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="19" customFormat="1">
       <c r="B22" s="7"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="19" customFormat="1">
       <c r="B23" s="7"/>
+      <c r="I23" s="53"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="19" customFormat="1">
       <c r="B24" s="7"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="19" customFormat="1">
       <c r="A25" s="20" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="19" customFormat="1">
       <c r="B26" s="7"/>
       <c r="C26" s="20">
         <v>2015</v>
@@ -4304,12 +4398,12 @@
         <v>2030</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="19" customFormat="1">
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C27" s="24">
         <f>12%*C15</f>
@@ -4376,18 +4470,18 @@
         <v>2494713815.2936411</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T27" s="34"/>
     </row>
-    <row r="31" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="19" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7"/>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="19" customFormat="1">
       <c r="B32" s="7"/>
       <c r="C32" s="20">
         <v>2015</v>
@@ -4438,12 +4532,12 @@
         <v>2030</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="19" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C33" s="24">
         <v>15000000</v>
@@ -4494,30 +4588,30 @@
         <v>18000000</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T33" s="34"/>
     </row>
-    <row r="34" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="19" customFormat="1">
       <c r="B34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="19" customFormat="1">
       <c r="B35" s="7"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="19" customFormat="1">
       <c r="B36" s="7"/>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="19" customFormat="1">
       <c r="A37" s="20" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="19" customFormat="1">
       <c r="B38" s="7"/>
       <c r="C38" s="20">
         <v>2015</v>
@@ -4568,12 +4662,12 @@
         <v>2030</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="19" customFormat="1">
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -4592,30 +4686,30 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T39" s="34"/>
     </row>
-    <row r="40" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="19" customFormat="1">
       <c r="B40" s="7"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="19" customFormat="1">
       <c r="B41" s="7"/>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="19" customFormat="1">
       <c r="B42" s="7"/>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="19" customFormat="1">
       <c r="A43" s="20" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B43" s="7"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="19" customFormat="1">
       <c r="B44" s="7"/>
       <c r="C44" s="20">
         <v>2015</v>
@@ -4666,12 +4760,12 @@
         <v>2030</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="19" customFormat="1">
       <c r="B45" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -4690,18 +4784,18 @@
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
       <c r="S45" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T45" s="34"/>
     </row>
-    <row r="49" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="19" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B49" s="7"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="19" customFormat="1">
       <c r="B50" s="7"/>
       <c r="C50" s="20">
         <v>2015</v>
@@ -4752,12 +4846,12 @@
         <v>2030</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="19" customFormat="1">
       <c r="B51" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4776,30 +4870,30 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T51" s="34"/>
     </row>
-    <row r="52" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="19" customFormat="1">
       <c r="B52" s="7"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="19" customFormat="1">
       <c r="B53" s="7"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="19" customFormat="1">
       <c r="B54" s="7"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="19" customFormat="1">
       <c r="A55" s="20" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B55" s="7"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="19" customFormat="1">
       <c r="B56" s="7"/>
       <c r="C56" s="20">
         <v>2015</v>
@@ -4850,12 +4944,12 @@
         <v>2030</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="19" customFormat="1">
       <c r="B57" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -4874,38 +4968,43 @@
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
       <c r="S57" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T57" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
-  <dimension ref="A1:U36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="19" width="9.140625" style="19"/>
-    <col min="20" max="20" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="19" width="9.125" style="19"/>
+    <col min="20" max="20" width="15.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="C2" s="20">
         <v>2000</v>
       </c>
@@ -4955,10 +5054,10 @@
         <v>2015</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
@@ -4994,11 +5093,11 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="27"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>OST</v>
@@ -5026,11 +5125,11 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T4" s="45"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>MSM</v>
@@ -5052,13 +5151,13 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T5" s="27">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>FSW</v>
@@ -5090,11 +5189,11 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>ART</v>
@@ -5116,16 +5215,16 @@
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
       <c r="S7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T7" s="45">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
-        <v>HCT</v>
+        <v>HTC</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -5144,13 +5243,13 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T8" s="27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="B9" s="5" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>BCC</v>
@@ -5176,11 +5275,11 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
@@ -5203,36 +5302,41 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T10" s="27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="7"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -5255,103 +5359,98 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="K13" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="20">
+    <row r="13" spans="1:21">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" s="21"/>
+      <c r="K14" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="B17" s="7"/>
+      <c r="C17" s="20">
         <v>2000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D17" s="20">
         <v>2001</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E17" s="20">
         <v>2002</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F17" s="20">
         <v>2003</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G17" s="20">
         <v>2004</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H17" s="20">
         <v>2005</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I17" s="20">
         <v>2006</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J17" s="20">
         <v>2007</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K17" s="20">
         <v>2008</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L17" s="20">
         <v>2009</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M17" s="20">
         <v>2010</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N17" s="20">
         <v>2011</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O17" s="20">
         <v>2012</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P17" s="20">
         <v>2013</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q17" s="20">
         <v>2014</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R17" s="20">
         <v>2015</v>
       </c>
-      <c r="T16" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="str">
+      <c r="T17" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="51">
-        <v>437848</v>
-      </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$15</f>
-        <v>OST</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
@@ -5364,25 +5463,27 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="51">
-        <v>283074</v>
+        <v>437848</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="P18" s="51">
+        <v>500000</v>
+      </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="B19" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$16</f>
-        <v>MSM</v>
+        <f>'Populations &amp; programs'!$C$15</f>
+        <v>OST</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -5392,22 +5493,24 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="51">
-        <v>235251</v>
-      </c>
-      <c r="N19" s="24"/>
+        <v>283074</v>
+      </c>
+      <c r="N19" s="25"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="P19" s="51">
+        <v>300000</v>
+      </c>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="B20" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$17</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$16</f>
+        <v>MSM</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -5420,22 +5523,24 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="51">
-        <v>256481</v>
+        <v>235251</v>
       </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="P20" s="51">
+        <v>250000</v>
+      </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="B21" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$18</f>
-        <v>ART</v>
+        <f>'Populations &amp; programs'!$C$17</f>
+        <v>FSW</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -5443,27 +5548,29 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="51">
-        <v>652699</v>
+        <v>256481</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="51">
+        <v>300000</v>
+      </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="B22" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$19</f>
-        <v>HCT</v>
+        <f>'Populations &amp; programs'!$C$18</f>
+        <v>ART</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -5471,27 +5578,29 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="51">
-        <v>329280</v>
+        <v>652699</v>
       </c>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="P22" s="51">
+        <v>800000</v>
+      </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="B23" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$20</f>
-        <v>BCC</v>
+        <f>'Populations &amp; programs'!$C$19</f>
+        <v>HTC</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -5504,22 +5613,24 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="51">
-        <v>37640</v>
+        <v>329280</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="P23" s="51">
+        <v>300000</v>
+      </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="B24" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$21</f>
-        <v>STI</v>
+        <f>'Populations &amp; programs'!$C$20</f>
+        <v>BCC</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -5532,144 +5643,153 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="51">
-        <v>69839</v>
+        <v>37640</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="P24" s="51">
+        <v>20000</v>
+      </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K26" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="25" spans="1:20">
+      <c r="B25" s="5" t="str">
+        <f>'Populations &amp; programs'!$C$21</f>
+        <v>STI</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="51">
+        <v>69839</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="51">
+        <v>100000</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T25" s="30"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="B26" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="51">
+        <v>69839</v>
+      </c>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="51">
+        <v>50000</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T26" s="30"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="K27" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="B30" s="7"/>
+      <c r="C30" s="20">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="20">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="20">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="20">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="20">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="20">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="20">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="20">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="20">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="20">
+        <v>2015</v>
+      </c>
+      <c r="T30" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="20">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="20">
-        <v>2001</v>
-      </c>
-      <c r="E28" s="20">
-        <v>2002</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2003</v>
-      </c>
-      <c r="G28" s="20">
-        <v>2004</v>
-      </c>
-      <c r="H28" s="20">
-        <v>2005</v>
-      </c>
-      <c r="I28" s="20">
-        <v>2006</v>
-      </c>
-      <c r="J28" s="20">
-        <v>2007</v>
-      </c>
-      <c r="K28" s="20">
-        <v>2008</v>
-      </c>
-      <c r="L28" s="20">
-        <v>2009</v>
-      </c>
-      <c r="M28" s="20">
-        <v>2010</v>
-      </c>
-      <c r="N28" s="20">
-        <v>2011</v>
-      </c>
-      <c r="O28" s="20">
-        <v>2012</v>
-      </c>
-      <c r="P28" s="20">
-        <v>2013</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>2014</v>
-      </c>
-      <c r="R28" s="20">
-        <v>2015</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="str">
+    <row r="31" spans="1:20">
+      <c r="B31" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="31"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$15</f>
-        <v>OST</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="31"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$16</f>
-        <v>MSM</v>
-      </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -5678,24 +5798,24 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="B32" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$17</f>
-        <v>FSW</v>
+        <f>'Populations &amp; programs'!$C$15</f>
+        <v>OST</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -5704,21 +5824,21 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20">
       <c r="B33" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$18</f>
-        <v>ART</v>
+        <f>'Populations &amp; programs'!$C$16</f>
+        <v>MSM</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -5726,7 +5846,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -5737,14 +5857,14 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20">
       <c r="B34" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$19</f>
-        <v>HCT</v>
+        <f>'Populations &amp; programs'!$C$17</f>
+        <v>FSW</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -5763,14 +5883,14 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20">
       <c r="B35" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$20</f>
-        <v>BCC</v>
+        <f>'Populations &amp; programs'!$C$18</f>
+        <v>ART</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -5778,7 +5898,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -5789,14 +5909,14 @@
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20">
       <c r="B36" s="5" t="str">
-        <f>'Populations &amp; programs'!$C$21</f>
-        <v>STI</v>
+        <f>'Populations &amp; programs'!$C$19</f>
+        <v>HTC</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -5815,41 +5935,124 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="5" t="str">
+        <f>'Populations &amp; programs'!$C$20</f>
+        <v>BCC</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="5" t="str">
+        <f>'Populations &amp; programs'!$C$21</f>
+        <v>STI</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T38" s="30"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T39" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="9.42578125" style="19" customWidth="1"/>
-    <col min="5" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="3" width="9.125" style="19"/>
+    <col min="4" max="4" width="9.375" style="19" customWidth="1"/>
+    <col min="5" max="20" width="9.125" style="19"/>
+    <col min="21" max="21" width="15.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="9.125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="D2" s="20">
         <v>2000</v>
       </c>
@@ -5899,16 +6102,16 @@
         <v>2015</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -5927,19 +6130,19 @@
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
       <c r="T3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U3" s="32">
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -5958,19 +6161,19 @@
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
       <c r="T4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U4" s="32">
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -5989,24 +6192,24 @@
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
       <c r="T5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U5" s="32">
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -6025,17 +6228,17 @@
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -6054,19 +6257,19 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U8" s="32">
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="B9" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -6085,11 +6288,11 @@
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U9" s="32"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="33"/>
@@ -6110,13 +6313,13 @@
       <c r="S10" s="33"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -6145,17 +6348,17 @@
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U11" s="32"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -6184,17 +6387,17 @@
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U12" s="32"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="B13" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -6223,11 +6426,11 @@
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
       <c r="T13" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U13" s="32"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="33"/>
@@ -6248,13 +6451,13 @@
       <c r="S14" s="33"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -6273,17 +6476,17 @@
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U15" s="32"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D16" s="24">
         <v>4227500</v>
@@ -6334,17 +6537,17 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U16" s="32"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -6363,11 +6566,11 @@
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U17" s="32"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="33"/>
@@ -6388,13 +6591,13 @@
       <c r="S18" s="33"/>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -6413,17 +6616,17 @@
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="B20" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D20" s="24">
         <v>4759641.7668505535</v>
@@ -6474,17 +6677,17 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U20" s="32"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="B21" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -6503,11 +6706,11 @@
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
       <c r="T21" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U21" s="32"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="33"/>
@@ -6528,13 +6731,13 @@
       <c r="S22" s="33"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="B23" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -6553,17 +6756,17 @@
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U23" s="32"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D24" s="24">
         <v>522500</v>
@@ -6614,17 +6817,17 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U24" s="32"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -6643,16 +6846,16 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U25" s="32"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="D30" s="20">
         <v>2000</v>
       </c>
@@ -6702,16 +6905,16 @@
         <v>2015</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="B31" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -6732,17 +6935,17 @@
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U31" s="28"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="B32" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -6763,17 +6966,17 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U32" s="28"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -6794,21 +6997,21 @@
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
       <c r="T33" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U33" s="28"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21">
       <c r="B35" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -6833,17 +7036,17 @@
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
       <c r="T35" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U35" s="28"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21">
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -6868,17 +7071,17 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U36" s="28"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21">
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -6903,21 +7106,21 @@
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
       <c r="T37" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U37" s="28"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -6942,17 +7145,17 @@
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
       <c r="T39" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U39" s="28"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -6977,17 +7180,17 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U40" s="28"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -7012,21 +7215,21 @@
       <c r="R41" s="24"/>
       <c r="S41" s="24"/>
       <c r="T41" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U41" s="28"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21">
       <c r="B43" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -7045,17 +7248,17 @@
       <c r="R43" s="24"/>
       <c r="S43" s="24"/>
       <c r="T43" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U43" s="28"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21">
       <c r="B44" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -7074,19 +7277,19 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U44" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21">
       <c r="B45" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -7105,21 +7308,21 @@
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
       <c r="T45" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U45" s="28"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21">
       <c r="B47" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -7138,17 +7341,17 @@
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
       <c r="T47" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U47" s="28"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21">
       <c r="B48" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -7175,17 +7378,17 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U48" s="28"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21">
       <c r="B49" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -7204,21 +7407,21 @@
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U49" s="28"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21">
       <c r="B51" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -7237,17 +7440,17 @@
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U51" s="28"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21">
       <c r="B52" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -7266,19 +7469,19 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U52" s="28">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21">
       <c r="B53" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -7297,48 +7500,53 @@
       <c r="R53" s="24"/>
       <c r="S53" s="24"/>
       <c r="T53" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U53" s="28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="19" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="19" customFormat="1">
       <c r="B2" s="7"/>
       <c r="C2" s="20">
         <v>2000</v>
@@ -7389,26 +7597,26 @@
         <v>2015</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="19" customFormat="1">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -7430,7 +7638,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="27">
         <v>0.01</v>
@@ -7441,7 +7649,7 @@
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="19" customFormat="1">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -7463,7 +7671,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T4" s="27">
         <v>0.01</v>
@@ -7474,7 +7682,7 @@
       <c r="AB4" s="27"/>
       <c r="AC4" s="27"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="19" customFormat="1">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -7496,7 +7704,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T5" s="27">
         <v>0.03</v>
@@ -7507,7 +7715,7 @@
       <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="19" customFormat="1">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -7529,7 +7737,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T6" s="27">
         <v>0.01</v>
@@ -7540,7 +7748,7 @@
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="19" customFormat="1">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -7562,7 +7770,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T7" s="27">
         <v>0.01</v>
@@ -7573,7 +7781,7 @@
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="19" customFormat="1">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -7595,7 +7803,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T8" s="27">
         <v>0.01</v>
@@ -7606,21 +7814,21 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="19" customFormat="1">
       <c r="B9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="19" customFormat="1">
       <c r="B10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="19" customFormat="1">
       <c r="B11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -7643,13 +7851,13 @@
       <c r="V12" s="19"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="8"/>
       <c r="C13" s="9">
         <v>2000</v>
@@ -7701,27 +7909,27 @@
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="9" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -7744,21 +7952,29 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T14" s="27">
         <v>0</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X14" s="19"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y14" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="8"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -7781,21 +7997,29 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T15" s="27">
         <v>0</v>
       </c>
       <c r="W15" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X15" s="19"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="8"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -7818,21 +8042,29 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T16" s="27">
         <v>0</v>
       </c>
       <c r="W16" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X16" s="19"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y16" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="8"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -7855,21 +8087,29 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T17" s="27">
         <v>0</v>
       </c>
       <c r="W17" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X17" s="19"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y17" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="8"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -7892,21 +8132,29 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T18" s="27">
         <v>0</v>
       </c>
       <c r="W18" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X18" s="19"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y18" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="AB18" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="AC18" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="8"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -7929,47 +8177,55 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T19" s="27">
         <v>0</v>
       </c>
       <c r="W19" s="46" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="X19" s="19"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-    </row>
-    <row r="20" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB19" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC19" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="19" customFormat="1">
       <c r="B20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="19" customFormat="1">
       <c r="B21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="19" customFormat="1">
       <c r="B22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="19" customFormat="1">
       <c r="A23" s="20" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="19" customFormat="1">
       <c r="B24" s="7"/>
       <c r="C24" s="20">
         <v>2000</v>
@@ -8020,26 +8276,26 @@
         <v>2015</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="19" customFormat="1">
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -8061,20 +8317,28 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T25" s="27">
         <v>0</v>
       </c>
       <c r="W25" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-    </row>
-    <row r="26" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y25" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="Z25" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB25" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC25" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="19" customFormat="1">
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8096,20 +8360,28 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T26" s="27">
         <v>0</v>
       </c>
       <c r="W26" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-    </row>
-    <row r="27" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB26" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC26" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="19" customFormat="1">
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -8131,20 +8403,28 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T27" s="27">
         <v>0</v>
       </c>
       <c r="W27" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-    </row>
-    <row r="28" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y27" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB27" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC27" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="19" customFormat="1">
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -8166,20 +8446,28 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T28" s="27">
         <v>0</v>
       </c>
       <c r="W28" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-    </row>
-    <row r="29" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y28" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Z28" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="AB28" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="AC28" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="19" customFormat="1">
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -8201,20 +8489,28 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T29" s="27">
         <v>0</v>
       </c>
       <c r="W29" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-    </row>
-    <row r="30" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y29" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Z29" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="AB29" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="AC29" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="19" customFormat="1">
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -8236,35 +8532,43 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T30" s="27">
         <v>0</v>
       </c>
       <c r="W30" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="Y30" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="AB30" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="19" customFormat="1">
       <c r="B32" s="7"/>
       <c r="S32" s="6"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="19" customFormat="1">
       <c r="B33" s="7"/>
       <c r="S33" s="6"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29">
       <c r="A34" s="9" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -8286,16 +8590,16 @@
       <c r="T34" s="8"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC34" s="19"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29">
       <c r="A35" s="8"/>
       <c r="C35" s="9">
         <v>2000</v>
@@ -8347,27 +8651,27 @@
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="9" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X35" s="19"/>
       <c r="Y35" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="8"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -8390,7 +8694,7 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T36" s="27">
         <v>0</v>
@@ -8403,7 +8707,7 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29">
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8425,7 +8729,7 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T37" s="27">
         <v>0</v>
@@ -8438,7 +8742,7 @@
       <c r="AB37" s="27"/>
       <c r="AC37" s="27"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29">
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -8460,7 +8764,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T38" s="27">
         <v>0</v>
@@ -8473,7 +8777,7 @@
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -8495,7 +8799,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T39" s="27">
         <v>0</v>
@@ -8508,7 +8812,7 @@
       <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -8530,7 +8834,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T40" s="27">
         <v>0</v>
@@ -8543,7 +8847,7 @@
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -8565,7 +8869,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T41" s="27">
         <v>0</v>
@@ -8578,35 +8882,39 @@
       <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="S42" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr published="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -8627,7 +8935,7 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>2000</v>
@@ -8679,13 +8987,13 @@
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -8704,19 +9012,19 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="19" customFormat="1">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="19" customFormat="1">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -8737,7 +9045,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="10"/>
       <c r="C8" s="11">
         <v>2000</v>
@@ -8789,13 +9097,13 @@
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -8838,19 +9146,19 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T9" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="19" customFormat="1">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="19" customFormat="1">
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="11" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -8871,7 +9179,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="10"/>
       <c r="C14" s="11">
         <v>2000</v>
@@ -8923,13 +9231,13 @@
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -8948,23 +9256,23 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T15" s="24"/>
     </row>
-    <row r="17" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="19" customFormat="1">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="19" customFormat="1">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="19" customFormat="1">
       <c r="A19" s="20" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="19" customFormat="1">
       <c r="B20" s="7"/>
       <c r="C20" s="20">
         <v>2000</v>
@@ -9015,12 +9323,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="19" customFormat="1">
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -9039,22 +9347,22 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="19" customFormat="1">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="19" customFormat="1">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="19" customFormat="1">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="11" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -9075,7 +9383,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="10"/>
       <c r="C26" s="11">
         <v>2000</v>
@@ -9127,13 +9435,13 @@
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -9152,17 +9460,17 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T27" s="24"/>
     </row>
-    <row r="31" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="19" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="19" customFormat="1">
       <c r="B32" s="7"/>
       <c r="C32" s="20">
         <v>2000</v>
@@ -9213,12 +9521,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="19" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -9237,35 +9545,40 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T33" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="23" max="23" width="12.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="11" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9286,16 +9599,16 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="Y1" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="19"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="19"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>2000</v>
@@ -9347,26 +9660,26 @@
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -9389,11 +9702,13 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0.03</v>
+      </c>
       <c r="W3" s="46" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="27">
         <v>0</v>
@@ -9408,7 +9723,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -9435,11 +9750,11 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T4" s="27"/>
       <c r="W4" s="46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="27">
         <v>0.5</v>
@@ -9454,7 +9769,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -9483,11 +9798,11 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T5" s="24"/>
       <c r="W5" s="46" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="27">
         <v>0.15</v>
@@ -9502,7 +9817,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="10"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -9525,13 +9840,13 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T6" s="27">
         <v>0.01</v>
       </c>
       <c r="W6" s="46" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Y6" s="27">
         <v>0</v>
@@ -9546,7 +9861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -9569,13 +9884,13 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T7" s="27">
         <v>0.01</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="27">
         <v>0.05</v>
@@ -9590,7 +9905,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -9613,13 +9928,13 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T8" s="27">
         <v>0.05</v>
       </c>
       <c r="W8" s="52" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="27">
         <v>0.1</v>
@@ -9634,17 +9949,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="19" customFormat="1">
       <c r="B10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="19" customFormat="1">
       <c r="B11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="11" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9665,16 +9980,16 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="Y12" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="10"/>
       <c r="C13" s="11">
         <v>2000</v>
@@ -9726,29 +10041,29 @@
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="11" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -9767,13 +10082,13 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T14" s="27">
         <v>0.5</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="27">
         <v>0.4</v>
@@ -9788,17 +10103,17 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="19" customFormat="1">
       <c r="B16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="19" customFormat="1">
       <c r="B17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="11" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9819,16 +10134,16 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="Y18" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC18" s="19"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="10"/>
       <c r="C19" s="11">
         <v>2000</v>
@@ -9880,29 +10195,29 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="11" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C20" s="24">
         <v>0</v>
@@ -9949,36 +10264,36 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T20" s="24"/>
       <c r="W20" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y20" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z20" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB20" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC20" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AB20" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="AC20" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="19" customFormat="1">
       <c r="B21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="19" customFormat="1">
       <c r="B22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" s="11" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -9999,16 +10314,16 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="Y24" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC24" s="19"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" s="10"/>
       <c r="C25" s="11">
         <v>2000</v>
@@ -10060,29 +10375,29 @@
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="11" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -10129,37 +10444,37 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T26" s="24"/>
       <c r="W26" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y26" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z26" s="45" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="Y26" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="45">
+        <v>0.05</v>
       </c>
       <c r="AA26" s="19"/>
-      <c r="AB26" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC26" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="45">
+        <v>0.95</v>
+      </c>
+      <c r="AC26" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="19" customFormat="1">
       <c r="B28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="19" customFormat="1">
       <c r="B29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" s="11" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10180,16 +10495,16 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="Y30" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC30" s="19"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="A31" s="10"/>
       <c r="C31" s="11">
         <v>2000</v>
@@ -10241,29 +10556,29 @@
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="11" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -10292,11 +10607,11 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T32" s="24"/>
       <c r="W32" s="46" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="27">
         <v>0</v>
@@ -10312,32 +10627,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="19" customFormat="1">
       <c r="B33" s="7"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="19" customFormat="1">
       <c r="B34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="19" customFormat="1">
       <c r="B35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="19" customFormat="1">
       <c r="A36" s="20" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7"/>
       <c r="W36" s="7"/>
       <c r="Y36" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB36" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="19" customFormat="1">
       <c r="B37" s="7"/>
       <c r="C37" s="20">
         <v>2000</v>
@@ -10388,26 +10703,26 @@
         <v>2015</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="19" customFormat="1">
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -10429,20 +10744,18 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T38" s="26">
         <v>0</v>
       </c>
-      <c r="W38" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W38" s="46"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
     </row>
-    <row r="39" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="19" customFormat="1">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10464,20 +10777,18 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T39" s="26">
         <v>0</v>
       </c>
-      <c r="W39" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W39" s="46"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
       <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
     </row>
-    <row r="40" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="19" customFormat="1">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -10499,20 +10810,18 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T40" s="26">
         <v>0</v>
       </c>
-      <c r="W40" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W40" s="46"/>
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
     </row>
-    <row r="41" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="19" customFormat="1">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -10534,20 +10843,18 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T41" s="26">
         <v>0</v>
       </c>
-      <c r="W41" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W41" s="46"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
       <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
     </row>
-    <row r="42" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="19" customFormat="1">
       <c r="B42" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -10569,21 +10876,19 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="24"/>
       <c r="S42" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T42" s="26">
         <f>2/50</f>
         <v>0.04</v>
       </c>
-      <c r="W42" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W42" s="46"/>
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
       <c r="AB42" s="27"/>
       <c r="AC42" s="27"/>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="19" customFormat="1">
       <c r="B43" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -10605,33 +10910,31 @@
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
       <c r="S43" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T43" s="26">
         <v>0</v>
       </c>
-      <c r="W43" s="46" t="s">
-        <v>121</v>
-      </c>
+      <c r="W43" s="46"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
       <c r="AB43" s="27"/>
       <c r="AC43" s="27"/>
     </row>
-    <row r="47" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="19" customFormat="1">
       <c r="A47" s="20" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7"/>
       <c r="W47" s="7"/>
       <c r="Y47" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="19" customFormat="1">
       <c r="B48" s="7"/>
       <c r="C48" s="20">
         <v>2000</v>
@@ -10682,28 +10985,28 @@
         <v>2015</v>
       </c>
       <c r="T48" s="20" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y48" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC48" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" s="19" customFormat="1">
       <c r="B49" s="5" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -10722,13 +11025,13 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T49" s="27">
         <v>0.3</v>
       </c>
       <c r="W49" s="46" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="Y49" s="27">
         <v>0.05</v>
@@ -10744,31 +11047,37 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U64" sqref="U64"/>
+    <sheetView topLeftCell="J49" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="7"/>
-    <col min="20" max="20" width="14.42578125" style="36" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="20" max="20" width="14.375" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.375" customWidth="1"/>
+    <col min="31" max="31" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -10788,16 +11097,16 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="Y1" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="19"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="19"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="12"/>
       <c r="C2" s="13">
         <v>2000</v>
@@ -10849,29 +11158,29 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="37" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="37" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X2" s="36"/>
       <c r="Y2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="12"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -10894,7 +11203,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="38">
         <v>80</v>
@@ -10909,7 +11218,7 @@
       <c r="AB3" s="39"/>
       <c r="AC3" s="39"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="12"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -10932,7 +11241,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T4" s="38">
         <v>80</v>
@@ -10947,7 +11256,7 @@
       <c r="AB4" s="39"/>
       <c r="AC4" s="39"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="12"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -10970,7 +11279,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T5" s="38">
         <v>80</v>
@@ -10985,7 +11294,7 @@
       <c r="AB5" s="39"/>
       <c r="AC5" s="39"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11008,7 +11317,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T6" s="38">
         <v>80</v>
@@ -11023,7 +11332,7 @@
       <c r="AB6" s="39"/>
       <c r="AC6" s="39"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="12"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11046,7 +11355,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T7" s="38">
         <v>80</v>
@@ -11061,7 +11370,7 @@
       <c r="AB7" s="39"/>
       <c r="AC7" s="39"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="12"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11084,7 +11393,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T8" s="38">
         <v>80</v>
@@ -11099,17 +11408,17 @@
       <c r="AB8" s="39"/>
       <c r="AC8" s="39"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="19" customFormat="1">
       <c r="B10" s="7"/>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="19" customFormat="1">
       <c r="B11" s="7"/>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="13" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -11129,16 +11438,16 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="Y12" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="12"/>
       <c r="C13" s="13">
         <v>2000</v>
@@ -11190,29 +11499,29 @@
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="12"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11235,7 +11544,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T14" s="34">
         <v>10</v>
@@ -11250,7 +11559,7 @@
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11273,7 +11582,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T15" s="34">
         <v>10</v>
@@ -11288,7 +11597,7 @@
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11311,7 +11620,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T16" s="34">
         <v>10</v>
@@ -11326,7 +11635,7 @@
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" s="12"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11349,7 +11658,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T17" s="34">
         <v>10</v>
@@ -11364,7 +11673,7 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11387,7 +11696,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T18" s="34">
         <v>10</v>
@@ -11402,7 +11711,7 @@
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11425,7 +11734,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T19" s="34">
         <v>10</v>
@@ -11440,17 +11749,17 @@
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="19" customFormat="1">
       <c r="B21" s="7"/>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="19" customFormat="1">
       <c r="B22" s="7"/>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" s="13" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11470,16 +11779,16 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="Y23" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="19"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" s="12"/>
       <c r="C24" s="13">
         <v>2000</v>
@@ -11531,29 +11840,29 @@
       </c>
       <c r="S24" s="12"/>
       <c r="T24" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="12"/>
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11576,7 +11885,7 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T25" s="34">
         <v>0</v>
@@ -11591,7 +11900,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" s="12"/>
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11614,7 +11923,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T26" s="34">
         <v>500</v>
@@ -11629,7 +11938,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29">
       <c r="A27" s="12"/>
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11652,7 +11961,7 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T27" s="34">
         <v>0</v>
@@ -11667,7 +11976,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29">
       <c r="A28" s="12"/>
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11690,7 +11999,7 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T28" s="34">
         <v>0</v>
@@ -11705,7 +12014,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="A29" s="12"/>
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11728,7 +12037,7 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T29" s="34">
         <v>0</v>
@@ -11743,7 +12052,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" s="12"/>
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11766,7 +12075,7 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T30" s="34">
         <v>10</v>
@@ -11781,17 +12090,17 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="19" customFormat="1">
       <c r="B32" s="7"/>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="19" customFormat="1">
       <c r="B33" s="7"/>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29">
       <c r="A34" s="13" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -11811,16 +12120,16 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="Y34" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC34" s="19"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29">
       <c r="A35" s="12"/>
       <c r="C35" s="13">
         <v>2000</v>
@@ -11872,29 +12181,29 @@
       </c>
       <c r="S35" s="12"/>
       <c r="T35" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="12"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11917,7 +12226,7 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T36" s="35">
         <v>0.4</v>
@@ -11925,7 +12234,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="46" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="35">
@@ -11942,7 +12251,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29">
       <c r="A37" s="12"/>
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11975,13 +12284,13 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T37" s="35"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="35">
@@ -11998,7 +12307,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29">
       <c r="A38" s="12"/>
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12021,7 +12330,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T38" s="35">
         <v>0.05</v>
@@ -12029,7 +12338,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="35">
@@ -12046,7 +12355,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="12"/>
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12069,7 +12378,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T39" s="35">
         <v>0.05</v>
@@ -12077,7 +12386,7 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="35">
@@ -12094,7 +12403,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" s="12"/>
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12117,7 +12426,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T40" s="35">
         <v>0.05</v>
@@ -12125,7 +12434,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="35">
@@ -12142,7 +12451,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" s="12"/>
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12165,7 +12474,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T41" s="35">
         <v>7.0000000000000007E-2</v>
@@ -12173,7 +12482,7 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="35">
@@ -12190,17 +12499,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="19" customFormat="1">
       <c r="B43" s="7"/>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="19" customFormat="1">
       <c r="B44" s="7"/>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="A45" s="20" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -12220,16 +12529,16 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="Y45" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
       <c r="AB45" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC45" s="19"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29">
       <c r="A46" s="12"/>
       <c r="C46" s="13">
         <v>2000</v>
@@ -12281,29 +12590,29 @@
       </c>
       <c r="S46" s="12"/>
       <c r="T46" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC46" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="12"/>
       <c r="B47" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12326,7 +12635,7 @@
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
       <c r="S47" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T47" s="35">
         <v>0.6</v>
@@ -12334,7 +12643,7 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="46" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="35">
@@ -12351,7 +12660,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29">
       <c r="A48" s="12"/>
       <c r="B48" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12384,13 +12693,13 @@
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T48" s="35"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="35">
@@ -12407,7 +12716,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="12"/>
       <c r="B49" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12430,7 +12739,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T49" s="35">
         <v>0.5</v>
@@ -12438,7 +12747,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="35">
@@ -12455,7 +12764,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="12"/>
       <c r="B50" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12484,13 +12793,13 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T50" s="35"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="35">
@@ -12507,7 +12816,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="12"/>
       <c r="B51" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12536,13 +12845,13 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T51" s="35"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="46" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="X51" s="7"/>
       <c r="Y51" s="35">
@@ -12559,7 +12868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="12"/>
       <c r="B52" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12582,7 +12891,7 @@
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
       <c r="S52" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T52" s="35">
         <v>0.5</v>
@@ -12590,7 +12899,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="35">
@@ -12607,17 +12916,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="19" customFormat="1">
       <c r="B54" s="7"/>
       <c r="T54" s="36"/>
     </row>
-    <row r="55" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="19" customFormat="1">
       <c r="B55" s="7"/>
       <c r="T55" s="36"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="20" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -12637,16 +12946,16 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="Y56" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z56" s="19"/>
       <c r="AA56" s="19"/>
       <c r="AB56" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC56" s="19"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="12"/>
       <c r="C57" s="13">
         <v>2000</v>
@@ -12698,29 +13007,29 @@
       </c>
       <c r="S57" s="12"/>
       <c r="T57" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="12"/>
       <c r="B58" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12743,7 +13052,7 @@
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T58" s="34">
         <v>0</v>
@@ -12758,7 +13067,7 @@
       <c r="AB58" s="35"/>
       <c r="AC58" s="35"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="12"/>
       <c r="B59" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12791,13 +13100,13 @@
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
       <c r="S59" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="48" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="35">
@@ -12813,8 +13122,16 @@
       <c r="AC59" s="35">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="57">
+        <f>AVERAGE(AB59:AC59)</f>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="AE59" s="57">
+        <f>AD59-75%</f>
+        <v>0.19500000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="12"/>
       <c r="B60" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12837,7 +13154,7 @@
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T60" s="35">
         <v>0</v>
@@ -12851,8 +13168,9 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="35"/>
       <c r="AC60" s="35"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE60" s="58"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="12"/>
       <c r="B61" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12875,7 +13193,7 @@
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T61" s="35">
         <v>0</v>
@@ -12889,8 +13207,12 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="35"/>
       <c r="AC61" s="35"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE61">
+        <f>19.5%*65+75</f>
+        <v>87.674999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="12"/>
       <c r="B62" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12913,7 +13235,7 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T62" s="34">
         <v>0</v>
@@ -12928,7 +13250,7 @@
       <c r="AB62" s="35"/>
       <c r="AC62" s="35"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="12"/>
       <c r="B63" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12961,13 +13283,13 @@
       <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
       <c r="S63" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T63" s="47"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="48" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="35">
@@ -12984,17 +13306,17 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="19" customFormat="1">
       <c r="B65" s="7"/>
       <c r="T65" s="36"/>
     </row>
-    <row r="66" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="19" customFormat="1">
       <c r="B66" s="7"/>
       <c r="T66" s="36"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29">
       <c r="A67" s="13" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -13014,16 +13336,16 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="Y67" s="20" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="Z67" s="19"/>
       <c r="AA67" s="19"/>
       <c r="AB67" s="20" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AC67" s="19"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29">
       <c r="A68" s="12"/>
       <c r="C68" s="13">
         <v>2000</v>
@@ -13075,29 +13397,29 @@
       </c>
       <c r="S68" s="12"/>
       <c r="T68" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X68" s="7"/>
       <c r="Y68" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA68" s="7"/>
       <c r="AB68" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC68" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="12"/>
       <c r="B69" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13120,7 +13442,7 @@
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
       <c r="S69" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T69" s="35">
         <v>0.03</v>
@@ -13135,7 +13457,7 @@
       <c r="AB69" s="35"/>
       <c r="AC69" s="35"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29">
       <c r="A70" s="12"/>
       <c r="B70" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13158,7 +13480,7 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T70" s="34">
         <v>0</v>
@@ -13173,7 +13495,7 @@
       <c r="AB70" s="35"/>
       <c r="AC70" s="35"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29">
       <c r="A71" s="12"/>
       <c r="B71" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13196,7 +13518,7 @@
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
       <c r="S71" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T71" s="35">
         <v>2.5999999999999999E-2</v>
@@ -13211,7 +13533,7 @@
       <c r="AB71" s="35"/>
       <c r="AC71" s="35"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" s="12"/>
       <c r="B72" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13234,7 +13556,7 @@
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
       <c r="S72" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T72" s="35">
         <v>0.03</v>
@@ -13249,7 +13571,7 @@
       <c r="AB72" s="35"/>
       <c r="AC72" s="35"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29">
       <c r="A73" s="12"/>
       <c r="B73" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13272,7 +13594,7 @@
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T73" s="35">
         <v>0</v>
@@ -13287,7 +13609,7 @@
       <c r="AB73" s="35"/>
       <c r="AC73" s="35"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29">
       <c r="A74" s="12"/>
       <c r="B74" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13310,7 +13632,7 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T74" s="35">
         <v>0.03</v>
@@ -13329,31 +13651,36 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="36" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="36"/>
-    <col min="22" max="22" width="9.140625" style="36" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="7" customWidth="1"/>
-    <col min="24" max="29" width="8.85546875" style="36"/>
+    <col min="2" max="2" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" style="36" customWidth="1"/>
+    <col min="21" max="21" width="8.625" style="36"/>
+    <col min="22" max="22" width="9.125" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.75" style="7" customWidth="1"/>
+    <col min="24" max="29" width="8.625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -13373,13 +13700,13 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="Y1" s="37" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="14"/>
       <c r="C2" s="15">
         <v>2000</v>
@@ -13431,29 +13758,29 @@
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13476,7 +13803,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T3" s="34">
         <v>0</v>
@@ -13491,7 +13818,7 @@
       <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13514,7 +13841,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T4" s="34">
         <v>0</v>
@@ -13529,7 +13856,7 @@
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13552,7 +13879,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T5" s="34">
         <v>400</v>
@@ -13567,7 +13894,7 @@
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13590,7 +13917,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T6" s="34">
         <v>0</v>
@@ -13605,7 +13932,7 @@
       <c r="AB6" s="35"/>
       <c r="AC6" s="35"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="14"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13628,7 +13955,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T7" s="34">
         <v>0</v>
@@ -13643,7 +13970,7 @@
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13666,7 +13993,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T8" s="34">
         <v>0</v>
@@ -13681,7 +14008,7 @@
       <c r="AB8" s="35"/>
       <c r="AC8" s="35"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="19" customFormat="1">
       <c r="B10" s="7"/>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
@@ -13694,7 +14021,7 @@
       <c r="AB10" s="36"/>
       <c r="AC10" s="36"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="19" customFormat="1">
       <c r="B11" s="7"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
@@ -13707,9 +14034,9 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="15" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -13730,13 +14057,13 @@
       <c r="S12" s="14"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="37" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="14"/>
       <c r="C13" s="15">
         <v>2000</v>
@@ -13788,29 +14115,29 @@
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="37" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
+      <c r="B14" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="27">
@@ -13837,13 +14164,13 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="46" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="35">
@@ -13860,7 +14187,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="19" customFormat="1">
       <c r="B16" s="7"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
@@ -13873,7 +14200,7 @@
       <c r="AB16" s="36"/>
       <c r="AC16" s="36"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="19" customFormat="1">
       <c r="B17" s="7"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -13886,9 +14213,9 @@
       <c r="AB17" s="36"/>
       <c r="AC17" s="36"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="15" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -13908,13 +14235,13 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="Y18" s="37" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="14"/>
       <c r="C19" s="15">
         <v>2000</v>
@@ -13966,32 +14293,32 @@
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="5" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="14"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
+      <c r="B20" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29">
@@ -14016,13 +14343,13 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="46" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="35">
@@ -14040,28 +14367,34 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="6.5703125" customWidth="1"/>
+    <col min="1" max="15" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -14088,7 +14421,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="17"/>
       <c r="B2" s="43"/>
       <c r="C2" s="5" t="str">
@@ -14134,7 +14467,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="16"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14167,7 +14500,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14198,7 +14531,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="16"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14233,7 +14566,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="16"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14267,7 +14600,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="16"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14298,7 +14631,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="16"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14333,7 +14666,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -14361,11 +14694,11 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="19" customFormat="1"/>
+    <row r="11" spans="1:26" s="19" customFormat="1"/>
+    <row r="12" spans="1:26">
       <c r="A12" s="18" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14393,7 +14726,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="17"/>
       <c r="B13" s="43"/>
       <c r="C13" s="5" t="str">
@@ -14439,7 +14772,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="16"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14472,7 +14805,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14503,7 +14836,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14538,7 +14871,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="16"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14573,7 +14906,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="16"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14604,7 +14937,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="16"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14621,7 +14954,7 @@
       </c>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -14631,7 +14964,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="19" customFormat="1">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -14659,10 +14992,10 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="19" customFormat="1"/>
+    <row r="23" spans="1:26">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -14672,7 +15005,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="17"/>
       <c r="B24" s="43"/>
       <c r="C24" s="5" t="str">
@@ -14700,7 +15033,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="16"/>
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14713,7 +15046,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="16"/>
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14726,7 +15059,7 @@
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="16"/>
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14739,7 +15072,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="16"/>
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14752,7 +15085,7 @@
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="16"/>
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14765,7 +15098,7 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="16"/>
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14780,7 +15113,7 @@
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -14790,7 +15123,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="19" customFormat="1">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -14818,10 +15151,10 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="19" customFormat="1"/>
+    <row r="34" spans="1:8">
       <c r="A34" s="18" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -14831,7 +15164,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="17"/>
       <c r="B35" s="43"/>
       <c r="C35" s="5" t="str">
@@ -14859,7 +15192,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="16"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14872,7 +15205,7 @@
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="16"/>
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14885,7 +15218,7 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="16"/>
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14900,7 +15233,7 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="16"/>
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14913,7 +15246,7 @@
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="16"/>
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14926,7 +15259,7 @@
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="16"/>
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14940,7 +15273,12 @@
       <c r="H41" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -33,178 +33,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
   <si>
-    <t>Men who have sex with men</t>
+    <t>Disutility weights</t>
   </si>
   <si>
-    <t>Female sex workers</t>
+    <t>Interactions between casual partners</t>
   </si>
   <si>
-    <t>People who inject drugs</t>
+    <t>Interactions between commercial partners</t>
   </si>
   <si>
-    <t>General males</t>
+    <t>Interactions between regular partners</t>
   </si>
   <si>
-    <t>General females</t>
+    <t>Interactions between people who inject drugs</t>
   </si>
   <si>
-    <t>Clients</t>
+    <t>Interaction-related transmissibility (% per act)</t>
   </si>
   <si>
-    <t>Needle-syringe program</t>
+    <t>Treatment recovery rate (% per year)</t>
   </si>
   <si>
-    <t>Opiate substition therapy</t>
+    <t>Treatment failure rate (% per year)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy</t>
+    <t>Death rate (% mortality per year)</t>
   </si>
   <si>
-    <t>HIV counseling and testing</t>
+    <t>Relative transmissibility</t>
   </si>
   <si>
-    <t>Behavior change &amp; communiction</t>
-  </si>
-  <si>
-    <t>Sexually transmitted infections</t>
-  </si>
-  <si>
-    <t>CSW</t>
-  </si>
-  <si>
-    <t>PMTCT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prevalence of any discharging STIs</t>
-  </si>
-  <si>
-    <t>Age-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>Percentage of people who receptively shared a needle at last injection</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>AND EITHER</t>
-  </si>
-  <si>
-    <t>Number of people on first-line treatment</t>
-  </si>
-  <si>
-    <t>Number of people on second-line treatment</t>
-  </si>
-  <si>
-    <t>Total program costs</t>
-  </si>
-  <si>
-    <t>Unit costs</t>
-  </si>
-  <si>
-    <t>Number of AIDS-related deaths</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for HIV in the last 12 months</t>
-  </si>
-  <si>
-    <t>Birth rate (births per woman per year)</t>
-  </si>
-  <si>
-    <t>Percentage of HIV-positive women who breastfed</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>ARV treatment</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of new HIV infections per year</t>
-  </si>
-  <si>
-    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
-  </si>
-  <si>
-    <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Percentage of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Risk-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
+    <t>Modeled estimate of HIV prevalence</t>
   </si>
   <si>
     <t>CD4(200-350) to CD4(350-500)</t>
@@ -432,51 +291,190 @@
     <t>Untreated HIV, acute</t>
   </si>
   <si>
-    <t>Disutility weights</t>
+    <t>Men who have sex with men</t>
   </si>
   <si>
-    <t>Interactions between casual partners</t>
+    <t>Female sex workers</t>
   </si>
   <si>
-    <t>Interactions between commercial partners</t>
+    <t>People who inject drugs</t>
   </si>
   <si>
-    <t>Interactions between regular partners</t>
+    <t>General males</t>
   </si>
   <si>
-    <t>Interactions between people who inject drugs</t>
+    <t>General females</t>
   </si>
   <si>
-    <t>Interaction-related transmissibility (% per act)</t>
+    <t>Clients</t>
   </si>
   <si>
-    <t>Treatment recovery rate (% per year)</t>
+    <t>Needle-syringe program</t>
   </si>
   <si>
-    <t>Treatment failure rate (% per year)</t>
+    <t>Opiate substition therapy</t>
   </si>
   <si>
-    <t>Death rate (% mortality per year)</t>
+    <t>Antiretroviral therapy</t>
   </si>
   <si>
-    <t>Relative transmissibility</t>
+    <t>HIV counseling and testing</t>
   </si>
   <si>
-    <t>Modeled estimate of HIV prevalence</t>
+    <t>Behavior change &amp; communiction</t>
+  </si>
+  <si>
+    <t>Sexually transmitted infections</t>
+  </si>
+  <si>
+    <t>CSW</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevention of mother-to-child transmission</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t>Age-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Percentage of people who receptively shared a needle at last injection</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>AND EITHER</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of people on second-line treatment</t>
+  </si>
+  <si>
+    <t>Total program costs</t>
+  </si>
+  <si>
+    <t>Unit costs</t>
+  </si>
+  <si>
+    <t>Number of AIDS-related deaths</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Birth rate (births per woman per year)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfed</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>ARV treatment</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Percentage of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Risk-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.00%"/>
-    <numFmt numFmtId="172" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -640,7 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1288,7 +1286,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1325,104 +1323,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="13"/>
@@ -2413,15 +2411,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" s="23" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -2431,10 +2429,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -2444,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -2457,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -2470,10 +2468,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -2483,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -2496,10 +2494,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -2515,17 +2513,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="23" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2533,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2544,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2555,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2566,10 +2564,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2577,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -2588,10 +2586,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -2599,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -2610,10 +2608,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -2621,16 +2619,15 @@
         <v>9</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2655,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="3"/>
@@ -2808,7 +2805,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="18" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="3"/>
@@ -2947,23 +2944,23 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="20" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C3" s="28">
         <v>4.0000000000000002E-4</v>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="20" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C4" s="28">
         <v>1E-3</v>
@@ -2983,7 +2980,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="20" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C5" s="28">
         <v>5.9999999999999995E-4</v>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="20" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C6" s="28">
         <v>5.0000000000000001E-3</v>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C7" s="28">
         <v>3.0000000000000001E-3</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="20" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C8" s="27">
         <v>0.05</v>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="20" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C9" s="27">
         <v>0.03</v>
@@ -3043,23 +3040,23 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1">
       <c r="C14" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="20" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C15" s="24">
         <v>10</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="20" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C16" s="24">
         <v>1</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="20" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C17" s="24">
         <v>1</v>
@@ -3089,7 +3086,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="20" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="20" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C19" s="24">
         <v>3.8</v>
@@ -3119,24 +3116,24 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C25" s="27">
         <v>1</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="20" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C26" s="27">
         <v>0.25</v>
@@ -3156,7 +3153,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C27" s="27">
         <v>0.25</v>
@@ -3166,7 +3163,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="20" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C28" s="27">
         <v>0.5</v>
@@ -3186,23 +3183,23 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="20" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C34" s="27">
         <v>0.45</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="20" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C35" s="27">
         <v>0.7</v>
@@ -3222,7 +3219,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="20" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C36" s="27">
         <v>0.36</v>
@@ -3245,23 +3242,23 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="C41" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" s="20" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C42" s="27">
         <v>0.2</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="20" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C43" s="27">
         <v>0.1</v>
@@ -3299,23 +3296,23 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="20" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="20" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C49" s="27">
         <v>0</v>
@@ -3325,7 +3322,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="20" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C50" s="28">
         <v>5.0000000000000001E-4</v>
@@ -3335,7 +3332,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="20" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C51" s="28">
         <v>1E-3</v>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="20" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C52" s="27">
         <v>0.01</v>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="20" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C53" s="27">
         <v>0.49</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C54" s="27">
         <v>0.04</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="20" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C55" s="24">
         <v>2</v>
@@ -3395,23 +3392,23 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="20" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="C60" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="20" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C61" s="27">
         <v>0.05</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="20" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C62" s="27">
         <v>0.3</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="20" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C63" s="27">
         <v>0.65</v>
@@ -3441,7 +3438,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="20" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C64" s="27">
         <v>3.5</v>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="20" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C65" s="27">
         <v>0.05</v>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="20" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C66" s="27">
         <v>0.05</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="20" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C67" s="27">
         <v>0.3</v>
@@ -3506,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3517,18 +3514,18 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1">
       <c r="B3" s="20" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C3" s="26">
         <v>0.05</v>
@@ -3539,7 +3536,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C4" s="26">
         <v>0.05</v>
@@ -3550,7 +3547,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26">
         <v>0.1</v>
@@ -3561,7 +3558,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C6" s="26">
         <v>0.15</v>
@@ -3572,7 +3569,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C7" s="26">
         <v>0.5</v>
@@ -3583,7 +3580,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C8" s="26">
         <v>5.2999999999999999E-2</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3622,19 +3619,19 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24">
         <v>0</v>
@@ -3645,7 +3642,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C15" s="24">
         <v>100</v>
@@ -3656,7 +3653,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C16" s="24">
         <v>100</v>
@@ -3667,7 +3664,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C17" s="24">
         <v>200</v>
@@ -3678,7 +3675,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C18" s="24">
         <v>450</v>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3699,19 +3696,19 @@
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C24" s="24">
         <v>0</v>
@@ -3722,7 +3719,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C25" s="24">
         <v>0</v>
@@ -3733,7 +3730,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -3744,7 +3741,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C27" s="24">
         <v>0</v>
@@ -3755,7 +3752,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C28" s="24">
         <v>0</v>
@@ -3793,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="20" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3865,13 +3862,13 @@
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C3" s="24">
         <v>71700000000</v>
@@ -3937,13 +3934,13 @@
         <v>392454664938.73016</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="34"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="20" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4015,13 +4012,13 @@
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C9" s="49">
         <v>30000000000</v>
@@ -4087,13 +4084,13 @@
         <v>105000000000</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T9" s="34"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="20" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4165,13 +4162,13 @@
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C15" s="24">
         <v>10000000000</v>
@@ -4237,13 +4234,13 @@
         <v>20789281794.113678</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T15" s="34"/>
     </row>
     <row r="19" spans="1:20" s="19" customFormat="1">
       <c r="A19" s="20" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B19" s="7"/>
       <c r="T19" s="7"/>
@@ -4299,12 +4296,12 @@
         <v>2030</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="19" customFormat="1">
       <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -4323,7 +4320,7 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T21" s="34"/>
     </row>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="25" spans="1:20" s="19" customFormat="1">
       <c r="A25" s="20" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B25" s="7"/>
       <c r="T25" s="7"/>
@@ -4398,12 +4395,12 @@
         <v>2030</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1">
       <c r="B27" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C27" s="24">
         <f>12%*C15</f>
@@ -4470,13 +4467,13 @@
         <v>2494713815.2936411</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T27" s="34"/>
     </row>
     <row r="31" spans="1:20" s="19" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B31" s="7"/>
       <c r="T31" s="7"/>
@@ -4532,12 +4529,12 @@
         <v>2030</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="19" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C33" s="24">
         <v>15000000</v>
@@ -4588,7 +4585,7 @@
         <v>18000000</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T33" s="34"/>
     </row>
@@ -4606,7 +4603,7 @@
     </row>
     <row r="37" spans="1:20" s="19" customFormat="1">
       <c r="A37" s="20" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B37" s="7"/>
       <c r="T37" s="7"/>
@@ -4662,12 +4659,12 @@
         <v>2030</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="19" customFormat="1">
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -4686,7 +4683,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T39" s="34"/>
     </row>
@@ -4704,7 +4701,7 @@
     </row>
     <row r="43" spans="1:20" s="19" customFormat="1">
       <c r="A43" s="20" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B43" s="7"/>
       <c r="T43" s="7"/>
@@ -4760,12 +4757,12 @@
         <v>2030</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="19" customFormat="1">
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -4784,13 +4781,13 @@
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
       <c r="S45" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T45" s="34"/>
     </row>
     <row r="49" spans="1:20" s="19" customFormat="1">
       <c r="A49" s="20" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B49" s="7"/>
       <c r="T49" s="7"/>
@@ -4846,12 +4843,12 @@
         <v>2030</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="19" customFormat="1">
       <c r="B51" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4870,7 +4867,7 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T51" s="34"/>
     </row>
@@ -4888,7 +4885,7 @@
     </row>
     <row r="55" spans="1:20" s="19" customFormat="1">
       <c r="A55" s="20" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B55" s="7"/>
       <c r="T55" s="7"/>
@@ -4944,12 +4941,12 @@
         <v>2030</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="19" customFormat="1">
       <c r="B57" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -4968,7 +4965,7 @@
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
       <c r="S57" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T57" s="34"/>
     </row>
@@ -4989,7 +4986,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -5001,7 +4998,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -5054,7 +5051,7 @@
         <v>2015</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -5093,7 +5090,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="27"/>
     </row>
@@ -5125,7 +5122,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T4" s="45"/>
     </row>
@@ -5151,7 +5148,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T5" s="27">
         <v>0.08</v>
@@ -5189,7 +5186,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T6" s="27"/>
     </row>
@@ -5215,7 +5212,7 @@
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
       <c r="S7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T7" s="45">
         <v>0.2</v>
@@ -5243,7 +5240,7 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T8" s="27">
         <v>0.2</v>
@@ -5275,7 +5272,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T9" s="27"/>
     </row>
@@ -5302,7 +5299,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T10" s="27">
         <v>0.2</v>
@@ -5311,7 +5308,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="7"/>
       <c r="B11" s="56" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -5330,7 +5327,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T11" s="27">
         <v>0.2</v>
@@ -5385,12 +5382,12 @@
     <row r="14" spans="1:21">
       <c r="B14" s="21"/>
       <c r="K14" s="21" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="20" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -5444,7 +5441,7 @@
         <v>2015</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -5473,7 +5470,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T18" s="30"/>
     </row>
@@ -5503,7 +5500,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T19" s="30"/>
     </row>
@@ -5533,7 +5530,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T20" s="30"/>
     </row>
@@ -5563,7 +5560,7 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T21" s="30"/>
     </row>
@@ -5593,7 +5590,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T22" s="30"/>
     </row>
@@ -5623,7 +5620,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T23" s="30"/>
     </row>
@@ -5653,7 +5650,7 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T24" s="30"/>
     </row>
@@ -5683,13 +5680,13 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T25" s="30"/>
     </row>
     <row r="26" spans="1:20">
       <c r="B26" s="56" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -5712,13 +5709,13 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T26" s="30"/>
     </row>
     <row r="27" spans="1:20">
       <c r="K27" s="21" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -5726,7 +5723,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -5780,7 +5777,7 @@
         <v>2015</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -5805,7 +5802,7 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T31" s="31"/>
     </row>
@@ -5831,7 +5828,7 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T32" s="31"/>
     </row>
@@ -5857,7 +5854,7 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T33" s="31"/>
     </row>
@@ -5883,7 +5880,7 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T34" s="31"/>
     </row>
@@ -5909,7 +5906,7 @@
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T35" s="31"/>
     </row>
@@ -5935,7 +5932,7 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T36" s="31"/>
     </row>
@@ -5961,7 +5958,7 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T37" s="31"/>
     </row>
@@ -5987,13 +5984,13 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T38" s="30"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="56" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -6012,14 +6009,13 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T39" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6049,7 +6045,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -6102,7 +6098,7 @@
         <v>2015</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6111,7 +6107,7 @@
         <v>MSM</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -6130,7 +6126,7 @@
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
       <c r="T3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U3" s="32">
         <v>37500</v>
@@ -6142,7 +6138,7 @@
         <v>MSM</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -6161,7 +6157,7 @@
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
       <c r="T4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U4" s="32">
         <v>21000</v>
@@ -6173,7 +6169,7 @@
         <v>MSM</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -6192,7 +6188,7 @@
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
       <c r="T5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U5" s="32">
         <v>11000</v>
@@ -6209,7 +6205,7 @@
         <v>FSW</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -6228,7 +6224,7 @@
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U7" s="32"/>
     </row>
@@ -6238,7 +6234,7 @@
         <v>FSW</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -6257,7 +6253,7 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U8" s="32">
         <v>15000</v>
@@ -6269,7 +6265,7 @@
         <v>FSW</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -6288,7 +6284,7 @@
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U9" s="32"/>
     </row>
@@ -6319,7 +6315,7 @@
         <v>PWID</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -6348,7 +6344,7 @@
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -6358,7 +6354,7 @@
         <v>PWID</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -6387,7 +6383,7 @@
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U12" s="32"/>
     </row>
@@ -6397,7 +6393,7 @@
         <v>PWID</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -6426,7 +6422,7 @@
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
       <c r="T13" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -6457,7 +6453,7 @@
         <v>GM</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -6476,7 +6472,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U15" s="32"/>
     </row>
@@ -6486,7 +6482,7 @@
         <v>GM</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D16" s="24">
         <v>4227500</v>
@@ -6537,7 +6533,7 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U16" s="32"/>
     </row>
@@ -6547,7 +6543,7 @@
         <v>GM</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -6566,7 +6562,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U17" s="32"/>
     </row>
@@ -6597,7 +6593,7 @@
         <v>GF</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -6616,7 +6612,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U19" s="32"/>
     </row>
@@ -6626,7 +6622,7 @@
         <v>GF</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D20" s="24">
         <v>4759641.7668505535</v>
@@ -6677,7 +6673,7 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U20" s="32"/>
     </row>
@@ -6687,7 +6683,7 @@
         <v>GF</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -6706,7 +6702,7 @@
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
       <c r="T21" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U21" s="32"/>
     </row>
@@ -6737,7 +6733,7 @@
         <v>CSW</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -6756,7 +6752,7 @@
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U23" s="32"/>
     </row>
@@ -6766,7 +6762,7 @@
         <v>CSW</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D24" s="24">
         <v>522500</v>
@@ -6817,7 +6813,7 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U24" s="32"/>
     </row>
@@ -6827,7 +6823,7 @@
         <v>CSW</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -6846,13 +6842,13 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U25" s="32"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="20" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -6905,7 +6901,7 @@
         <v>2015</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -6914,7 +6910,7 @@
         <v>MSM</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -6935,7 +6931,7 @@
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U31" s="28"/>
     </row>
@@ -6945,7 +6941,7 @@
         <v>MSM</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -6966,7 +6962,7 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U32" s="28"/>
     </row>
@@ -6976,7 +6972,7 @@
         <v>MSM</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -6997,7 +6993,7 @@
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
       <c r="T33" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U33" s="28"/>
     </row>
@@ -7011,7 +7007,7 @@
         <v>FSW</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7036,7 +7032,7 @@
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
       <c r="T35" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U35" s="28"/>
     </row>
@@ -7046,7 +7042,7 @@
         <v>FSW</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7071,7 +7067,7 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U36" s="28"/>
     </row>
@@ -7081,7 +7077,7 @@
         <v>FSW</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7106,7 +7102,7 @@
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
       <c r="T37" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U37" s="28"/>
     </row>
@@ -7120,7 +7116,7 @@
         <v>PWID</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7145,7 +7141,7 @@
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
       <c r="T39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U39" s="28"/>
     </row>
@@ -7155,7 +7151,7 @@
         <v>PWID</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -7180,7 +7176,7 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U40" s="28"/>
     </row>
@@ -7190,7 +7186,7 @@
         <v>PWID</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -7215,7 +7211,7 @@
       <c r="R41" s="24"/>
       <c r="S41" s="24"/>
       <c r="T41" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U41" s="28"/>
     </row>
@@ -7229,7 +7225,7 @@
         <v>GM</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -7248,7 +7244,7 @@
       <c r="R43" s="24"/>
       <c r="S43" s="24"/>
       <c r="T43" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U43" s="28"/>
     </row>
@@ -7258,7 +7254,7 @@
         <v>GM</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -7277,7 +7273,7 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U44" s="28">
         <v>5.0000000000000001E-4</v>
@@ -7289,7 +7285,7 @@
         <v>GM</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -7308,7 +7304,7 @@
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
       <c r="T45" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U45" s="28"/>
     </row>
@@ -7322,7 +7318,7 @@
         <v>GF</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -7341,7 +7337,7 @@
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
       <c r="T47" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U47" s="28"/>
     </row>
@@ -7351,7 +7347,7 @@
         <v>GF</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -7378,7 +7374,7 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U48" s="28"/>
     </row>
@@ -7388,7 +7384,7 @@
         <v>GF</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -7407,7 +7403,7 @@
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U49" s="28"/>
     </row>
@@ -7421,7 +7417,7 @@
         <v>CSW</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -7440,7 +7436,7 @@
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U51" s="28"/>
     </row>
@@ -7450,7 +7446,7 @@
         <v>CSW</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -7469,7 +7465,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U52" s="28">
         <v>0.01</v>
@@ -7481,7 +7477,7 @@
         <v>CSW</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -7500,7 +7496,7 @@
       <c r="R53" s="24"/>
       <c r="S53" s="24"/>
       <c r="T53" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U53" s="28"/>
     </row>
@@ -7534,16 +7530,16 @@
   <sheetData>
     <row r="1" spans="1:29" s="19" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="19" customFormat="1">
@@ -7597,23 +7593,23 @@
         <v>2015</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="19" customFormat="1">
@@ -7638,7 +7634,7 @@
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="27">
         <v>0.01</v>
@@ -7671,7 +7667,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T4" s="27">
         <v>0.01</v>
@@ -7704,7 +7700,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T5" s="27">
         <v>0.03</v>
@@ -7737,7 +7733,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T6" s="27">
         <v>0.01</v>
@@ -7770,7 +7766,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T7" s="27">
         <v>0.01</v>
@@ -7803,7 +7799,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T8" s="27">
         <v>0.01</v>
@@ -7828,7 +7824,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -7851,10 +7847,10 @@
       <c r="V12" s="19"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -7909,24 +7905,24 @@
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -7952,13 +7948,13 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T14" s="27">
         <v>0</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="54">
@@ -7997,13 +7993,13 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T15" s="27">
         <v>0</v>
       </c>
       <c r="W15" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X15" s="19"/>
       <c r="Y15" s="27">
@@ -8042,13 +8038,13 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T16" s="27">
         <v>0</v>
       </c>
       <c r="W16" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X16" s="19"/>
       <c r="Y16" s="27">
@@ -8087,13 +8083,13 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T17" s="27">
         <v>0</v>
       </c>
       <c r="W17" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X17" s="19"/>
       <c r="Y17" s="27">
@@ -8132,13 +8128,13 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T18" s="27">
         <v>0</v>
       </c>
       <c r="W18" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="27">
@@ -8177,13 +8173,13 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T19" s="27">
         <v>0</v>
       </c>
       <c r="W19" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="X19" s="19"/>
       <c r="Y19" s="27">
@@ -8213,16 +8209,16 @@
     </row>
     <row r="23" spans="1:29" s="19" customFormat="1">
       <c r="A23" s="20" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="19" customFormat="1">
@@ -8276,23 +8272,23 @@
         <v>2015</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="19" customFormat="1">
@@ -8317,13 +8313,13 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T25" s="27">
         <v>0</v>
       </c>
       <c r="W25" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y25" s="54">
         <v>0.2</v>
@@ -8360,13 +8356,13 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T26" s="27">
         <v>0</v>
       </c>
       <c r="W26" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y26" s="27">
         <v>0.2</v>
@@ -8403,13 +8399,13 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T27" s="27">
         <v>0</v>
       </c>
       <c r="W27" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y27" s="27">
         <v>0.2</v>
@@ -8446,13 +8442,13 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T28" s="27">
         <v>0</v>
       </c>
       <c r="W28" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y28" s="27">
         <v>0.1</v>
@@ -8489,13 +8485,13 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T29" s="27">
         <v>0</v>
       </c>
       <c r="W29" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y29" s="27">
         <v>0.1</v>
@@ -8532,13 +8528,13 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T30" s="27">
         <v>0</v>
       </c>
       <c r="W30" s="46" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Y30" s="27">
         <v>0.2</v>
@@ -8568,7 +8564,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="9" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -8590,12 +8586,12 @@
       <c r="T34" s="8"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC34" s="19"/>
     </row>
@@ -8651,24 +8647,24 @@
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="9" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X35" s="19"/>
       <c r="Y35" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -8694,7 +8690,7 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T36" s="27">
         <v>0</v>
@@ -8729,7 +8725,7 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T37" s="27">
         <v>0</v>
@@ -8764,7 +8760,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T38" s="27">
         <v>0</v>
@@ -8799,7 +8795,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T39" s="27">
         <v>0</v>
@@ -8834,7 +8830,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T40" s="27">
         <v>0</v>
@@ -8869,7 +8865,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T41" s="27">
         <v>0</v>
@@ -8888,7 +8884,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8914,7 +8909,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -8987,13 +8982,13 @@
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -9012,7 +9007,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="24"/>
     </row>
@@ -9024,7 +9019,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -9097,13 +9092,13 @@
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -9146,7 +9141,7 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T9" s="24"/>
     </row>
@@ -9158,7 +9153,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="11" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9231,13 +9226,13 @@
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -9256,7 +9251,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T15" s="24"/>
     </row>
@@ -9268,7 +9263,7 @@
     </row>
     <row r="19" spans="1:20" s="19" customFormat="1">
       <c r="A19" s="20" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7"/>
     </row>
@@ -9323,12 +9318,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="19" customFormat="1">
       <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -9347,7 +9342,7 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T21" s="24"/>
     </row>
@@ -9362,7 +9357,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="11" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -9435,13 +9430,13 @@
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -9460,13 +9455,13 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T27" s="24"/>
     </row>
     <row r="31" spans="1:20" s="19" customFormat="1">
       <c r="A31" s="20" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7"/>
     </row>
@@ -9521,12 +9516,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:20" s="19" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -9545,7 +9540,7 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T33" s="24"/>
     </row>
@@ -9565,8 +9560,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:R5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -9578,7 +9573,7 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -9599,12 +9594,12 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="Y1" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="19"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="19"/>
     </row>
@@ -9660,23 +9655,23 @@
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -9702,13 +9697,13 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="27">
         <v>0.03</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="27">
         <v>0</v>
@@ -9750,11 +9745,11 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T4" s="27"/>
       <c r="W4" s="46" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="Y4" s="27">
         <v>0.5</v>
@@ -9798,11 +9793,11 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T5" s="24"/>
       <c r="W5" s="46" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="27">
         <v>0.15</v>
@@ -9840,13 +9835,13 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T6" s="27">
         <v>0.01</v>
       </c>
       <c r="W6" s="46" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="27">
         <v>0</v>
@@ -9884,13 +9879,13 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T7" s="27">
         <v>0.01</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="27">
         <v>0.05</v>
@@ -9928,13 +9923,13 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T8" s="27">
         <v>0.05</v>
       </c>
       <c r="W8" s="52" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="27">
         <v>0.1</v>
@@ -9959,7 +9954,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9980,12 +9975,12 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="Y12" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC12" s="19"/>
     </row>
@@ -10041,29 +10036,29 @@
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -10082,13 +10077,13 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T14" s="27">
         <v>0.5</v>
       </c>
       <c r="W14" s="46" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Y14" s="27">
         <v>0.4</v>
@@ -10113,7 +10108,7 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="11" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -10134,12 +10129,12 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="Y18" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC18" s="19"/>
     </row>
@@ -10195,29 +10190,29 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C20" s="24">
         <v>0</v>
@@ -10264,11 +10259,11 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T20" s="24"/>
       <c r="W20" s="46" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Y20" s="45">
         <v>0</v>
@@ -10293,7 +10288,7 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -10314,12 +10309,12 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="Y24" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC24" s="19"/>
     </row>
@@ -10375,29 +10370,29 @@
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -10444,11 +10439,11 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T26" s="24"/>
       <c r="W26" s="46" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Y26" s="45">
         <v>0</v>
@@ -10474,7 +10469,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="11" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10495,12 +10490,12 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="Y30" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC30" s="19"/>
     </row>
@@ -10556,29 +10551,29 @@
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -10607,11 +10602,11 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T32" s="24"/>
       <c r="W32" s="46" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Y32" s="27">
         <v>0</v>
@@ -10641,15 +10636,15 @@
     </row>
     <row r="36" spans="1:29" s="19" customFormat="1">
       <c r="A36" s="20" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="W36" s="7"/>
       <c r="Y36" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB36" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="19" customFormat="1">
@@ -10703,23 +10698,23 @@
         <v>2015</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="19" customFormat="1">
@@ -10744,7 +10739,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T38" s="26">
         <v>0</v>
@@ -10777,7 +10772,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T39" s="26">
         <v>0</v>
@@ -10810,7 +10805,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T40" s="26">
         <v>0</v>
@@ -10843,7 +10838,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T41" s="26">
         <v>0</v>
@@ -10876,7 +10871,7 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="24"/>
       <c r="S42" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T42" s="26">
         <f>2/50</f>
@@ -10910,7 +10905,7 @@
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
       <c r="S43" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T43" s="26">
         <v>0</v>
@@ -10923,15 +10918,15 @@
     </row>
     <row r="47" spans="1:29" s="19" customFormat="1">
       <c r="A47" s="20" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B47" s="7"/>
       <c r="W47" s="7"/>
       <c r="Y47" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="19" customFormat="1">
@@ -10985,28 +10980,28 @@
         <v>2015</v>
       </c>
       <c r="T48" s="20" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y48" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC48" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:29" s="19" customFormat="1">
       <c r="B49" s="5" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -11025,13 +11020,13 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T49" s="27">
         <v>0.3</v>
       </c>
       <c r="W49" s="46" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Y49" s="27">
         <v>0.05</v>
@@ -11063,8 +11058,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView topLeftCell="J49" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -11077,7 +11072,7 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -11097,12 +11092,12 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="Y1" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="19"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="19"/>
     </row>
@@ -11158,26 +11153,26 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="37" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="37" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X2" s="36"/>
       <c r="Y2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -11203,7 +11198,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="38">
         <v>80</v>
@@ -11241,7 +11236,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T4" s="38">
         <v>80</v>
@@ -11279,7 +11274,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T5" s="38">
         <v>80</v>
@@ -11317,7 +11312,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T6" s="38">
         <v>80</v>
@@ -11355,7 +11350,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T7" s="38">
         <v>80</v>
@@ -11393,7 +11388,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T8" s="38">
         <v>80</v>
@@ -11418,7 +11413,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="13" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -11438,12 +11433,12 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="Y12" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC12" s="19"/>
     </row>
@@ -11499,26 +11494,26 @@
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -11544,7 +11539,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T14" s="34">
         <v>10</v>
@@ -11582,7 +11577,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T15" s="34">
         <v>10</v>
@@ -11620,7 +11615,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T16" s="34">
         <v>10</v>
@@ -11658,7 +11653,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T17" s="34">
         <v>10</v>
@@ -11696,7 +11691,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T18" s="34">
         <v>10</v>
@@ -11734,7 +11729,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T19" s="34">
         <v>10</v>
@@ -11759,7 +11754,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="13" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -11779,12 +11774,12 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="Y23" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC23" s="19"/>
     </row>
@@ -11840,26 +11835,26 @@
       </c>
       <c r="S24" s="12"/>
       <c r="T24" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -11885,7 +11880,7 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T25" s="34">
         <v>0</v>
@@ -11923,7 +11918,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T26" s="34">
         <v>500</v>
@@ -11961,7 +11956,7 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T27" s="34">
         <v>0</v>
@@ -11999,7 +11994,7 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T28" s="34">
         <v>0</v>
@@ -12037,7 +12032,7 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T29" s="34">
         <v>0</v>
@@ -12075,7 +12070,7 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T30" s="34">
         <v>10</v>
@@ -12100,7 +12095,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="13" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -12120,12 +12115,12 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="Y34" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC34" s="19"/>
     </row>
@@ -12181,26 +12176,26 @@
       </c>
       <c r="S35" s="12"/>
       <c r="T35" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -12226,7 +12221,7 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T36" s="35">
         <v>0.4</v>
@@ -12234,7 +12229,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="46" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="35">
@@ -12284,13 +12279,13 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T37" s="35"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="46" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="35">
@@ -12330,7 +12325,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T38" s="35">
         <v>0.05</v>
@@ -12338,7 +12333,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="35">
@@ -12378,7 +12373,7 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T39" s="35">
         <v>0.05</v>
@@ -12386,7 +12381,7 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="35">
@@ -12426,7 +12421,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T40" s="35">
         <v>0.05</v>
@@ -12434,7 +12429,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="35">
@@ -12474,7 +12469,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T41" s="35">
         <v>7.0000000000000007E-2</v>
@@ -12482,7 +12477,7 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="46" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="35">
@@ -12509,7 +12504,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="20" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -12529,12 +12524,12 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="Y45" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
       <c r="AB45" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC45" s="19"/>
     </row>
@@ -12590,26 +12585,26 @@
       </c>
       <c r="S46" s="12"/>
       <c r="T46" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC46" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -12635,7 +12630,7 @@
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
       <c r="S47" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T47" s="35">
         <v>0.6</v>
@@ -12643,7 +12638,7 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="46" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="35">
@@ -12693,13 +12688,13 @@
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T48" s="35"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="46" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X48" s="7"/>
       <c r="Y48" s="35">
@@ -12739,7 +12734,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T49" s="35">
         <v>0.5</v>
@@ -12747,7 +12742,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="35">
@@ -12793,13 +12788,13 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T50" s="35"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="35">
@@ -12845,13 +12840,13 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T51" s="35"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="46" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="X51" s="7"/>
       <c r="Y51" s="35">
@@ -12891,7 +12886,7 @@
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
       <c r="S52" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T52" s="35">
         <v>0.5</v>
@@ -12899,7 +12894,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="46" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="35">
@@ -12926,7 +12921,7 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56" s="20" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -12946,12 +12941,12 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="Y56" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z56" s="19"/>
       <c r="AA56" s="19"/>
       <c r="AB56" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC56" s="19"/>
     </row>
@@ -13007,26 +13002,26 @@
       </c>
       <c r="S57" s="12"/>
       <c r="T57" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -13052,7 +13047,7 @@
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T58" s="34">
         <v>0</v>
@@ -13100,13 +13095,13 @@
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
       <c r="S59" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="48" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="35">
@@ -13154,7 +13149,7 @@
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T60" s="35">
         <v>0</v>
@@ -13193,7 +13188,7 @@
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T61" s="35">
         <v>0</v>
@@ -13235,7 +13230,7 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T62" s="34">
         <v>0</v>
@@ -13283,13 +13278,13 @@
       <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
       <c r="S63" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T63" s="47"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="48" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="35">
@@ -13316,7 +13311,7 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="13" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -13336,12 +13331,12 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="Y67" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="Z67" s="19"/>
       <c r="AA67" s="19"/>
       <c r="AB67" s="20" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="AC67" s="19"/>
     </row>
@@ -13397,26 +13392,26 @@
       </c>
       <c r="S68" s="12"/>
       <c r="T68" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X68" s="7"/>
       <c r="Y68" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA68" s="7"/>
       <c r="AB68" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC68" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -13442,7 +13437,7 @@
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
       <c r="S69" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T69" s="35">
         <v>0.03</v>
@@ -13480,7 +13475,7 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T70" s="34">
         <v>0</v>
@@ -13518,7 +13513,7 @@
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
       <c r="S71" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T71" s="35">
         <v>2.5999999999999999E-2</v>
@@ -13556,7 +13551,7 @@
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
       <c r="S72" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T72" s="35">
         <v>0.03</v>
@@ -13594,7 +13589,7 @@
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T73" s="35">
         <v>0</v>
@@ -13632,7 +13627,7 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T74" s="35">
         <v>0.03</v>
@@ -13664,8 +13659,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -13680,7 +13675,7 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="15" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -13700,10 +13695,10 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="Y1" s="37" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -13758,26 +13753,26 @@
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -13803,7 +13798,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T3" s="34">
         <v>0</v>
@@ -13841,7 +13836,7 @@
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T4" s="34">
         <v>0</v>
@@ -13879,7 +13874,7 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T5" s="34">
         <v>400</v>
@@ -13917,7 +13912,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T6" s="34">
         <v>0</v>
@@ -13955,7 +13950,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T7" s="34">
         <v>0</v>
@@ -13993,7 +13988,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T8" s="34">
         <v>0</v>
@@ -14036,7 +14031,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="15" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -14057,10 +14052,10 @@
       <c r="S12" s="14"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="37" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -14115,29 +14110,29 @@
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="37" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="14"/>
       <c r="B14" s="56" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="27">
@@ -14164,13 +14159,13 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="46" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="35">
@@ -14215,7 +14210,7 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="15" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -14235,10 +14230,10 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="Y18" s="37" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -14293,32 +14288,32 @@
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="5" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="14"/>
       <c r="B20" s="56" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29">
@@ -14343,13 +14338,13 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="46" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="35">
@@ -14369,7 +14364,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14394,7 +14388,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -14698,7 +14692,7 @@
     <row r="11" spans="1:26" s="19" customFormat="1"/>
     <row r="12" spans="1:26">
       <c r="A12" s="18" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14995,7 +14989,7 @@
     <row r="22" spans="1:26" s="19" customFormat="1"/>
     <row r="23" spans="1:26">
       <c r="A23" s="18" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -15154,7 +15148,7 @@
     <row r="33" spans="1:8" s="19" customFormat="1"/>
     <row r="34" spans="1:8">
       <c r="A34" s="18" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="40" windowWidth="19420" windowHeight="10960" tabRatio="863" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Disutilities &amp; costs" sheetId="14" r:id="rId12"/>
     <sheet name="Macroeconomics" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="130000"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="146">
   <si>
     <t>Men who have sex with men</t>
   </si>
@@ -464,21 +464,39 @@
   <si>
     <t>Modeled estimate of HIV prevalence</t>
   </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Injects</t>
+  </si>
+  <si>
+    <t>Heterosexual</t>
+  </si>
+  <si>
+    <t>Homosexual</t>
+  </si>
+  <si>
+    <t>Sex worker</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.00%"/>
-    <numFmt numFmtId="172" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
@@ -640,7 +658,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1288,11 +1306,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
@@ -1325,104 +1343,105 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="13"/>
@@ -2394,39 +2413,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="22"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="40.875" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="22"/>
+    <col min="3" max="3" width="13.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="22" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="22"/>
+    <col min="8" max="9" width="14.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="23">
         <v>1</v>
       </c>
@@ -2436,10 +2477,29 @@
       <c r="D3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>2</v>
       </c>
@@ -2449,10 +2509,29 @@
       <c r="D4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
         <v>3</v>
       </c>
@@ -2462,10 +2541,29 @@
       <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>4</v>
       </c>
@@ -2475,10 +2573,29 @@
       <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <v>5</v>
       </c>
@@ -2488,10 +2605,29 @@
       <c r="D7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="23">
         <v>6</v>
       </c>
@@ -2501,25 +2637,44 @@
       <c r="D8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="23"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>95</v>
@@ -2528,7 +2683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>1</v>
       </c>
@@ -2539,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="23">
         <v>2</v>
       </c>
@@ -2550,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="23">
         <v>3</v>
       </c>
@@ -2561,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
         <v>4</v>
       </c>
@@ -2572,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
         <v>5</v>
       </c>
@@ -2583,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <v>6</v>
       </c>
@@ -2594,7 +2749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
         <v>7</v>
       </c>
@@ -2605,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="23">
         <v>8</v>
       </c>
@@ -2616,7 +2771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
         <v>9</v>
       </c>
@@ -2630,7 +2785,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2640,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -2648,12 +2803,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2665,7 +2820,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1">
+    <row r="2" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="5" t="str">
@@ -2693,7 +2848,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2705,7 +2860,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2717,7 +2872,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -2729,7 +2884,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -2741,7 +2896,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -2753,7 +2908,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -2765,7 +2920,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:26" s="19" customFormat="1">
+    <row r="9" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="43"/>
       <c r="C9" s="17"/>
@@ -2793,10 +2948,10 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" s="19" customFormat="1">
+    <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="43"/>
       <c r="C11" s="3"/>
@@ -2806,7 +2961,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
@@ -2818,7 +2973,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1">
+    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="5" t="str">
@@ -2846,7 +3001,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -2858,7 +3013,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -2870,7 +3025,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -2882,7 +3037,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -2894,7 +3049,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -2906,7 +3061,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -2930,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
@@ -2938,19 +3093,19 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="19"/>
-    <col min="2" max="2" width="33.25" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="19"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="33.28515625" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>83</v>
       </c>
@@ -2961,7 +3116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>79</v>
       </c>
@@ -2971,7 +3126,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>80</v>
       </c>
@@ -2981,7 +3136,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>81</v>
       </c>
@@ -2991,7 +3146,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>82</v>
       </c>
@@ -3001,7 +3156,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
@@ -3011,7 +3166,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>122</v>
       </c>
@@ -3021,7 +3176,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>123</v>
       </c>
@@ -3031,7 +3186,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3041,12 +3196,12 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3057,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>86</v>
       </c>
@@ -3067,7 +3222,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>57</v>
       </c>
@@ -3077,7 +3232,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
@@ -3087,7 +3242,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
@@ -3097,7 +3252,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>59</v>
       </c>
@@ -3107,7 +3262,7 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3117,13 +3272,13 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="20"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>83</v>
       </c>
@@ -3134,7 +3289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -3144,7 +3299,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>48</v>
       </c>
@@ -3154,7 +3309,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>51</v>
       </c>
@@ -3164,7 +3319,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>60</v>
       </c>
@@ -3174,7 +3329,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3184,12 +3339,12 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
@@ -3200,7 +3355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>52</v>
       </c>
@@ -3210,7 +3365,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
@@ -3220,7 +3375,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>54</v>
       </c>
@@ -3230,10 +3385,10 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -3243,12 +3398,12 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
@@ -3259,7 +3414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>55</v>
       </c>
@@ -3273,7 +3428,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>56</v>
       </c>
@@ -3287,7 +3442,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3297,12 +3452,12 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>83</v>
       </c>
@@ -3313,7 +3468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>86</v>
       </c>
@@ -3323,7 +3478,7 @@
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>57</v>
       </c>
@@ -3333,7 +3488,7 @@
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>58</v>
       </c>
@@ -3343,7 +3498,7 @@
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>49</v>
       </c>
@@ -3353,7 +3508,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>59</v>
       </c>
@@ -3363,7 +3518,7 @@
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>87</v>
       </c>
@@ -3373,7 +3528,7 @@
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
         <v>98</v>
       </c>
@@ -3383,7 +3538,7 @@
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3393,12 +3548,12 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
         <v>83</v>
       </c>
@@ -3409,7 +3564,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>37</v>
       </c>
@@ -3419,7 +3574,7 @@
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
         <v>88</v>
       </c>
@@ -3429,7 +3584,7 @@
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
         <v>99</v>
       </c>
@@ -3439,7 +3594,7 @@
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>89</v>
       </c>
@@ -3449,7 +3604,7 @@
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
         <v>38</v>
       </c>
@@ -3459,7 +3614,7 @@
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>90</v>
       </c>
@@ -3469,7 +3624,7 @@
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
         <v>39</v>
       </c>
@@ -3491,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3499,12 +3654,12 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>128</v>
       </c>
@@ -3513,7 +3668,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="5" t="s">
@@ -3526,7 +3681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="19" customFormat="1">
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>127</v>
       </c>
@@ -3536,7 +3691,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>61</v>
@@ -3547,7 +3702,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>62</v>
@@ -3558,7 +3713,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>63</v>
@@ -3569,7 +3724,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>64</v>
@@ -3580,7 +3735,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>102</v>
@@ -3591,15 +3746,15 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1"/>
-    <row r="11" spans="1:8" s="19" customFormat="1">
+    <row r="10" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -3609,7 +3764,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>126</v>
       </c>
@@ -3618,7 +3773,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
@@ -3631,7 +3786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
         <v>86</v>
@@ -3642,7 +3797,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
         <v>57</v>
@@ -3653,7 +3808,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
         <v>58</v>
@@ -3664,7 +3819,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -3675,7 +3830,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
         <v>59</v>
@@ -3686,7 +3841,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>125</v>
       </c>
@@ -3695,7 +3850,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
@@ -3708,7 +3863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>86</v>
@@ -3719,7 +3874,7 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
         <v>57</v>
@@ -3730,7 +3885,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
         <v>58</v>
@@ -3741,7 +3896,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
         <v>49</v>
@@ -3752,7 +3907,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -3775,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
@@ -3783,15 +3938,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
@@ -3813,7 +3968,7 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="C2" s="20">
         <v>2015</v>
@@ -3868,7 +4023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
         <v>93</v>
@@ -3941,7 +4096,7 @@
       </c>
       <c r="T3" s="34"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
@@ -3963,7 +4118,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="C8" s="20">
         <v>2015</v>
@@ -4018,7 +4173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>93</v>
@@ -4091,7 +4246,7 @@
       </c>
       <c r="T9" s="34"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
@@ -4113,7 +4268,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="C14" s="20">
         <v>2015</v>
@@ -4168,7 +4323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>93</v>
@@ -4241,14 +4396,14 @@
       </c>
       <c r="T15" s="34"/>
     </row>
-    <row r="19" spans="1:20" s="19" customFormat="1">
+    <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="7"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1">
+    <row r="20" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="20">
         <v>2015</v>
@@ -4302,7 +4457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="19" customFormat="1">
+    <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>93</v>
       </c>
@@ -4327,27 +4482,27 @@
       </c>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="1:20" s="19" customFormat="1">
+    <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="19" customFormat="1">
+    <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="I23" s="53"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="19" customFormat="1">
+    <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20" s="19" customFormat="1">
+    <row r="25" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" s="19" customFormat="1">
+    <row r="26" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="20">
         <v>2015</v>
@@ -4401,7 +4556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="19" customFormat="1">
+    <row r="27" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
@@ -4474,14 +4629,14 @@
       </c>
       <c r="T27" s="34"/>
     </row>
-    <row r="31" spans="1:20" s="19" customFormat="1">
+    <row r="31" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="7"/>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="1:20" s="19" customFormat="1">
+    <row r="32" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="20">
         <v>2015</v>
@@ -4535,7 +4690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="19" customFormat="1">
+    <row r="33" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
@@ -4592,26 +4747,26 @@
       </c>
       <c r="T33" s="34"/>
     </row>
-    <row r="34" spans="1:20" s="19" customFormat="1">
+    <row r="34" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" s="19" customFormat="1">
+    <row r="35" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="1:20" s="19" customFormat="1">
+    <row r="36" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" spans="1:20" s="19" customFormat="1">
+    <row r="37" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="7"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="1:20" s="19" customFormat="1">
+    <row r="38" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="20">
         <v>2015</v>
@@ -4665,7 +4820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="19" customFormat="1">
+    <row r="39" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>93</v>
       </c>
@@ -4690,26 +4845,26 @@
       </c>
       <c r="T39" s="34"/>
     </row>
-    <row r="40" spans="1:20" s="19" customFormat="1">
+    <row r="40" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" spans="1:20" s="19" customFormat="1">
+    <row r="41" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" spans="1:20" s="19" customFormat="1">
+    <row r="42" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" spans="1:20" s="19" customFormat="1">
+    <row r="43" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="7"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" s="19" customFormat="1">
+    <row r="44" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="20">
         <v>2015</v>
@@ -4763,7 +4918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="19" customFormat="1">
+    <row r="45" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
@@ -4788,14 +4943,14 @@
       </c>
       <c r="T45" s="34"/>
     </row>
-    <row r="49" spans="1:20" s="19" customFormat="1">
+    <row r="49" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="7"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" s="19" customFormat="1">
+    <row r="50" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="20">
         <v>2015</v>
@@ -4849,7 +5004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="19" customFormat="1">
+    <row r="51" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>93</v>
       </c>
@@ -4874,26 +5029,26 @@
       </c>
       <c r="T51" s="34"/>
     </row>
-    <row r="52" spans="1:20" s="19" customFormat="1">
+    <row r="52" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" s="19" customFormat="1">
+    <row r="53" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" s="19" customFormat="1">
+    <row r="54" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20" s="19" customFormat="1">
+    <row r="55" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="7"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" spans="1:20" s="19" customFormat="1">
+    <row r="56" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="20">
         <v>2015</v>
@@ -4947,7 +5102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="19" customFormat="1">
+    <row r="57" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>93</v>
       </c>
@@ -4984,27 +5139,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="9.125" style="19"/>
-    <col min="20" max="20" width="15.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="19"/>
+    <col min="1" max="19" width="9.140625" style="19"/>
+    <col min="20" max="20" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="20">
         <v>2000</v>
       </c>
@@ -5057,7 +5212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
@@ -5097,7 +5252,7 @@
       </c>
       <c r="T3" s="27"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>OST</v>
@@ -5129,7 +5284,7 @@
       </c>
       <c r="T4" s="45"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>MSM</v>
@@ -5157,7 +5312,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>FSW</v>
@@ -5193,7 +5348,7 @@
       </c>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>ART</v>
@@ -5221,7 +5376,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>HTC</v>
@@ -5249,7 +5404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>BCC</v>
@@ -5279,7 +5434,7 @@
       </c>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
@@ -5308,7 +5463,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="56" t="s">
         <v>13</v>
@@ -5336,7 +5491,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -5359,7 +5514,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5382,18 +5537,18 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="K14" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="20">
         <v>2000</v>
@@ -5447,7 +5602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
@@ -5477,7 +5632,7 @@
       </c>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>OST</v>
@@ -5507,7 +5662,7 @@
       </c>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>MSM</v>
@@ -5537,7 +5692,7 @@
       </c>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>FSW</v>
@@ -5567,7 +5722,7 @@
       </c>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>ART</v>
@@ -5597,7 +5752,7 @@
       </c>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>HTC</v>
@@ -5627,7 +5782,7 @@
       </c>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>BCC</v>
@@ -5657,7 +5812,7 @@
       </c>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>STI</v>
@@ -5687,7 +5842,7 @@
       </c>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="56" t="s">
         <v>13</v>
       </c>
@@ -5716,20 +5871,20 @@
       </c>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K27" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="20">
         <v>2000</v>
@@ -5783,7 +5938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>NSP</v>
@@ -5809,7 +5964,7 @@
       </c>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>OST</v>
@@ -5835,7 +5990,7 @@
       </c>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>MSM</v>
@@ -5861,7 +6016,7 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>FSW</v>
@@ -5887,7 +6042,7 @@
       </c>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>ART</v>
@@ -5913,7 +6068,7 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>HTC</v>
@@ -5939,7 +6094,7 @@
       </c>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>BCC</v>
@@ -5965,7 +6120,7 @@
       </c>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>STI</v>
@@ -5991,7 +6146,7 @@
       </c>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="56" t="s">
         <v>13</v>
       </c>
@@ -6029,7 +6184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
@@ -6037,22 +6192,22 @@
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.125" style="19"/>
-    <col min="4" max="4" width="9.375" style="19" customWidth="1"/>
-    <col min="5" max="20" width="9.125" style="19"/>
-    <col min="21" max="21" width="15.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="9.125" style="19"/>
+    <col min="1" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="9.42578125" style="19" customWidth="1"/>
+    <col min="5" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="20">
         <v>2000</v>
       </c>
@@ -6105,7 +6260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -6136,7 +6291,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -6167,7 +6322,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -6198,12 +6353,12 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -6232,7 +6387,7 @@
       </c>
       <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -6263,7 +6418,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -6292,7 +6447,7 @@
       </c>
       <c r="U9" s="32"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="33"/>
@@ -6313,7 +6468,7 @@
       <c r="S10" s="33"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -6352,7 +6507,7 @@
       </c>
       <c r="U11" s="32"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -6391,7 +6546,7 @@
       </c>
       <c r="U12" s="32"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -6430,7 +6585,7 @@
       </c>
       <c r="U13" s="32"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="33"/>
@@ -6451,7 +6606,7 @@
       <c r="S14" s="33"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -6480,7 +6635,7 @@
       </c>
       <c r="U15" s="32"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -6541,7 +6696,7 @@
       </c>
       <c r="U16" s="32"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -6570,7 +6725,7 @@
       </c>
       <c r="U17" s="32"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="33"/>
@@ -6591,7 +6746,7 @@
       <c r="S18" s="33"/>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -6620,7 +6775,7 @@
       </c>
       <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -6681,7 +6836,7 @@
       </c>
       <c r="U20" s="32"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -6710,7 +6865,7 @@
       </c>
       <c r="U21" s="32"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="33"/>
@@ -6731,7 +6886,7 @@
       <c r="S22" s="33"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -6760,7 +6915,7 @@
       </c>
       <c r="U23" s="32"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -6821,7 +6976,7 @@
       </c>
       <c r="U24" s="32"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -6850,12 +7005,12 @@
       </c>
       <c r="U25" s="32"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D30" s="20">
         <v>2000</v>
       </c>
@@ -6908,7 +7063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -6939,7 +7094,7 @@
       </c>
       <c r="U31" s="28"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -6970,7 +7125,7 @@
       </c>
       <c r="U32" s="28"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -7001,11 +7156,11 @@
       </c>
       <c r="U33" s="28"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -7040,7 +7195,7 @@
       </c>
       <c r="U35" s="28"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -7075,7 +7230,7 @@
       </c>
       <c r="U36" s="28"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -7110,11 +7265,11 @@
       </c>
       <c r="U37" s="28"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -7149,7 +7304,7 @@
       </c>
       <c r="U39" s="28"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -7184,7 +7339,7 @@
       </c>
       <c r="U40" s="28"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -7219,11 +7374,11 @@
       </c>
       <c r="U41" s="28"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -7252,7 +7407,7 @@
       </c>
       <c r="U43" s="28"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -7283,7 +7438,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -7312,11 +7467,11 @@
       </c>
       <c r="U45" s="28"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -7345,7 +7500,7 @@
       </c>
       <c r="U47" s="28"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -7382,7 +7537,7 @@
       </c>
       <c r="U48" s="28"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -7411,11 +7566,11 @@
       </c>
       <c r="U49" s="28"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -7444,7 +7599,7 @@
       </c>
       <c r="U51" s="28"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -7475,7 +7630,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -7516,7 +7671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC42"/>
   <sheetViews>
@@ -7524,15 +7679,15 @@
       <selection activeCell="Y25" sqref="Y25:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
-    <col min="21" max="21" width="9.125" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="7"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1">
+    <row r="1" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
@@ -7546,7 +7701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="19" customFormat="1">
+    <row r="2" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="20">
         <v>2000</v>
@@ -7616,7 +7771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="19" customFormat="1">
+    <row r="3" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -7649,7 +7804,7 @@
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1">
+    <row r="4" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -7682,7 +7837,7 @@
       <c r="AB4" s="27"/>
       <c r="AC4" s="27"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1">
+    <row r="5" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -7715,7 +7870,7 @@
       <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1">
+    <row r="6" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -7748,7 +7903,7 @@
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1">
+    <row r="7" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -7781,7 +7936,7 @@
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1">
+    <row r="8" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -7814,19 +7969,19 @@
       <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1">
+    <row r="9" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>114</v>
       </c>
@@ -7857,7 +8012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13" s="9">
         <v>2000</v>
@@ -7929,7 +8084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -7974,7 +8129,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -8019,7 +8174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -8064,7 +8219,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -8109,7 +8264,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -8154,7 +8309,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -8199,19 +8354,19 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="19" customFormat="1">
+    <row r="20" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1">
+    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1">
+    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:29" s="19" customFormat="1">
+    <row r="23" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
@@ -8225,7 +8380,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="19" customFormat="1">
+    <row r="24" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="20">
         <v>2000</v>
@@ -8295,7 +8450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="19" customFormat="1">
+    <row r="25" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -8338,7 +8493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="19" customFormat="1">
+    <row r="26" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8381,7 +8536,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="19" customFormat="1">
+    <row r="27" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -8424,7 +8579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="19" customFormat="1">
+    <row r="28" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -8467,7 +8622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="19" customFormat="1">
+    <row r="29" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -8510,7 +8665,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="19" customFormat="1">
+    <row r="30" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -8553,20 +8708,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="1:29" s="19" customFormat="1">
+    <row r="32" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="S32" s="6"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1">
+    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="S33" s="6"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>97</v>
       </c>
@@ -8599,7 +8754,7 @@
       </c>
       <c r="AC34" s="19"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="C35" s="9">
         <v>2000</v>
@@ -8671,7 +8826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -8707,7 +8862,7 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -8742,7 +8897,7 @@
       <c r="AB37" s="27"/>
       <c r="AC37" s="27"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -8777,7 +8932,7 @@
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -8812,7 +8967,7 @@
       <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -8847,7 +9002,7 @@
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -8882,7 +9037,7 @@
       <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S42" s="6"/>
     </row>
   </sheetData>
@@ -8898,7 +9053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -8906,13 +9061,13 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
-    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
@@ -8935,7 +9090,7 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>2000</v>
@@ -8990,7 +9145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>93</v>
@@ -9016,13 +9171,13 @@
       </c>
       <c r="T3" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="19" customFormat="1">
+    <row r="5" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1">
+    <row r="6" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9045,7 +9200,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="C8" s="11">
         <v>2000</v>
@@ -9100,7 +9255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>93</v>
@@ -9150,13 +9305,13 @@
       </c>
       <c r="T9" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="19" customFormat="1">
+    <row r="11" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="19" customFormat="1">
+    <row r="12" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
@@ -9179,7 +9334,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="C14" s="11">
         <v>2000</v>
@@ -9234,7 +9389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
         <v>93</v>
@@ -9260,19 +9415,19 @@
       </c>
       <c r="T15" s="24"/>
     </row>
-    <row r="17" spans="1:20" s="19" customFormat="1">
+    <row r="17" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
+    <row r="18" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="19" customFormat="1">
+    <row r="19" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="19" customFormat="1">
+    <row r="20" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="20">
         <v>2000</v>
@@ -9326,7 +9481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="19" customFormat="1">
+    <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>93</v>
       </c>
@@ -9351,16 +9506,16 @@
       </c>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="19" customFormat="1">
+    <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="19" customFormat="1">
+    <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:20" s="19" customFormat="1">
+    <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
@@ -9383,7 +9538,7 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="C26" s="11">
         <v>2000</v>
@@ -9438,7 +9593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
         <v>93</v>
@@ -9464,13 +9619,13 @@
       </c>
       <c r="T27" s="24"/>
     </row>
-    <row r="31" spans="1:20" s="19" customFormat="1">
+    <row r="31" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:20" s="19" customFormat="1">
+    <row r="32" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="20">
         <v>2000</v>
@@ -9524,7 +9679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:20" s="19" customFormat="1">
+    <row r="33" spans="2:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
@@ -9561,7 +9716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
@@ -9569,14 +9724,14 @@
       <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
-    <col min="20" max="20" width="14.25" customWidth="1"/>
-    <col min="23" max="23" width="12.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -9608,7 +9763,7 @@
       </c>
       <c r="AC1" s="19"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="11">
         <v>2000</v>
@@ -9679,7 +9834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -9723,7 +9878,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -9769,7 +9924,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -9817,7 +9972,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -9861,7 +10016,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -9905,7 +10060,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -9949,15 +10104,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
@@ -9989,7 +10144,7 @@
       </c>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="C13" s="11">
         <v>2000</v>
@@ -10060,7 +10215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>94</v>
@@ -10103,15 +10258,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1">
+    <row r="16" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1">
+    <row r="17" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
@@ -10143,7 +10298,7 @@
       </c>
       <c r="AC18" s="19"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="C19" s="11">
         <v>2000</v>
@@ -10214,7 +10369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>93</v>
@@ -10283,15 +10438,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1">
+    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1">
+    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
@@ -10323,7 +10478,7 @@
       </c>
       <c r="AC24" s="19"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="C25" s="11">
         <v>2000</v>
@@ -10394,7 +10549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
         <v>93</v>
@@ -10464,15 +10619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="19" customFormat="1">
+    <row r="28" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:29" s="19" customFormat="1">
+    <row r="29" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>116</v>
       </c>
@@ -10504,7 +10659,7 @@
       </c>
       <c r="AC30" s="19"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="C31" s="11">
         <v>2000</v>
@@ -10575,7 +10730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
         <v>93</v>
@@ -10627,19 +10782,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1">
+    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:29" s="19" customFormat="1">
+    <row r="34" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:29" s="19" customFormat="1">
+    <row r="35" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" spans="1:29" s="19" customFormat="1">
+    <row r="36" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>35</v>
       </c>
@@ -10652,7 +10807,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="19" customFormat="1">
+    <row r="37" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="20">
         <v>2000</v>
@@ -10722,7 +10877,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="19" customFormat="1">
+    <row r="38" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>MSM</v>
@@ -10755,7 +10910,7 @@
       <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
     </row>
-    <row r="39" spans="1:29" s="19" customFormat="1">
+    <row r="39" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>FSW</v>
@@ -10788,7 +10943,7 @@
       <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
     </row>
-    <row r="40" spans="1:29" s="19" customFormat="1">
+    <row r="40" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>PWID</v>
@@ -10821,7 +10976,7 @@
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
     </row>
-    <row r="41" spans="1:29" s="19" customFormat="1">
+    <row r="41" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>GM</v>
@@ -10854,7 +11009,7 @@
       <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
     </row>
-    <row r="42" spans="1:29" s="19" customFormat="1">
+    <row r="42" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>GF</v>
@@ -10888,7 +11043,7 @@
       <c r="AB42" s="27"/>
       <c r="AC42" s="27"/>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1">
+    <row r="43" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
         <v>CSW</v>
@@ -10921,7 +11076,7 @@
       <c r="AB43" s="27"/>
       <c r="AC43" s="27"/>
     </row>
-    <row r="47" spans="1:29" s="19" customFormat="1">
+    <row r="47" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>36</v>
       </c>
@@ -10934,7 +11089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="19" customFormat="1">
+    <row r="48" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="20">
         <v>2000</v>
@@ -11004,7 +11159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:29" s="19" customFormat="1">
+    <row r="49" spans="2:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>93</v>
       </c>
@@ -11059,7 +11214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE74"/>
   <sheetViews>
@@ -11067,15 +11222,15 @@
       <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="7"/>
-    <col min="20" max="20" width="14.375" style="36" customWidth="1"/>
-    <col min="23" max="23" width="11.375" customWidth="1"/>
-    <col min="31" max="31" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="7"/>
+    <col min="20" max="20" width="14.42578125" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>109</v>
       </c>
@@ -11106,7 +11261,7 @@
       </c>
       <c r="AC1" s="19"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="C2" s="13">
         <v>2000</v>
@@ -11180,7 +11335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11218,7 +11373,7 @@
       <c r="AB3" s="39"/>
       <c r="AC3" s="39"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11256,7 +11411,7 @@
       <c r="AB4" s="39"/>
       <c r="AC4" s="39"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11294,7 +11449,7 @@
       <c r="AB5" s="39"/>
       <c r="AC5" s="39"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11332,7 +11487,7 @@
       <c r="AB6" s="39"/>
       <c r="AC6" s="39"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11370,7 +11525,7 @@
       <c r="AB7" s="39"/>
       <c r="AC7" s="39"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11408,15 +11563,15 @@
       <c r="AB8" s="39"/>
       <c r="AC8" s="39"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>110</v>
       </c>
@@ -11447,7 +11602,7 @@
       </c>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="C13" s="13">
         <v>2000</v>
@@ -11521,7 +11676,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11559,7 +11714,7 @@
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11597,7 +11752,7 @@
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11635,7 +11790,7 @@
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -11673,7 +11828,7 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -11711,7 +11866,7 @@
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -11749,15 +11904,15 @@
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
     </row>
-    <row r="21" spans="1:29" s="19" customFormat="1">
+    <row r="21" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:29" s="19" customFormat="1">
+    <row r="22" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>111</v>
       </c>
@@ -11788,7 +11943,7 @@
       </c>
       <c r="AC23" s="19"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="C24" s="13">
         <v>2000</v>
@@ -11862,7 +12017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -11900,7 +12055,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -11938,7 +12093,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -11976,7 +12131,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12014,7 +12169,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12052,7 +12207,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12090,15 +12245,15 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="32" spans="1:29" s="19" customFormat="1">
+    <row r="32" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:29" s="19" customFormat="1">
+    <row r="33" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>119</v>
       </c>
@@ -12129,7 +12284,7 @@
       </c>
       <c r="AC34" s="19"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="C35" s="13">
         <v>2000</v>
@@ -12203,7 +12358,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12251,7 +12406,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12307,7 +12462,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12355,7 +12510,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12403,7 +12558,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12451,7 +12606,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12499,15 +12654,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1">
+    <row r="43" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:29" s="19" customFormat="1">
+    <row r="44" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>118</v>
       </c>
@@ -12538,7 +12693,7 @@
       </c>
       <c r="AC45" s="19"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="C46" s="13">
         <v>2000</v>
@@ -12612,7 +12767,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -12660,7 +12815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -12716,7 +12871,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -12764,7 +12919,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -12816,7 +12971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -12868,7 +13023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -12916,15 +13071,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="19" customFormat="1">
+    <row r="54" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="T54" s="36"/>
     </row>
-    <row r="55" spans="1:31" s="19" customFormat="1">
+    <row r="55" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="T55" s="36"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>117</v>
       </c>
@@ -12955,7 +13110,7 @@
       </c>
       <c r="AC56" s="19"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="C57" s="13">
         <v>2000</v>
@@ -13029,7 +13184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13067,7 +13222,7 @@
       <c r="AB58" s="35"/>
       <c r="AC58" s="35"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13131,7 +13286,7 @@
         <v>0.19500000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13170,7 +13325,7 @@
       <c r="AC60" s="35"/>
       <c r="AE60" s="58"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13212,7 +13367,7 @@
         <v>87.674999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13250,7 +13405,7 @@
       <c r="AB62" s="35"/>
       <c r="AC62" s="35"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13306,15 +13461,15 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="19" customFormat="1">
+    <row r="65" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="T65" s="36"/>
     </row>
-    <row r="66" spans="1:29" s="19" customFormat="1">
+    <row r="66" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="T66" s="36"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>45</v>
       </c>
@@ -13345,7 +13500,7 @@
       </c>
       <c r="AC67" s="19"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="C68" s="13">
         <v>2000</v>
@@ -13419,7 +13574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13457,7 +13612,7 @@
       <c r="AB69" s="35"/>
       <c r="AC69" s="35"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13495,7 +13650,7 @@
       <c r="AB70" s="35"/>
       <c r="AC70" s="35"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13533,7 +13688,7 @@
       <c r="AB71" s="35"/>
       <c r="AC71" s="35"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13571,7 +13726,7 @@
       <c r="AB72" s="35"/>
       <c r="AC72" s="35"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13609,7 +13764,7 @@
       <c r="AB73" s="35"/>
       <c r="AC73" s="35"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -13660,7 +13815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
@@ -13668,17 +13823,17 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.375" style="36" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="36"/>
-    <col min="22" max="22" width="9.125" style="36" customWidth="1"/>
-    <col min="23" max="23" width="11.75" style="7" customWidth="1"/>
-    <col min="24" max="29" width="8.625" style="36"/>
+    <col min="2" max="2" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="36" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="36"/>
+    <col min="22" max="22" width="9.140625" style="36" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="7" customWidth="1"/>
+    <col min="24" max="29" width="8.5703125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
@@ -13706,7 +13861,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="C2" s="15">
         <v>2000</v>
@@ -13780,7 +13935,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -13818,7 +13973,7 @@
       <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -13856,7 +14011,7 @@
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -13894,7 +14049,7 @@
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -13932,7 +14087,7 @@
       <c r="AB6" s="35"/>
       <c r="AC6" s="35"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -13970,7 +14125,7 @@
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14008,7 +14163,7 @@
       <c r="AB8" s="35"/>
       <c r="AC8" s="35"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1">
+    <row r="10" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
@@ -14021,7 +14176,7 @@
       <c r="AB10" s="36"/>
       <c r="AC10" s="36"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1">
+    <row r="11" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
@@ -14034,7 +14189,7 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -14063,7 +14218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="C13" s="15">
         <v>2000</v>
@@ -14134,7 +14289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="56" t="s">
         <v>16</v>
@@ -14187,7 +14342,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1">
+    <row r="16" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
@@ -14200,7 +14355,7 @@
       <c r="AB16" s="36"/>
       <c r="AC16" s="36"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1">
+    <row r="17" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -14213,7 +14368,7 @@
       <c r="AB17" s="36"/>
       <c r="AC17" s="36"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
@@ -14241,7 +14396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="C19" s="15">
         <v>2000</v>
@@ -14315,7 +14470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="56" t="s">
         <v>16</v>
@@ -14379,7 +14534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
@@ -14387,12 +14542,12 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="6.625" customWidth="1"/>
+    <col min="1" max="15" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>131</v>
       </c>
@@ -14421,7 +14576,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="43"/>
       <c r="C2" s="5" t="str">
@@ -14467,7 +14622,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14500,7 +14655,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14531,7 +14686,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14566,7 +14721,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14600,7 +14755,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14631,7 +14786,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14666,7 +14821,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -14694,9 +14849,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" s="19" customFormat="1"/>
-    <row r="11" spans="1:26" s="19" customFormat="1"/>
-    <row r="12" spans="1:26">
+    <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>129</v>
       </c>
@@ -14726,7 +14881,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="43"/>
       <c r="C13" s="5" t="str">
@@ -14772,7 +14927,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -14805,7 +14960,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -14836,7 +14991,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -14871,7 +15026,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -14906,7 +15061,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -14937,7 +15092,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -14954,7 +15109,7 @@
       </c>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -14964,7 +15119,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:26" s="19" customFormat="1">
+    <row r="21" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -14992,8 +15147,8 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" s="19" customFormat="1"/>
-    <row r="23" spans="1:26">
+    <row r="22" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>130</v>
       </c>
@@ -15005,7 +15160,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="43"/>
       <c r="C24" s="5" t="str">
@@ -15033,7 +15188,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15046,7 +15201,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15059,7 +15214,7 @@
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15072,7 +15227,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15085,7 +15240,7 @@
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15098,7 +15253,7 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>
@@ -15113,7 +15268,7 @@
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -15123,7 +15278,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:26" s="19" customFormat="1">
+    <row r="32" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -15151,8 +15306,8 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:8" s="19" customFormat="1"/>
-    <row r="34" spans="1:8">
+    <row r="33" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>132</v>
       </c>
@@ -15164,7 +15319,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="43"/>
       <c r="C35" s="5" t="str">
@@ -15192,7 +15347,7 @@
         <v>CSW</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="5" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
@@ -15205,7 +15360,7 @@
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="5" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
@@ -15218,7 +15373,7 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="5" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
@@ -15233,7 +15388,7 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="5" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
@@ -15246,7 +15401,7 @@
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="5" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
@@ -15259,7 +15414,7 @@
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="5" t="str">
         <f>'Populations &amp; programs'!$C$8</f>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -3225,8 +3225,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,8 +8134,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10138,8 +10138,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS71"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" topLeftCell="R17" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,8 +13269,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS85"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17287,7 +17287,9 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="164">
   <si>
     <t>Men who have sex with men</t>
   </si>
@@ -55,11 +55,11 @@
   </si>
   <si>
     <t>PMTCT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -74,11 +74,11 @@
       </rPr>
       <t>C</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Prevalence of any discharging STIs</t>
@@ -548,10 +548,17 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,795 +712,799 @@
   </borders>
   <cellStyleXfs count="663">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="655" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2919,7 +2930,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -3210,7 +3221,7 @@
       <c r="H19" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3791,7 +3802,7 @@
       <c r="E69" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4073,7 +4084,7 @@
       <c r="E28" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5279,7 +5290,7 @@
       <c r="T57" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5424,7 +5435,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27">
-        <f t="shared" ref="F4:Q4" si="0">550000*H3</f>
+        <f t="shared" ref="H4:Q4" si="0">550000*H3</f>
         <v>77000.000000000015</v>
       </c>
       <c r="I4" s="27">
@@ -5968,7 +5979,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598"/>
   <extLst>
@@ -7456,7 +7467,7 @@
       <c r="U53" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8119,7 +8130,7 @@
       <c r="T33" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8134,8 +8145,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8330,26 +8341,66 @@
       <c r="T3" s="25">
         <v>0.01</v>
       </c>
-      <c r="W3" s="40"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
+      <c r="W3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AK3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AQ3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="AR3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="str">
@@ -10122,7 +10173,7 @@
       <c r="S42" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10138,7 +10189,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R17" workbookViewId="0">
+    <sheetView topLeftCell="R17" workbookViewId="0">
       <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
@@ -13253,7 +13304,7 @@
       <c r="AS71" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -17271,7 +17322,7 @@
       <c r="AS85" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -18335,7 +18386,7 @@
       <c r="AS20" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -19241,7 +19292,7 @@
       <c r="H41" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Disutilities &amp; costs" sheetId="14" r:id="rId12"/>
     <sheet name="Macroeconomics" sheetId="18" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -491,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1306,7 +1306,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1361,10 +1361,10 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="662" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="662" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1421,7 +1421,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2417,7 +2417,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3089,8 +3089,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14538,8 +14538,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="163">
   <si>
     <t>Men who have sex with men</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>ART</t>
-  </si>
-  <si>
-    <t>BCC</t>
   </si>
   <si>
     <t>STI</t>
@@ -2501,39 +2498,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,13 +2608,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="E5" s="50" t="s">
         <v>144</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>145</v>
       </c>
       <c r="F5" s="44" t="b">
         <v>1</v>
@@ -2646,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="44" t="b">
         <v>1</v>
@@ -2681,13 +2678,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="44" t="b">
         <v>0</v>
@@ -2722,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="44" t="b">
         <v>1</v>
@@ -2757,23 +2754,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2787,7 +2784,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="44" t="b">
         <v>1</v>
@@ -2818,10 +2815,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="44" t="b">
         <v>1</v>
@@ -2835,10 +2832,10 @@
         <v>56</v>
       </c>
       <c r="D17" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="F17" s="44" t="b">
         <v>1</v>
@@ -2883,13 +2880,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="44" t="b">
         <v>1</v>
@@ -2900,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="44" t="b">
         <v>1</v>
@@ -3249,23 +3246,23 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="26">
         <v>4.0000000000000002E-4</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="26">
         <v>1E-3</v>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="26">
         <v>5.9999999999999995E-4</v>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="26">
         <v>5.0000000000000001E-3</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="26">
         <v>3.0000000000000001E-3</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="25">
         <v>0.05</v>
@@ -3325,7 +3322,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="25">
         <v>0.03</v>
@@ -3345,23 +3342,23 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="22">
         <v>10</v>
@@ -3421,19 +3418,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,18 +3485,18 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,18 +3544,18 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3601,23 +3598,23 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="25">
         <v>0</v>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="25">
         <v>0.04</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="22">
         <v>2</v>
@@ -3697,18 +3694,18 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3723,7 +3720,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="25">
         <v>0.3</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="25">
         <v>0.65</v>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="25">
         <v>3.5</v>
@@ -3763,7 +3760,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25">
         <v>0.05</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="25">
         <v>0.5</v>
@@ -3793,7 +3790,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="25">
         <v>0.5</v>
@@ -3826,7 +3823,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -3837,18 +3834,18 @@
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="24">
         <v>0.05</v>
@@ -3903,7 +3900,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="24">
         <v>5.2999999999999999E-2</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -3942,19 +3939,19 @@
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="22">
         <v>0</v>
@@ -4008,7 +4005,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -4019,19 +4016,19 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="22">
         <v>0</v>
@@ -4111,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -4183,13 +4180,13 @@
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="22">
         <v>71700000000</v>
@@ -4255,13 +4252,13 @@
         <v>392454664938.73016</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="29"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -4333,13 +4330,13 @@
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="43">
         <v>30000000000</v>
@@ -4405,7 +4402,7 @@
         <v>105000000000</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T9" s="29"/>
     </row>
@@ -4483,13 +4480,13 @@
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="22">
         <v>10000000000</v>
@@ -4555,7 +4552,7 @@
         <v>20789281794.113678</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="29"/>
     </row>
@@ -4617,12 +4614,12 @@
         <v>2030</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -4641,7 +4638,7 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" s="29"/>
     </row>
@@ -4715,12 +4712,12 @@
         <v>2030</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="22">
         <f>12%*C15</f>
@@ -4787,7 +4784,7 @@
         <v>2494713815.2936411</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="29"/>
     </row>
@@ -4849,12 +4846,12 @@
         <v>2030</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="22">
         <v>15000000</v>
@@ -4905,7 +4902,7 @@
         <v>18000000</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T33" s="29"/>
     </row>
@@ -4979,12 +4976,12 @@
         <v>2030</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -5003,7 +5000,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T39" s="29"/>
     </row>
@@ -5077,12 +5074,12 @@
         <v>2030</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -5101,7 +5098,7 @@
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
       <c r="S45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T45" s="29"/>
     </row>
@@ -5163,12 +5160,12 @@
         <v>2030</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -5187,7 +5184,7 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T51" s="29"/>
     </row>
@@ -5261,12 +5258,12 @@
         <v>2030</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -5285,7 +5282,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
       <c r="S57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T57" s="29"/>
     </row>
@@ -5320,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -5373,7 +5370,7 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5382,7 +5379,7 @@
         <v>NSP</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="25">
@@ -5415,7 +5412,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U3" s="25"/>
     </row>
@@ -5425,7 +5422,7 @@
         <v>NSP</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="27">
@@ -5465,7 +5462,7 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" s="39"/>
     </row>
@@ -5478,7 +5475,7 @@
         <v>OST</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="25"/>
@@ -5497,7 +5494,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U6" s="25">
         <v>0.2</v>
@@ -5509,7 +5506,7 @@
         <v>OST</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -5528,7 +5525,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" s="52">
         <v>25000</v>
@@ -5543,7 +5540,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="25"/>
@@ -5564,7 +5561,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -5575,7 +5572,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -5596,7 +5593,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U10" s="39"/>
     </row>
@@ -5611,7 +5608,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="25"/>
@@ -5632,7 +5629,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="6"/>
@@ -5643,7 +5640,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -5664,7 +5661,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="39"/>
     </row>
@@ -5674,7 +5671,7 @@
         <v>ART</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="25"/>
@@ -5695,7 +5692,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U15" s="25"/>
     </row>
@@ -5705,7 +5702,7 @@
         <v>ART</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -5726,7 +5723,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U16" s="39"/>
     </row>
@@ -5736,7 +5733,7 @@
         <v>HTC</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="25"/>
@@ -5757,7 +5754,7 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U18" s="25"/>
     </row>
@@ -5767,7 +5764,7 @@
         <v>HTC</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
@@ -5788,7 +5785,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U19" s="39"/>
     </row>
@@ -5798,7 +5795,7 @@
         <v>SBCC</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="25"/>
@@ -5819,7 +5816,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U21" s="25"/>
     </row>
@@ -5829,7 +5826,7 @@
         <v>SBCC</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -5850,7 +5847,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U22" s="39"/>
     </row>
@@ -5860,7 +5857,7 @@
         <v>STI programs</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="25"/>
@@ -5881,7 +5878,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U24" s="25"/>
     </row>
@@ -5891,7 +5888,7 @@
         <v>STI programs</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
@@ -5912,7 +5909,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U25" s="39"/>
     </row>
@@ -5922,7 +5919,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="25"/>
@@ -5941,7 +5938,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U27" s="53">
         <v>128</v>
@@ -5953,7 +5950,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
@@ -5972,7 +5969,7 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U28" s="54">
         <v>2430</v>
@@ -6011,7 +6008,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6064,7 +6061,7 @@
         <v>2015</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6073,7 +6070,7 @@
         <v>MSM</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -6092,7 +6089,7 @@
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U3" s="27">
         <v>37500</v>
@@ -6104,7 +6101,7 @@
         <v>MSM</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -6123,7 +6120,7 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" s="27">
         <v>21000</v>
@@ -6135,7 +6132,7 @@
         <v>MSM</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6154,7 +6151,7 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" s="27">
         <v>11000</v>
@@ -6171,7 +6168,7 @@
         <v>FSW</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -6190,7 +6187,7 @@
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" s="27"/>
     </row>
@@ -6200,7 +6197,7 @@
         <v>FSW</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -6219,7 +6216,7 @@
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U8" s="27">
         <v>15000</v>
@@ -6231,7 +6228,7 @@
         <v>FSW</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -6250,7 +6247,7 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U9" s="27"/>
     </row>
@@ -6281,7 +6278,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -6310,7 +6307,7 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U11" s="27"/>
     </row>
@@ -6320,7 +6317,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -6349,7 +6346,7 @@
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" s="27"/>
     </row>
@@ -6359,7 +6356,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -6388,7 +6385,7 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="27"/>
     </row>
@@ -6419,7 +6416,7 @@
         <v>Other males</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -6438,7 +6435,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U15" s="27"/>
     </row>
@@ -6448,7 +6445,7 @@
         <v>Other males</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="22">
         <v>4227500</v>
@@ -6499,7 +6496,7 @@
         <v>6118320.6906761518</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U16" s="27"/>
     </row>
@@ -6509,7 +6506,7 @@
         <v>Other males</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -6528,7 +6525,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U17" s="27"/>
     </row>
@@ -6559,7 +6556,7 @@
         <v>Other females</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -6578,7 +6575,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U19" s="27"/>
     </row>
@@ -6588,7 +6585,7 @@
         <v>Other females</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="22">
         <v>4759641.7668505535</v>
@@ -6639,7 +6636,7 @@
         <v>7061706.1901886221</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U20" s="27"/>
     </row>
@@ -6649,7 +6646,7 @@
         <v>Other females</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -6668,7 +6665,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U21" s="27"/>
     </row>
@@ -6699,7 +6696,7 @@
         <v>Clients</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6718,7 +6715,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U23" s="27"/>
     </row>
@@ -6728,7 +6725,7 @@
         <v>Clients</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="22">
         <v>522500</v>
@@ -6779,7 +6776,7 @@
         <v>756196.93929705245</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U24" s="27"/>
     </row>
@@ -6789,7 +6786,7 @@
         <v>Clients</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6808,13 +6805,13 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U25" s="27"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6867,7 +6864,7 @@
         <v>2015</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -6876,7 +6873,7 @@
         <v>MSM</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -6897,7 +6894,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U31" s="26"/>
     </row>
@@ -6907,7 +6904,7 @@
         <v>MSM</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -6928,7 +6925,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U32" s="26"/>
     </row>
@@ -6938,7 +6935,7 @@
         <v>MSM</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -6959,7 +6956,7 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U33" s="26"/>
     </row>
@@ -6973,7 +6970,7 @@
         <v>FSW</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -6998,7 +6995,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U35" s="26"/>
     </row>
@@ -7008,7 +7005,7 @@
         <v>FSW</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -7033,7 +7030,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U36" s="26"/>
     </row>
@@ -7043,7 +7040,7 @@
         <v>FSW</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -7068,7 +7065,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U37" s="26"/>
     </row>
@@ -7082,7 +7079,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -7107,7 +7104,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U39" s="26"/>
     </row>
@@ -7117,7 +7114,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -7142,7 +7139,7 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U40" s="26"/>
     </row>
@@ -7152,7 +7149,7 @@
         <v>Male PWID</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -7177,7 +7174,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U41" s="26"/>
     </row>
@@ -7191,7 +7188,7 @@
         <v>Other males</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -7210,7 +7207,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U43" s="26"/>
     </row>
@@ -7220,7 +7217,7 @@
         <v>Other males</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -7239,7 +7236,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U44" s="26">
         <v>5.0000000000000001E-4</v>
@@ -7251,7 +7248,7 @@
         <v>Other males</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -7270,7 +7267,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U45" s="26"/>
     </row>
@@ -7284,7 +7281,7 @@
         <v>Other females</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -7303,7 +7300,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U47" s="26"/>
     </row>
@@ -7313,7 +7310,7 @@
         <v>Other females</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -7340,7 +7337,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U48" s="26"/>
     </row>
@@ -7350,7 +7347,7 @@
         <v>Other females</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -7369,7 +7366,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U49" s="26"/>
     </row>
@@ -7383,7 +7380,7 @@
         <v>Clients</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -7402,7 +7399,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U51" s="26"/>
     </row>
@@ -7412,7 +7409,7 @@
         <v>Clients</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -7431,7 +7428,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U52" s="26">
         <v>0.01</v>
@@ -7443,7 +7440,7 @@
         <v>Clients</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -7462,7 +7459,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U53" s="26"/>
     </row>
@@ -7567,13 +7564,13 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -7592,7 +7589,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="22"/>
     </row>
@@ -7677,13 +7674,13 @@
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7726,7 +7723,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T9" s="22"/>
     </row>
@@ -7811,13 +7808,13 @@
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -7836,7 +7833,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="22"/>
     </row>
@@ -7848,7 +7845,7 @@
     </row>
     <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="6"/>
     </row>
@@ -7903,12 +7900,12 @@
         <v>2015</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -7927,7 +7924,7 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" s="22"/>
     </row>
@@ -8015,13 +8012,13 @@
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -8040,13 +8037,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="22"/>
     </row>
     <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="6"/>
     </row>
@@ -8101,12 +8098,12 @@
         <v>2015</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -8125,7 +8122,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T33" s="22"/>
     </row>
@@ -8145,7 +8142,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P2" workbookViewId="0">
       <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
@@ -8173,31 +8170,31 @@
       <c r="B1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC1" s="6"/>
       <c r="AD1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO1" s="6"/>
       <c r="AP1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8251,67 +8248,67 @@
         <v>2015</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8333,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="25">
         <v>0.01</v>
@@ -8357,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="25">
         <v>0.02</v>
@@ -8424,7 +8421,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="25">
         <v>0.01</v>
@@ -8472,7 +8469,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="25">
         <v>0.03</v>
@@ -8520,7 +8517,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
@@ -8568,7 +8565,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
@@ -8616,7 +8613,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" s="25">
         <v>0.01</v>
@@ -8665,7 +8662,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -8687,28 +8684,28 @@
       <c r="T12" s="7"/>
       <c r="V12" s="18"/>
       <c r="X12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AD12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR12" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR12" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -8763,67 +8760,67 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AJ13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -8849,13 +8846,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="25">
         <v>0</v>
       </c>
       <c r="W14" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X14" s="46">
         <v>0.2</v>
@@ -8908,13 +8905,13 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="25">
         <v>0</v>
       </c>
       <c r="W15" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X15" s="25">
         <v>0.2</v>
@@ -8967,13 +8964,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T16" s="25">
         <v>0</v>
       </c>
       <c r="W16" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X16" s="25">
         <v>0.2</v>
@@ -9026,13 +9023,13 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" s="25">
         <v>0</v>
       </c>
       <c r="W17" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X17" s="25">
         <v>0.1</v>
@@ -9085,13 +9082,13 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T18" s="25">
         <v>0</v>
       </c>
       <c r="W18" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X18" s="25">
         <v>0.1</v>
@@ -9144,13 +9141,13 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" s="25">
         <v>0</v>
       </c>
       <c r="W19" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X19" s="25">
         <v>0.2</v>
@@ -9208,31 +9205,31 @@
       <c r="B23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z23" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z23" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF23" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF23" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL23" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL23" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO23" s="6"/>
       <c r="AP23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR23" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR23" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9286,67 +9283,67 @@
         <v>2015</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="AD24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AI24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AJ24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AL24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI24" s="4" t="s">
+      <c r="AO24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AP24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL24" s="6" t="s">
+      <c r="AR24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS24" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS24" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9371,13 +9368,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T25" s="25">
         <v>0</v>
       </c>
       <c r="W25" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X25" s="46">
         <v>0.2</v>
@@ -9429,13 +9426,13 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" s="25">
         <v>0</v>
       </c>
       <c r="W26" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X26" s="25">
         <v>0.2</v>
@@ -9487,13 +9484,13 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="25">
         <v>0</v>
       </c>
       <c r="W27" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X27" s="25">
         <v>0.2</v>
@@ -9545,13 +9542,13 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T28" s="25">
         <v>0</v>
       </c>
       <c r="W28" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X28" s="25">
         <v>0.1</v>
@@ -9603,13 +9600,13 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T29" s="25">
         <v>0</v>
       </c>
       <c r="W29" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X29" s="25">
         <v>0.1</v>
@@ -9661,13 +9658,13 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T30" s="25">
         <v>0</v>
       </c>
       <c r="W30" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X30" s="25">
         <v>0.2</v>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -9739,30 +9736,30 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="X34" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y34" s="18"/>
       <c r="Z34" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA34" s="18"/>
       <c r="AD34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF34" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR34" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR34" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
@@ -9817,67 +9814,67 @@
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AI35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AJ35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AL35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI35" s="4" t="s">
+      <c r="AO35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ35" s="6" t="s">
+      <c r="AP35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL35" s="6" t="s">
+      <c r="AR35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS35" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS35" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
@@ -9903,7 +9900,7 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T36" s="25">
         <v>0</v>
@@ -9951,7 +9948,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T37" s="25">
         <v>0</v>
@@ -9999,7 +9996,7 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T38" s="25">
         <v>0</v>
@@ -10047,7 +10044,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T39" s="25">
         <v>0</v>
@@ -10095,7 +10092,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T40" s="25">
         <v>0</v>
@@ -10143,7 +10140,7 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T41" s="25">
         <v>0</v>
@@ -10189,8 +10186,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS71"/>
   <sheetViews>
-    <sheetView topLeftCell="R17" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10229,30 +10226,30 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="X1" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="18"/>
       <c r="AD1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -10307,67 +10304,67 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -10393,7 +10390,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="25">
         <v>0.03</v>
@@ -10456,7 +10453,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="25"/>
       <c r="W4" s="40" t="s">
@@ -10519,11 +10516,11 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="22"/>
       <c r="W5" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X5" s="25">
         <v>0.15</v>
@@ -10576,13 +10573,13 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="25">
         <v>0.01</v>
       </c>
       <c r="W6" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X6" s="25">
         <v>0</v>
@@ -10635,13 +10632,13 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" s="25">
         <v>0.01</v>
       </c>
       <c r="W7" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X7" s="25">
         <v>0.05</v>
@@ -10694,13 +10691,13 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" s="25">
         <v>0.05</v>
       </c>
       <c r="W8" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X8" s="25">
         <v>0.1</v>
@@ -10767,30 +10764,30 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="X12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="18"/>
       <c r="Z12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA12" s="18"/>
       <c r="AD12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR12" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR12" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -10845,73 +10842,73 @@
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AJ13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -10930,13 +10927,13 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="25">
         <v>0.5</v>
       </c>
       <c r="W14" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X14" s="25">
         <v>0.4</v>
@@ -11003,30 +11000,30 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="X18" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA18" s="18"/>
       <c r="AD18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF18" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL18" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR18" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR18" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -11081,73 +11078,73 @@
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI19" s="4" t="s">
+      <c r="AO19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AP19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AR19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS19" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
@@ -11194,7 +11191,7 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" s="22"/>
       <c r="W20" s="40" t="s">
@@ -11265,30 +11262,30 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="X24" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y24" s="18"/>
       <c r="Z24" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA24" s="18"/>
       <c r="AD24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF24" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL24" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR24" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR24" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
@@ -11343,73 +11340,73 @@
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AI25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI25" s="4" t="s">
+      <c r="AO25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AP25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AR25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS25" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS25" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -11456,7 +11453,7 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" s="22"/>
       <c r="W26" s="40" t="s">
@@ -11513,36 +11510,36 @@
     </row>
     <row r="30" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z30" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC30" s="6"/>
       <c r="AD30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF30" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF30" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL30" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL30" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO30" s="6"/>
       <c r="AP30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR30" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR30" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11596,67 +11593,67 @@
         <v>2015</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X31" s="6" t="s">
+      <c r="AD31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AI31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AJ31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AL31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI31" s="4" t="s">
+      <c r="AO31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ31" s="6" t="s">
+      <c r="AP31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL31" s="6" t="s">
+      <c r="AR31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS31" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS31" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11681,7 +11678,7 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T32" s="24">
         <v>0</v>
@@ -11729,7 +11726,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T33" s="24">
         <v>0</v>
@@ -11777,7 +11774,7 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T34" s="24">
         <v>0</v>
@@ -11825,7 +11822,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T35" s="24">
         <v>0</v>
@@ -11873,7 +11870,7 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T36" s="24">
         <f>2/50</f>
@@ -11922,7 +11919,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T37" s="24">
         <v>0</v>
@@ -11964,36 +11961,36 @@
     </row>
     <row r="41" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z41" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z41" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC41" s="6"/>
       <c r="AD41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF41" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF41" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL41" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL41" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO41" s="6"/>
       <c r="AP41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR41" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR41" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -12047,67 +12044,67 @@
         <v>2015</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="AD42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC42" s="4" t="s">
+      <c r="AI42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AJ42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF42" s="6" t="s">
+      <c r="AL42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI42" s="4" t="s">
+      <c r="AO42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ42" s="6" t="s">
+      <c r="AP42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL42" s="6" t="s">
+      <c r="AR42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS42" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS42" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -12132,7 +12129,7 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
@@ -12180,7 +12177,7 @@
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
       <c r="S44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T44" s="24">
         <v>0</v>
@@ -12228,7 +12225,7 @@
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
       <c r="S45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T45" s="24">
         <v>0</v>
@@ -12276,7 +12273,7 @@
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T46" s="24">
         <v>0</v>
@@ -12324,7 +12321,7 @@
       <c r="Q47" s="25"/>
       <c r="R47" s="22"/>
       <c r="S47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T47" s="24">
         <f>2/50</f>
@@ -12373,7 +12370,7 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T48" s="24">
         <v>0</v>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -12443,30 +12440,30 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="X52" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y52" s="18"/>
       <c r="Z52" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA52" s="18"/>
       <c r="AD52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF52" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF52" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL52" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL52" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR52" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR52" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.25">
@@ -12521,73 +12518,73 @@
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X53" s="6" t="s">
+      <c r="AD53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z53" s="6" t="s">
+      <c r="AF53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC53" s="4" t="s">
+      <c r="AI53" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD53" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF53" s="6" t="s">
+      <c r="AL53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI53" s="4" t="s">
+      <c r="AO53" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ53" s="6" t="s">
+      <c r="AP53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL53" s="6" t="s">
+      <c r="AR53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS53" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO53" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS53" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -12616,11 +12613,11 @@
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T54" s="22"/>
       <c r="W54" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X54" s="25">
         <v>0</v>
@@ -12678,31 +12675,31 @@
       <c r="B58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z58" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z58" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC58" s="6"/>
       <c r="AD58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF58" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF58" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL58" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL58" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO58" s="6"/>
       <c r="AP58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR58" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR58" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -12756,67 +12753,67 @@
         <v>2015</v>
       </c>
       <c r="T59" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC59" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X59" s="6" t="s">
+      <c r="AD59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z59" s="6" t="s">
+      <c r="AF59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC59" s="4" t="s">
+      <c r="AI59" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD59" s="6" t="s">
+      <c r="AJ59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF59" s="6" t="s">
+      <c r="AL59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI59" s="4" t="s">
+      <c r="AO59" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ59" s="6" t="s">
+      <c r="AP59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL59" s="6" t="s">
+      <c r="AR59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS59" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO59" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS59" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -12841,7 +12838,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="24">
         <v>0</v>
@@ -12889,7 +12886,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T61" s="24">
         <v>0</v>
@@ -12937,7 +12934,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T62" s="24">
         <v>0</v>
@@ -12985,7 +12982,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T63" s="24">
         <v>0</v>
@@ -13033,7 +13030,7 @@
       <c r="Q64" s="25"/>
       <c r="R64" s="22"/>
       <c r="S64" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T64" s="24">
         <f>2/50</f>
@@ -13082,7 +13079,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T65" s="24">
         <v>0</v>
@@ -13115,31 +13112,31 @@
       <c r="B69" s="6"/>
       <c r="W69" s="6"/>
       <c r="X69" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z69" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="Z69" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AC69" s="6"/>
       <c r="AD69" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF69" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AF69" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AI69" s="6"/>
       <c r="AJ69" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL69" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AL69" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="AO69" s="6"/>
       <c r="AP69" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR69" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR69" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -13193,72 +13190,72 @@
         <v>2015</v>
       </c>
       <c r="T70" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC70" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X70" s="6" t="s">
+      <c r="AD70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z70" s="6" t="s">
+      <c r="AF70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC70" s="4" t="s">
+      <c r="AI70" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AJ70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF70" s="6" t="s">
+      <c r="AL70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI70" s="4" t="s">
+      <c r="AO70" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ70" s="6" t="s">
+      <c r="AP70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL70" s="6" t="s">
+      <c r="AR70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS70" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP70" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR70" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS70" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -13277,7 +13274,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T71" s="25">
         <v>0.3</v>
@@ -13320,8 +13317,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AS85"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="W80" sqref="W80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13339,7 +13336,7 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -13359,30 +13356,30 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="X1" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="18"/>
       <c r="AD1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -13437,69 +13434,69 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AI2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AO2" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -13525,7 +13522,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="33">
         <v>80</v>
@@ -13576,7 +13573,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="33">
         <v>80</v>
@@ -13627,7 +13624,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="33">
         <v>80</v>
@@ -13678,7 +13675,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="33">
         <v>80</v>
@@ -13729,7 +13726,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" s="33">
         <v>80</v>
@@ -13780,7 +13777,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" s="33">
         <v>80</v>
@@ -13818,7 +13815,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -13838,30 +13835,30 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="X12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="18"/>
       <c r="Z12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA12" s="18"/>
       <c r="AD12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR12" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR12" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -13916,69 +13913,69 @@
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AJ13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -14004,7 +14001,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="29">
         <v>10</v>
@@ -14055,7 +14052,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T15" s="29">
         <v>10</v>
@@ -14106,7 +14103,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T16" s="29">
         <v>10</v>
@@ -14157,7 +14154,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" s="29">
         <v>10</v>
@@ -14208,7 +14205,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T18" s="29">
         <v>10</v>
@@ -14259,7 +14256,7 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" s="29">
         <v>10</v>
@@ -14297,7 +14294,7 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -14317,30 +14314,30 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="X23" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y23" s="18"/>
       <c r="Z23" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA23" s="18"/>
       <c r="AD23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF23" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL23" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR23" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR23" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -14395,69 +14392,69 @@
       </c>
       <c r="S24" s="11"/>
       <c r="T24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="AD24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AI24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AJ24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AL24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI24" s="4" t="s">
+      <c r="AO24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AP24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL24" s="6" t="s">
+      <c r="AR24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS24" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS24" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
@@ -14483,7 +14480,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T25" s="29">
         <v>0</v>
@@ -14534,7 +14531,7 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" s="29">
         <v>500</v>
@@ -14585,7 +14582,7 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="29">
         <v>0</v>
@@ -14636,7 +14633,7 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T28" s="29">
         <v>0</v>
@@ -14687,7 +14684,7 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T29" s="29">
         <v>0</v>
@@ -14738,7 +14735,7 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T30" s="29">
         <v>10</v>
@@ -14776,7 +14773,7 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -14796,30 +14793,30 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="X34" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y34" s="18"/>
       <c r="Z34" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA34" s="18"/>
       <c r="AD34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF34" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR34" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR34" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
@@ -14874,69 +14871,69 @@
       </c>
       <c r="S35" s="11"/>
       <c r="T35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AI35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AJ35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AL35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI35" s="4" t="s">
+      <c r="AO35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ35" s="6" t="s">
+      <c r="AP35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL35" s="6" t="s">
+      <c r="AR35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS35" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR35" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS35" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
@@ -14962,7 +14959,7 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T36" s="30">
         <v>0.4</v>
@@ -15033,7 +15030,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T37" s="30"/>
       <c r="U37" s="6"/>
@@ -15092,7 +15089,7 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T38" s="30">
         <v>0.05</v>
@@ -15100,7 +15097,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X38" s="30">
         <v>0.03</v>
@@ -15153,7 +15150,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T39" s="30">
         <v>0.05</v>
@@ -15161,7 +15158,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X39" s="30">
         <v>0.03</v>
@@ -15214,7 +15211,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T40" s="30">
         <v>0.05</v>
@@ -15222,7 +15219,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X40" s="30">
         <v>0.03</v>
@@ -15275,7 +15272,7 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T41" s="30">
         <v>7.0000000000000007E-2</v>
@@ -15323,7 +15320,7 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -15343,30 +15340,30 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="X45" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y45" s="18"/>
       <c r="Z45" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA45" s="18"/>
       <c r="AD45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF45" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL45" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR45" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR45" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
@@ -15421,69 +15418,69 @@
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="AD46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AI46" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AJ46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF46" s="6" t="s">
+      <c r="AL46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI46" s="4" t="s">
+      <c r="AO46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ46" s="6" t="s">
+      <c r="AP46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL46" s="6" t="s">
+      <c r="AR46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS46" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS46" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
@@ -15509,7 +15506,7 @@
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
       <c r="S47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T47" s="30">
         <v>0.6</v>
@@ -15580,7 +15577,7 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T48" s="30"/>
       <c r="U48" s="6"/>
@@ -15639,7 +15636,7 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T49" s="30">
         <v>0.5</v>
@@ -15647,7 +15644,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X49" s="30">
         <v>0.3</v>
@@ -15706,13 +15703,13 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T50" s="30"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X50" s="30">
         <v>0.35</v>
@@ -15771,13 +15768,13 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T51" s="30"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="40" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="X51" s="30">
         <v>0.35</v>
@@ -15830,7 +15827,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T52" s="30">
         <v>0.5</v>
@@ -15878,7 +15875,7 @@
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -15898,30 +15895,30 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="X56" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y56" s="18"/>
       <c r="Z56" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA56" s="18"/>
       <c r="AD56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF56" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF56" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL56" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL56" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR56" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR56" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.25">
@@ -15976,69 +15973,69 @@
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y57" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC57" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X57" s="6" t="s">
+      <c r="AD57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z57" s="6" t="s">
+      <c r="AF57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC57" s="4" t="s">
+      <c r="AI57" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD57" s="6" t="s">
+      <c r="AJ57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF57" s="6" t="s">
+      <c r="AL57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI57" s="4" t="s">
+      <c r="AO57" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ57" s="6" t="s">
+      <c r="AP57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL57" s="6" t="s">
+      <c r="AR57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS57" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO57" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS57" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.25">
@@ -16064,7 +16061,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T58" s="29">
         <v>0</v>
@@ -16125,7 +16122,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T59" s="40"/>
       <c r="U59" s="6"/>
@@ -16184,7 +16181,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="30">
         <v>0</v>
@@ -16235,7 +16232,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
       <c r="S61" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T61" s="30">
         <v>0</v>
@@ -16286,7 +16283,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T62" s="29">
         <v>0</v>
@@ -16347,7 +16344,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T63" s="41"/>
       <c r="U63" s="6"/>
@@ -16413,30 +16410,30 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="X67" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y67" s="18"/>
       <c r="Z67" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA67" s="18"/>
       <c r="AD67" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF67" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF67" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ67" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL67" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL67" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP67" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR67" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR67" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.25">
@@ -16491,69 +16488,69 @@
       </c>
       <c r="S68" s="11"/>
       <c r="T68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X68" s="6" t="s">
+      <c r="AD68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z68" s="6" t="s">
+      <c r="AF68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC68" s="4" t="s">
+      <c r="AI68" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AJ68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF68" s="6" t="s">
+      <c r="AL68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI68" s="4" t="s">
+      <c r="AO68" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ68" s="6" t="s">
+      <c r="AP68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL68" s="6" t="s">
+      <c r="AR68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS68" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP68" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR68" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS68" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.25">
@@ -16579,7 +16576,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T69" s="30">
         <v>0.03</v>
@@ -16630,7 +16627,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T70" s="29">
         <v>0</v>
@@ -16681,7 +16678,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T71" s="30">
         <v>2.5999999999999999E-2</v>
@@ -16732,7 +16729,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T72" s="30">
         <v>0.03</v>
@@ -16783,7 +16780,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T73" s="30">
         <v>0</v>
@@ -16834,7 +16831,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T74" s="30">
         <v>0.03</v>
@@ -16876,33 +16873,33 @@
     </row>
     <row r="78" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="6"/>
       <c r="T78" s="31"/>
       <c r="X78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z78" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="Z78" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AD78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF78" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AF78" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL78" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL78" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="AP78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR78" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="AR78" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -16956,69 +16953,69 @@
         <v>2015</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X79" s="6" t="s">
+      <c r="AD79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z79" s="6" t="s">
+      <c r="AF79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC79" s="4" t="s">
+      <c r="AI79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="AJ79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF79" s="6" t="s">
+      <c r="AL79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI79" s="4" t="s">
+      <c r="AO79" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ79" s="6" t="s">
+      <c r="AP79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL79" s="6" t="s">
+      <c r="AR79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS79" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO79" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP79" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR79" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS79" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:45" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -17043,7 +17040,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T80" s="30">
         <v>0.03</v>
@@ -17093,7 +17090,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T81" s="29">
         <v>0</v>
@@ -17143,7 +17140,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T82" s="30">
         <v>2.5999999999999999E-2</v>
@@ -17193,7 +17190,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T83" s="30">
         <v>0.03</v>
@@ -17243,7 +17240,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T84" s="30">
         <v>0</v>
@@ -17293,7 +17290,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T85" s="30">
         <v>0.03</v>
@@ -17360,7 +17357,7 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17380,28 +17377,28 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="X1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AD1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AP1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -17456,69 +17453,69 @@
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -17544,7 +17541,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="29">
         <v>0</v>
@@ -17595,7 +17592,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" s="29">
         <v>0</v>
@@ -17646,7 +17643,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T5" s="29">
         <v>400</v>
@@ -17697,7 +17694,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="29">
         <v>0</v>
@@ -17748,7 +17745,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T7" s="29">
         <v>0</v>
@@ -17799,7 +17796,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T8" s="29">
         <v>0</v>
@@ -17901,28 +17898,28 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="X12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AD12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AF12" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AP12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR12" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="AR12" s="32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -17977,67 +17974,67 @@
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AJ13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -18070,7 +18067,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="40"/>
       <c r="U14" s="6"/>
@@ -18160,7 +18157,7 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -18180,28 +18177,28 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="X18" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="Z18" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AD18" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AF18" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ18" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AL18" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="AP18" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR18" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="AR18" s="32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -18256,69 +18253,69 @@
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AE19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI19" s="4" t="s">
+      <c r="AO19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AP19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AK19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AR19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS19" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -18349,7 +18346,7 @@
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
       <c r="S20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T20" s="40"/>
       <c r="U20" s="6"/>
@@ -18413,7 +18410,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -18717,7 +18714,7 @@
     <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -19014,7 +19011,7 @@
     <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -19173,7 +19170,7 @@
     <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>

--- a/server/src/sim/example.xlsx
+++ b/server/src/sim/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19425" windowHeight="10965" tabRatio="863" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="156">
   <si>
     <t>Men who have sex with men</t>
   </si>
@@ -48,37 +48,15 @@
     <t>Antiretroviral therapy</t>
   </si>
   <si>
-    <t>HIV counseling and testing</t>
-  </si>
-  <si>
     <t>CSW</t>
   </si>
   <si>
-    <t>PMTCT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Prevention of mother-to-child transmission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Prevalence of any discharging STIs</t>
@@ -226,12 +204,6 @@
   </si>
   <si>
     <t>ART</t>
-  </si>
-  <si>
-    <t>STI</t>
-  </si>
-  <si>
-    <t>HTC</t>
   </si>
   <si>
     <t>PMTCT</t>
@@ -471,9 +443,6 @@
     <t>SBCC</t>
   </si>
   <si>
-    <t>Diagnosis and treatment of sexually transmissible infections</t>
-  </si>
-  <si>
     <t>MWID</t>
   </si>
   <si>
@@ -484,9 +453,6 @@
   </si>
   <si>
     <t>MSM programs</t>
-  </si>
-  <si>
-    <t>STI programs</t>
   </si>
   <si>
     <t>OM</t>
@@ -545,10 +511,17 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -709,799 +682,796 @@
   </borders>
   <cellStyleXfs count="663">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="655" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="655" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="655" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2476,7 +2446,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -2498,39 +2468,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2538,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>0</v>
@@ -2573,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>1</v>
@@ -2608,13 +2578,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F5" s="44" t="b">
         <v>1</v>
@@ -2643,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F6" s="44" t="b">
         <v>1</v>
@@ -2678,13 +2648,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F7" s="44" t="b">
         <v>0</v>
@@ -2713,13 +2683,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F8" s="44" t="b">
         <v>1</v>
@@ -2754,37 +2724,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>1</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>137</v>
+      <c r="C14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="F14" s="44" t="b">
         <v>1</v>
@@ -2795,33 +2765,33 @@
         <v>2</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="F15" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
